--- a/SMCI/SMCI.xlsx
+++ b/SMCI/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/SMCI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1766" documentId="11_F25DC773A252ABDACC10487F99996F625BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B16E8813-CEC6-4E15-B7DD-284155188130}"/>
+  <xr:revisionPtr revIDLastSave="1770" documentId="11_F25DC773A252ABDACC10487F99996F625BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85457CA4-4B1C-45C9-9C89-FFAD206E7FA7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30590" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="2020" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -693,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -705,22 +705,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -737,6 +733,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,9 +863,9 @@
     <v>50.28</v>
     <v>1.1327</v>
     <v>-1.45</v>
-    <v>3.529E-3</v>
+    <v>2.7520000000000001E-3</v>
     <v>-4.6730000000000001E-3</v>
-    <v>1.0900000000000001</v>
+    <v>0.85</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>5126</v>
@@ -876,7 +876,7 @@
     <v>315.97000000000003</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45210.85295887656</v>
+    <v>45210.901030392968</v>
     <v>0</v>
     <v>302.56009999999998</v>
     <v>16340531717</v>
@@ -886,11 +886,11 @@
     <v>27.118200000000002</v>
     <v>310.31</v>
     <v>308.86</v>
-    <v>309.95</v>
+    <v>309.70999999999998</v>
     <v>52905950</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>3690037</v>
+    <v>3695317</v>
     <v>2819332</v>
     <v>2006</v>
   </rv>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B65D296-4349-466C-8B01-63C7ADC6A8A0}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1598,13 +1598,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1614,17 +1614,17 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1647,11 +1647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AZ142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C127" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N151" sqref="N151"/>
+      <selection pane="bottomRight" activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1978,62 +1978,62 @@
         <v>37.01</v>
       </c>
     </row>
-    <row r="7" spans="2:52" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:52" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <v>27.33</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <v>28.14</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <v>33.93</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <v>36.79</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="17">
         <v>36.270000000000003</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <v>40.479999999999997</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <v>41.43</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="17">
         <v>45.7</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="17">
         <v>56.99</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="17">
         <v>76.13</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="17">
         <v>89.95</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="17">
         <v>166.17</v>
       </c>
-      <c r="AM7" s="18">
+      <c r="AM7" s="17">
         <v>22.23</v>
       </c>
-      <c r="AN7" s="18">
+      <c r="AN7" s="17">
         <v>18.37</v>
       </c>
-      <c r="AO7" s="18">
+      <c r="AO7" s="17">
         <v>22.54</v>
       </c>
-      <c r="AP7" s="18">
+      <c r="AP7" s="17">
         <v>31.51</v>
       </c>
-      <c r="AQ7" s="18">
+      <c r="AQ7" s="17">
         <v>40.909999999999997</v>
       </c>
-      <c r="AR7" s="18">
+      <c r="AR7" s="17">
         <v>96.69</v>
       </c>
     </row>
@@ -2495,8 +2495,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:52" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="2:52" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="11" t="e">
@@ -2660,167 +2660,167 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:52" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="24" t="s">
+    <row r="19" spans="2:52" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="24" t="e">
+      <c r="G19" s="22" t="e">
         <f>(G15-C15)/ABS(C15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="24" t="e">
+      <c r="H19" s="22" t="e">
         <f t="shared" ref="H19:W19" si="22">(H15-D15)/ABS(D15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="24" t="e">
+      <c r="I19" s="22" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="24" t="e">
+      <c r="J19" s="22" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="24" t="e">
+      <c r="K19" s="22" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="24" t="e">
+      <c r="L19" s="22" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="24" t="e">
+      <c r="M19" s="22" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="24" t="e">
+      <c r="N19" s="22" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="22">
         <f t="shared" si="22"/>
         <v>0.35484421121679244</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="22">
         <f t="shared" si="22"/>
         <v>0.4120324314168512</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="22">
         <f t="shared" si="22"/>
         <v>0.51302460929520755</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="22">
         <f t="shared" si="22"/>
         <v>0.52995098988458922</v>
       </c>
-      <c r="S19" s="24">
+      <c r="S19" s="22">
         <f t="shared" si="22"/>
         <v>0.79343100326319571</v>
       </c>
-      <c r="T19" s="24">
+      <c r="T19" s="22">
         <f t="shared" si="22"/>
         <v>0.53801243412124844</v>
       </c>
-      <c r="U19" s="24">
+      <c r="U19" s="22">
         <f t="shared" si="22"/>
         <v>-5.3260444562482911E-2</v>
       </c>
-      <c r="V19" s="24">
+      <c r="V19" s="22">
         <f t="shared" si="22"/>
         <v>0.33594075309652738</v>
       </c>
-      <c r="W19" s="24">
+      <c r="W19" s="22">
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="X19" s="24">
+      <c r="X19" s="22">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="Y19" s="24">
+      <c r="Y19" s="22">
         <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="Z19" s="24">
+      <c r="Z19" s="22">
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="AA19" s="24" t="e">
+      <c r="AA19" s="22" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB19" s="24" t="e">
+      <c r="AB19" s="22" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC19" s="24" t="e">
+      <c r="AC19" s="22" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD19" s="24" t="e">
+      <c r="AD19" s="22" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK19" s="24" t="e">
+      <c r="AK19" s="22" t="e">
         <f>(AK15-AJ15)/ABS(AJ15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL19" s="24" t="e">
+      <c r="AL19" s="22" t="e">
         <f t="shared" ref="AL19:AZ19" si="23">(AL15-AK15)/ABS(AK15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM19" s="24" t="e">
+      <c r="AM19" s="22" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN19" s="24" t="e">
+      <c r="AN19" s="22" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO19" s="24">
+      <c r="AO19" s="22">
         <f t="shared" si="23"/>
         <v>-4.6023311621528819E-2</v>
       </c>
-      <c r="AP19" s="24">
+      <c r="AP19" s="22">
         <f t="shared" si="23"/>
         <v>6.531308956967026E-2</v>
       </c>
-      <c r="AQ19" s="24">
+      <c r="AQ19" s="22">
         <f t="shared" si="23"/>
         <v>0.46064541519086982</v>
       </c>
-      <c r="AR19" s="24">
+      <c r="AR19" s="22">
         <f t="shared" si="23"/>
         <v>0.37093204518773687</v>
       </c>
-      <c r="AS19" s="24">
+      <c r="AS19" s="22">
         <f t="shared" si="23"/>
         <v>-1</v>
       </c>
-      <c r="AT19" s="24" t="e">
+      <c r="AT19" s="22" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU19" s="24" t="e">
+      <c r="AU19" s="22" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV19" s="24" t="e">
+      <c r="AV19" s="22" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW19" s="24" t="e">
+      <c r="AW19" s="22" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX19" s="24" t="e">
+      <c r="AX19" s="22" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY19" s="24" t="e">
+      <c r="AY19" s="22" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AZ19" s="24" t="e">
+      <c r="AZ19" s="22" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -5199,167 +5199,167 @@
         <v>99.584999999999994</v>
       </c>
     </row>
-    <row r="47" spans="2:52" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="14" t="s">
+    <row r="47" spans="2:52" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="13">
         <f>SUM(G44:G46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="13">
         <f t="shared" ref="H47:W47" si="109">SUM(H44:H46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="13">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="13">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="13">
         <f t="shared" si="109"/>
         <v>99.469000000000008</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="13">
         <f t="shared" si="109"/>
         <v>98.72999999999999</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="13">
         <f t="shared" si="109"/>
         <v>105.962</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="13">
         <f t="shared" si="109"/>
         <v>106.42999999999999</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="13">
         <f t="shared" si="109"/>
         <v>109.011</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P47" s="13">
         <f t="shared" si="109"/>
         <v>112.69400000000002</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="Q47" s="13">
         <f t="shared" si="109"/>
         <v>120.99799999999999</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R47" s="13">
         <f t="shared" si="109"/>
         <v>122.13100000000003</v>
       </c>
-      <c r="S47" s="14">
+      <c r="S47" s="13">
         <f t="shared" si="109"/>
         <v>127.41199999999999</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="13">
         <f t="shared" si="109"/>
         <v>122.24000000000001</v>
       </c>
-      <c r="U47" s="14">
+      <c r="U47" s="13">
         <f t="shared" si="109"/>
         <v>127.277</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V47" s="13">
         <f t="shared" si="109"/>
         <v>144.941</v>
       </c>
-      <c r="W47" s="14">
+      <c r="W47" s="13">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="X47" s="14">
+      <c r="X47" s="13">
         <f t="shared" ref="X47" si="110">SUM(X44:X46)</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="Y47" s="13">
         <f t="shared" ref="Y47" si="111">SUM(Y44:Y46)</f>
         <v>0</v>
       </c>
-      <c r="Z47" s="14">
+      <c r="Z47" s="13">
         <f t="shared" ref="Z47" si="112">SUM(Z44:Z46)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="14">
+      <c r="AA47" s="13">
         <f t="shared" ref="AA47" si="113">SUM(AA44:AA46)</f>
         <v>0</v>
       </c>
-      <c r="AB47" s="14">
+      <c r="AB47" s="13">
         <f t="shared" ref="AB47" si="114">SUM(AB44:AB46)</f>
         <v>0</v>
       </c>
-      <c r="AC47" s="14">
+      <c r="AC47" s="13">
         <f t="shared" ref="AC47" si="115">SUM(AC44:AC46)</f>
         <v>0</v>
       </c>
-      <c r="AD47" s="14">
+      <c r="AD47" s="13">
         <f t="shared" ref="AD47" si="116">SUM(AD44:AD46)</f>
         <v>0</v>
       </c>
-      <c r="AK47" s="14">
+      <c r="AK47" s="13">
         <f>SUM(AK44:AK46)</f>
         <v>0</v>
       </c>
-      <c r="AL47" s="14">
+      <c r="AL47" s="13">
         <f t="shared" ref="AL47:AZ47" si="117">SUM(AL44:AL46)</f>
         <v>0</v>
       </c>
-      <c r="AM47" s="14">
+      <c r="AM47" s="13">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AN47" s="14">
+      <c r="AN47" s="13">
         <f t="shared" si="117"/>
         <v>398.28900000000004</v>
       </c>
-      <c r="AO47" s="14">
+      <c r="AO47" s="13">
         <f t="shared" si="117"/>
         <v>440.55600000000004</v>
       </c>
-      <c r="AP47" s="14">
+      <c r="AP47" s="13">
         <f t="shared" si="117"/>
         <v>410.59100000000001</v>
       </c>
-      <c r="AQ47" s="14">
+      <c r="AQ47" s="13">
         <f t="shared" si="117"/>
         <v>464.834</v>
       </c>
-      <c r="AR47" s="14">
+      <c r="AR47" s="13">
         <f t="shared" si="117"/>
         <v>521.87</v>
       </c>
-      <c r="AS47" s="14">
+      <c r="AS47" s="13">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AT47" s="14">
+      <c r="AT47" s="13">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AU47" s="14">
+      <c r="AU47" s="13">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AV47" s="14">
+      <c r="AV47" s="13">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AW47" s="14">
+      <c r="AW47" s="13">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AX47" s="14">
+      <c r="AX47" s="13">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AY47" s="14">
+      <c r="AY47" s="13">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AZ47" s="14">
+      <c r="AZ47" s="13">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
@@ -6100,167 +6100,167 @@
         <v>-3.633</v>
       </c>
     </row>
-    <row r="56" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="23" t="s">
+    <row r="56" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="21">
         <f>SUM(G53:G55)</f>
         <v>0</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="21">
         <f t="shared" ref="H56:W56" si="145">SUM(H53:H55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="21">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="21">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="21">
         <f t="shared" si="145"/>
         <v>26.600999999999956</v>
       </c>
-      <c r="L56" s="23">
+      <c r="L56" s="21">
         <f t="shared" si="145"/>
         <v>27.674000000000039</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="21">
         <f t="shared" si="145"/>
         <v>18.427999999999937</v>
       </c>
-      <c r="N56" s="23">
+      <c r="N56" s="21">
         <f t="shared" si="145"/>
         <v>39.162000000000198</v>
       </c>
-      <c r="O56" s="23">
+      <c r="O56" s="21">
         <f t="shared" si="145"/>
         <v>25.437000000000015</v>
       </c>
-      <c r="P56" s="23">
+      <c r="P56" s="21">
         <f t="shared" si="145"/>
         <v>41.932000000000038</v>
       </c>
-      <c r="Q56" s="23">
+      <c r="Q56" s="21">
         <f t="shared" si="145"/>
         <v>76.972000000000094</v>
       </c>
-      <c r="R56" s="23">
+      <c r="R56" s="21">
         <f t="shared" si="145"/>
         <v>140.82200000000049</v>
       </c>
-      <c r="S56" s="23">
+      <c r="S56" s="21">
         <f t="shared" si="145"/>
         <v>184.41600000000008</v>
       </c>
-      <c r="T56" s="23">
+      <c r="T56" s="21">
         <f t="shared" si="145"/>
         <v>176.167</v>
       </c>
-      <c r="U56" s="23">
+      <c r="U56" s="21">
         <f t="shared" si="145"/>
         <v>85.846000000000146</v>
       </c>
-      <c r="V56" s="23">
+      <c r="V56" s="21">
         <f t="shared" si="145"/>
         <v>193.5689999999997</v>
       </c>
-      <c r="W56" s="23">
+      <c r="W56" s="21">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="X56" s="23">
+      <c r="X56" s="21">
         <f t="shared" ref="X56" si="146">SUM(X53:X55)</f>
         <v>0</v>
       </c>
-      <c r="Y56" s="23">
+      <c r="Y56" s="21">
         <f t="shared" ref="Y56" si="147">SUM(Y53:Y55)</f>
         <v>0</v>
       </c>
-      <c r="Z56" s="23">
+      <c r="Z56" s="21">
         <f t="shared" ref="Z56" si="148">SUM(Z53:Z55)</f>
         <v>0</v>
       </c>
-      <c r="AA56" s="23">
+      <c r="AA56" s="21">
         <f t="shared" ref="AA56" si="149">SUM(AA53:AA55)</f>
         <v>0</v>
       </c>
-      <c r="AB56" s="23">
+      <c r="AB56" s="21">
         <f t="shared" ref="AB56" si="150">SUM(AB53:AB55)</f>
         <v>0</v>
       </c>
-      <c r="AC56" s="23">
+      <c r="AC56" s="21">
         <f t="shared" ref="AC56" si="151">SUM(AC53:AC55)</f>
         <v>0</v>
       </c>
-      <c r="AD56" s="23">
+      <c r="AD56" s="21">
         <f t="shared" ref="AD56" si="152">SUM(AD53:AD55)</f>
         <v>0</v>
       </c>
-      <c r="AK56" s="23">
+      <c r="AK56" s="21">
         <f>SUM(AK53:AK55)</f>
         <v>0</v>
       </c>
-      <c r="AL56" s="23">
+      <c r="AL56" s="21">
         <f t="shared" ref="AL56:AZ56" si="153">SUM(AL53:AL55)</f>
         <v>0</v>
       </c>
-      <c r="AM56" s="23">
+      <c r="AM56" s="21">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="AN56" s="23">
+      <c r="AN56" s="21">
         <f t="shared" si="153"/>
         <v>71.917999999999878</v>
       </c>
-      <c r="AO56" s="23">
+      <c r="AO56" s="21">
         <f t="shared" si="153"/>
         <v>84.308000000000007</v>
       </c>
-      <c r="AP56" s="23">
+      <c r="AP56" s="21">
         <f t="shared" si="153"/>
         <v>111.86500000000001</v>
       </c>
-      <c r="AQ56" s="23">
+      <c r="AQ56" s="21">
         <f t="shared" si="153"/>
         <v>285.16300000000024</v>
       </c>
-      <c r="AR56" s="23">
+      <c r="AR56" s="21">
         <f t="shared" si="153"/>
         <v>639.99799999999959</v>
       </c>
-      <c r="AS56" s="23">
+      <c r="AS56" s="21">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="AT56" s="23">
+      <c r="AT56" s="21">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="AU56" s="23">
+      <c r="AU56" s="21">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="AV56" s="23">
+      <c r="AV56" s="21">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="AW56" s="23">
+      <c r="AW56" s="21">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="AX56" s="23">
+      <c r="AX56" s="21">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="AY56" s="23">
+      <c r="AY56" s="21">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="AZ56" s="23">
+      <c r="AZ56" s="21">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
@@ -6268,436 +6268,436 @@
     <row r="57" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
     </row>
-    <row r="58" spans="2:52" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="13" t="s">
+    <row r="58" spans="2:52" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="13" t="e">
+      <c r="G58" s="12" t="e">
         <f>(G56/G60)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="13" t="e">
+      <c r="H58" s="12" t="e">
         <f t="shared" ref="H58:W58" si="154">(H56/H60)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="13" t="e">
+      <c r="I58" s="12" t="e">
         <f t="shared" si="154"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="13" t="e">
+      <c r="J58" s="12" t="e">
         <f t="shared" si="154"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K58" s="12">
         <f t="shared" si="154"/>
         <v>0.50834145502493755</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L58" s="12">
         <f t="shared" si="154"/>
         <v>0.53736965766325628</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M58" s="12">
         <f t="shared" si="154"/>
         <v>0.36452831681601361</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N58" s="12">
         <f t="shared" si="154"/>
         <v>0.77409842399949824</v>
       </c>
-      <c r="O58" s="13">
+      <c r="O58" s="12">
         <f t="shared" si="154"/>
         <v>0.50076777699031449</v>
       </c>
-      <c r="P58" s="13">
+      <c r="P58" s="12">
         <f t="shared" si="154"/>
         <v>0.81716490626339866</v>
       </c>
-      <c r="Q58" s="13">
+      <c r="Q58" s="12">
         <f t="shared" si="154"/>
         <v>1.4885897733426181</v>
       </c>
-      <c r="R58" s="13">
+      <c r="R58" s="12">
         <f t="shared" si="154"/>
         <v>2.6901588844645414</v>
       </c>
-      <c r="S58" s="13">
+      <c r="S58" s="12">
         <f t="shared" si="154"/>
         <v>3.5061409179056251</v>
       </c>
-      <c r="T58" s="13">
+      <c r="T58" s="12">
         <f t="shared" si="154"/>
         <v>3.3139014296463509</v>
       </c>
-      <c r="U58" s="13">
+      <c r="U58" s="12">
         <f t="shared" si="154"/>
         <v>1.6112237237237266</v>
       </c>
-      <c r="V58" s="13">
+      <c r="V58" s="12">
         <f t="shared" si="154"/>
         <v>3.6587380242905341</v>
       </c>
-      <c r="W58" s="13" t="e">
+      <c r="W58" s="12" t="e">
         <f t="shared" si="154"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X58" s="13" t="e">
+      <c r="X58" s="12" t="e">
         <f t="shared" ref="X58:AB58" si="155">(X56/X60)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y58" s="13" t="e">
+      <c r="Y58" s="12" t="e">
         <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z58" s="13" t="e">
+      <c r="Z58" s="12" t="e">
         <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA58" s="13" t="e">
+      <c r="AA58" s="12" t="e">
         <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB58" s="13" t="e">
+      <c r="AB58" s="12" t="e">
         <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC58" s="13" t="e">
+      <c r="AC58" s="12" t="e">
         <f t="shared" ref="AC58:AD58" si="156">(AC56/AC60)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD58" s="13" t="e">
+      <c r="AD58" s="12" t="e">
         <f t="shared" si="156"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK58" s="13" t="e">
+      <c r="AK58" s="12" t="e">
         <f>(AK56/AK60)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL58" s="13" t="e">
+      <c r="AL58" s="12" t="e">
         <f t="shared" ref="AL58:AZ58" si="157">(AL56/AL60)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM58" s="13" t="e">
+      <c r="AM58" s="12" t="e">
         <f t="shared" si="157"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN58" s="13">
+      <c r="AN58" s="12">
         <f t="shared" si="157"/>
         <v>1.4407516477352382</v>
       </c>
-      <c r="AO58" s="13">
+      <c r="AO58" s="12">
         <f t="shared" si="157"/>
         <v>1.6535195245846981</v>
       </c>
-      <c r="AP58" s="13">
+      <c r="AP58" s="12">
         <f t="shared" si="157"/>
         <v>2.2111873806420363</v>
       </c>
-      <c r="AQ58" s="13">
+      <c r="AQ58" s="12">
         <f t="shared" si="157"/>
         <v>5.4475421309920327</v>
       </c>
-      <c r="AR58" s="13">
+      <c r="AR58" s="12">
         <f t="shared" si="157"/>
         <v>12.096900940077674</v>
       </c>
-      <c r="AS58" s="13" t="e">
+      <c r="AS58" s="12" t="e">
         <f t="shared" si="157"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT58" s="13" t="e">
+      <c r="AT58" s="12" t="e">
         <f t="shared" si="157"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU58" s="13" t="e">
+      <c r="AU58" s="12" t="e">
         <f t="shared" si="157"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV58" s="13" t="e">
+      <c r="AV58" s="12" t="e">
         <f t="shared" si="157"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW58" s="13" t="e">
+      <c r="AW58" s="12" t="e">
         <f t="shared" si="157"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX58" s="13" t="e">
+      <c r="AX58" s="12" t="e">
         <f t="shared" si="157"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY58" s="13" t="e">
+      <c r="AY58" s="12" t="e">
         <f t="shared" si="157"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AZ58" s="13" t="e">
+      <c r="AZ58" s="12" t="e">
         <f t="shared" si="157"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="2:52" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="13" t="s">
+    <row r="59" spans="2:52" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G59" s="13" t="e">
+      <c r="G59" s="12" t="e">
         <f>(G56/G61)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="13" t="e">
+      <c r="H59" s="12" t="e">
         <f t="shared" ref="H59:W59" si="158">(H56/H61)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I59" s="13" t="e">
+      <c r="I59" s="12" t="e">
         <f t="shared" si="158"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J59" s="13" t="e">
+      <c r="J59" s="12" t="e">
         <f t="shared" si="158"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K59" s="12">
         <f t="shared" si="158"/>
         <v>0.48875537426964977</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="12">
         <f t="shared" si="158"/>
         <v>0.51646013735443486</v>
       </c>
-      <c r="M59" s="13">
+      <c r="M59" s="12">
         <f t="shared" si="158"/>
         <v>0.34627381712954147</v>
       </c>
-      <c r="N59" s="13" t="e">
+      <c r="N59" s="12" t="e">
         <f t="shared" si="158"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O59" s="13">
+      <c r="O59" s="12">
         <f t="shared" si="158"/>
         <v>0.48070526872779529</v>
       </c>
-      <c r="P59" s="13">
+      <c r="P59" s="12">
         <f t="shared" si="158"/>
         <v>0.78361458391732608</v>
       </c>
-      <c r="Q59" s="13">
+      <c r="Q59" s="12">
         <f t="shared" si="158"/>
         <v>1.4310787193693544</v>
       </c>
-      <c r="R59" s="13" t="e">
+      <c r="R59" s="12" t="e">
         <f t="shared" si="158"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S59" s="13">
+      <c r="S59" s="12">
         <f t="shared" si="158"/>
         <v>3.3519821146191191</v>
       </c>
-      <c r="T59" s="13">
+      <c r="T59" s="12">
         <f t="shared" si="158"/>
         <v>3.1377707324023936</v>
       </c>
-      <c r="U59" s="13">
+      <c r="U59" s="12">
         <f t="shared" si="158"/>
         <v>1.5266124873295066</v>
       </c>
-      <c r="V59" s="13" t="e">
+      <c r="V59" s="12" t="e">
         <f t="shared" si="158"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W59" s="13" t="e">
+      <c r="W59" s="12" t="e">
         <f t="shared" si="158"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X59" s="13" t="e">
+      <c r="X59" s="12" t="e">
         <f t="shared" ref="X59:AB59" si="159">(X56/X61)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y59" s="13" t="e">
+      <c r="Y59" s="12" t="e">
         <f t="shared" si="159"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z59" s="13" t="e">
+      <c r="Z59" s="12" t="e">
         <f t="shared" si="159"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA59" s="13" t="e">
+      <c r="AA59" s="12" t="e">
         <f t="shared" si="159"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB59" s="13" t="e">
+      <c r="AB59" s="12" t="e">
         <f t="shared" si="159"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC59" s="13" t="e">
+      <c r="AC59" s="12" t="e">
         <f t="shared" ref="AC59:AD59" si="160">(AC56/AC61)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD59" s="13" t="e">
+      <c r="AD59" s="12" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK59" s="13" t="e">
+      <c r="AK59" s="12" t="e">
         <f>(AK56/AK61)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL59" s="13" t="e">
+      <c r="AL59" s="12" t="e">
         <f t="shared" ref="AL59:AZ59" si="161">(AL56/AL61)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM59" s="13" t="e">
+      <c r="AM59" s="12" t="e">
         <f t="shared" si="161"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN59" s="13">
+      <c r="AN59" s="12">
         <f t="shared" si="161"/>
         <v>1.3906334596643182</v>
       </c>
-      <c r="AO59" s="13">
+      <c r="AO59" s="12">
         <f t="shared" si="161"/>
         <v>1.5955940800181689</v>
       </c>
-      <c r="AP59" s="13">
+      <c r="AP59" s="12">
         <f t="shared" si="161"/>
         <v>1.9986599964266571</v>
       </c>
-      <c r="AQ59" s="13">
+      <c r="AQ59" s="12">
         <f t="shared" si="161"/>
         <v>5.3187167770213604</v>
       </c>
-      <c r="AR59" s="13">
+      <c r="AR59" s="12">
         <f t="shared" si="161"/>
         <v>11.961014446707901</v>
       </c>
-      <c r="AS59" s="13" t="e">
+      <c r="AS59" s="12" t="e">
         <f t="shared" si="161"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT59" s="13" t="e">
+      <c r="AT59" s="12" t="e">
         <f t="shared" si="161"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU59" s="13" t="e">
+      <c r="AU59" s="12" t="e">
         <f t="shared" si="161"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV59" s="13" t="e">
+      <c r="AV59" s="12" t="e">
         <f t="shared" si="161"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW59" s="13" t="e">
+      <c r="AW59" s="12" t="e">
         <f t="shared" si="161"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX59" s="13" t="e">
+      <c r="AX59" s="12" t="e">
         <f t="shared" si="161"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY59" s="13" t="e">
+      <c r="AY59" s="12" t="e">
         <f t="shared" si="161"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AZ59" s="13" t="e">
+      <c r="AZ59" s="12" t="e">
         <f t="shared" si="161"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="2:52" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="16" t="s">
+    <row r="60" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="15">
         <v>52329</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L60" s="15">
         <v>51499</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="15">
         <v>50553</v>
       </c>
-      <c r="N60" s="16">
+      <c r="N60" s="15">
         <v>50590.466</v>
       </c>
-      <c r="O60" s="16">
+      <c r="O60" s="15">
         <v>50796</v>
       </c>
-      <c r="P60" s="16">
+      <c r="P60" s="15">
         <v>51314</v>
       </c>
-      <c r="Q60" s="16">
+      <c r="Q60" s="15">
         <v>51708</v>
       </c>
-      <c r="R60" s="16">
+      <c r="R60" s="15">
         <v>52347.093999999997</v>
       </c>
-      <c r="S60" s="16">
+      <c r="S60" s="15">
         <v>52598</v>
       </c>
-      <c r="T60" s="16">
+      <c r="T60" s="15">
         <v>53160</v>
       </c>
-      <c r="U60" s="16">
+      <c r="U60" s="15">
         <v>53280</v>
       </c>
-      <c r="V60" s="16">
+      <c r="V60" s="15">
         <v>52905.947</v>
       </c>
-      <c r="AN60" s="16">
+      <c r="AN60" s="15">
         <v>49917</v>
       </c>
-      <c r="AO60" s="16">
+      <c r="AO60" s="15">
         <v>50987</v>
       </c>
-      <c r="AP60" s="16">
+      <c r="AP60" s="15">
         <v>50590.466</v>
       </c>
-      <c r="AQ60" s="16">
+      <c r="AQ60" s="15">
         <v>52347.093999999997</v>
       </c>
-      <c r="AR60" s="16">
+      <c r="AR60" s="15">
         <v>52905.947</v>
       </c>
     </row>
-    <row r="61" spans="2:52" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="16" t="s">
+    <row r="61" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="15">
         <v>54426</v>
       </c>
-      <c r="L61" s="16">
+      <c r="L61" s="15">
         <v>53584</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M61" s="15">
         <v>53218</v>
       </c>
-      <c r="O61" s="16">
+      <c r="O61" s="15">
         <v>52916</v>
       </c>
-      <c r="P61" s="16">
+      <c r="P61" s="15">
         <v>53511</v>
       </c>
-      <c r="Q61" s="16">
+      <c r="Q61" s="15">
         <v>53786</v>
       </c>
-      <c r="S61" s="16">
+      <c r="S61" s="15">
         <v>55017</v>
       </c>
-      <c r="T61" s="16">
+      <c r="T61" s="15">
         <v>56144</v>
       </c>
-      <c r="U61" s="16">
+      <c r="U61" s="15">
         <v>56233</v>
       </c>
-      <c r="AN61" s="16">
+      <c r="AN61" s="15">
         <v>51716</v>
       </c>
-      <c r="AO61" s="16">
+      <c r="AO61" s="15">
         <v>52838</v>
       </c>
-      <c r="AP61" s="16">
+      <c r="AP61" s="15">
         <v>55970</v>
       </c>
-      <c r="AQ61" s="16">
+      <c r="AQ61" s="15">
         <v>53615</v>
       </c>
-      <c r="AR61" s="16">
+      <c r="AR61" s="15">
         <v>53507</v>
       </c>
     </row>
@@ -7113,61 +7113,61 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="2:52" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="17" t="s">
+    <row r="71" spans="2:52" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="16" t="s">
         <v>102</v>
       </c>
       <c r="J71" s="6">
         <f>AO71</f>
         <v>2.7029999999999998</v>
       </c>
-      <c r="K71" s="17">
-        <v>0</v>
-      </c>
-      <c r="L71" s="17">
-        <v>0</v>
-      </c>
-      <c r="M71" s="17">
-        <v>0</v>
-      </c>
-      <c r="N71" s="17">
-        <v>0</v>
-      </c>
-      <c r="O71" s="17">
-        <v>0</v>
-      </c>
-      <c r="P71" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="17">
-        <v>0</v>
-      </c>
-      <c r="R71" s="17">
-        <v>0</v>
-      </c>
-      <c r="S71" s="17">
-        <v>0</v>
-      </c>
-      <c r="T71" s="17">
-        <v>0</v>
-      </c>
-      <c r="U71" s="17">
+      <c r="K71" s="16">
+        <v>0</v>
+      </c>
+      <c r="L71" s="16">
+        <v>0</v>
+      </c>
+      <c r="M71" s="16">
+        <v>0</v>
+      </c>
+      <c r="N71" s="16">
+        <v>0</v>
+      </c>
+      <c r="O71" s="16">
+        <v>0</v>
+      </c>
+      <c r="P71" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="16">
+        <v>0</v>
+      </c>
+      <c r="R71" s="16">
+        <v>0</v>
+      </c>
+      <c r="S71" s="16">
+        <v>0</v>
+      </c>
+      <c r="T71" s="16">
+        <v>0</v>
+      </c>
+      <c r="U71" s="16">
         <v>0</v>
       </c>
       <c r="V71" s="6">
         <f>AR71</f>
         <v>0</v>
       </c>
-      <c r="AO71" s="17">
+      <c r="AO71" s="16">
         <v>2.7029999999999998</v>
       </c>
-      <c r="AP71" s="17">
+      <c r="AP71" s="16">
         <v>4.5780000000000003</v>
       </c>
-      <c r="AQ71" s="17">
-        <v>0</v>
-      </c>
-      <c r="AR71" s="17">
+      <c r="AQ71" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7354,333 +7354,333 @@
         <v>42.408999999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:52" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="14" t="s">
+    <row r="75" spans="2:52" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="13">
         <f>SUM(G71:G74)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="13">
         <f t="shared" ref="H75:W75" si="174">SUM(H71:H74)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I75" s="13">
         <f t="shared" si="174"/>
         <v>0</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J75" s="13">
         <f t="shared" si="174"/>
         <v>325.88500000000005</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K75" s="13">
         <f t="shared" si="174"/>
         <v>337.17199999999997</v>
       </c>
-      <c r="L75" s="14">
+      <c r="L75" s="13">
         <f t="shared" si="174"/>
         <v>349.79900000000004</v>
       </c>
-      <c r="M75" s="14">
+      <c r="M75" s="13">
         <f t="shared" si="174"/>
         <v>359.19</v>
       </c>
-      <c r="N75" s="14">
+      <c r="N75" s="13">
         <f t="shared" si="174"/>
         <v>374.70500000000004</v>
       </c>
-      <c r="O75" s="14">
+      <c r="O75" s="13">
         <f t="shared" si="174"/>
         <v>389.73800000000006</v>
       </c>
-      <c r="P75" s="14">
+      <c r="P75" s="13">
         <f t="shared" si="174"/>
         <v>383.31399999999996</v>
       </c>
-      <c r="Q75" s="14">
+      <c r="Q75" s="13">
         <f t="shared" si="174"/>
         <v>392.46199999999999</v>
       </c>
-      <c r="R75" s="14">
+      <c r="R75" s="13">
         <f t="shared" si="174"/>
         <v>398.76199999999994</v>
       </c>
-      <c r="S75" s="14">
+      <c r="S75" s="13">
         <f t="shared" si="174"/>
         <v>421.40300000000002</v>
       </c>
-      <c r="T75" s="14">
+      <c r="T75" s="13">
         <f t="shared" si="174"/>
         <v>425.43899999999996</v>
       </c>
-      <c r="U75" s="14">
+      <c r="U75" s="13">
         <f t="shared" si="174"/>
         <v>477.42899999999997</v>
       </c>
-      <c r="V75" s="14">
+      <c r="V75" s="13">
         <f t="shared" si="174"/>
         <v>495.303</v>
       </c>
-      <c r="W75" s="14">
+      <c r="W75" s="13">
         <f t="shared" si="174"/>
         <v>0</v>
       </c>
-      <c r="X75" s="14">
+      <c r="X75" s="13">
         <f t="shared" ref="X75" si="175">SUM(X71:X74)</f>
         <v>0</v>
       </c>
-      <c r="Y75" s="14">
+      <c r="Y75" s="13">
         <f t="shared" ref="Y75" si="176">SUM(Y71:Y74)</f>
         <v>0</v>
       </c>
-      <c r="Z75" s="14">
+      <c r="Z75" s="13">
         <f t="shared" ref="Z75" si="177">SUM(Z71:Z74)</f>
         <v>0</v>
       </c>
-      <c r="AA75" s="14">
+      <c r="AA75" s="13">
         <f t="shared" ref="AA75" si="178">SUM(AA71:AA74)</f>
         <v>0</v>
       </c>
-      <c r="AB75" s="14">
+      <c r="AB75" s="13">
         <f t="shared" ref="AB75" si="179">SUM(AB71:AB74)</f>
         <v>0</v>
       </c>
-      <c r="AC75" s="14">
+      <c r="AC75" s="13">
         <f t="shared" ref="AC75" si="180">SUM(AC71:AC74)</f>
         <v>0</v>
       </c>
-      <c r="AD75" s="14">
+      <c r="AD75" s="13">
         <f t="shared" ref="AD75" si="181">SUM(AD71:AD74)</f>
         <v>0</v>
       </c>
-      <c r="AK75" s="14">
+      <c r="AK75" s="13">
         <f>SUM(AK71:AK74)</f>
         <v>0</v>
       </c>
-      <c r="AL75" s="14">
+      <c r="AL75" s="13">
         <f t="shared" ref="AL75:AZ75" si="182">SUM(AL71:AL74)</f>
         <v>0</v>
       </c>
-      <c r="AM75" s="14">
+      <c r="AM75" s="13">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="AN75" s="14">
+      <c r="AN75" s="13">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="AO75" s="14">
+      <c r="AO75" s="13">
         <f t="shared" si="182"/>
         <v>325.88500000000005</v>
       </c>
-      <c r="AP75" s="14">
+      <c r="AP75" s="13">
         <f t="shared" si="182"/>
         <v>374.70499999999998</v>
       </c>
-      <c r="AQ75" s="14">
+      <c r="AQ75" s="13">
         <f t="shared" si="182"/>
         <v>398.76199999999994</v>
       </c>
-      <c r="AR75" s="14">
+      <c r="AR75" s="13">
         <f t="shared" si="182"/>
         <v>495.303</v>
       </c>
-      <c r="AS75" s="14">
+      <c r="AS75" s="13">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="AT75" s="14">
+      <c r="AT75" s="13">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="AU75" s="14">
+      <c r="AU75" s="13">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="AV75" s="14">
+      <c r="AV75" s="13">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="AW75" s="14">
+      <c r="AW75" s="13">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="AX75" s="14">
+      <c r="AX75" s="13">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="AY75" s="14">
+      <c r="AY75" s="13">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="AZ75" s="14">
+      <c r="AZ75" s="13">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="23" t="s">
+    <row r="76" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="21">
         <f>G75+G69</f>
         <v>0</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H76" s="21">
         <f t="shared" ref="H76:W76" si="183">H75+H69</f>
         <v>0</v>
       </c>
-      <c r="I76" s="23">
+      <c r="I76" s="21">
         <f t="shared" si="183"/>
         <v>0</v>
       </c>
-      <c r="J76" s="23">
+      <c r="J76" s="21">
         <f t="shared" si="183"/>
         <v>1918.646</v>
       </c>
-      <c r="K76" s="23">
+      <c r="K76" s="21">
         <f t="shared" si="183"/>
         <v>1816.693</v>
       </c>
-      <c r="L76" s="23">
+      <c r="L76" s="21">
         <f t="shared" si="183"/>
         <v>1894.0720000000001</v>
       </c>
-      <c r="M76" s="23">
+      <c r="M76" s="21">
         <f t="shared" si="183"/>
         <v>1998.8400000000001</v>
       </c>
-      <c r="N76" s="23">
+      <c r="N76" s="21">
         <f t="shared" si="183"/>
         <v>2241.9639999999999</v>
       </c>
-      <c r="O76" s="23">
+      <c r="O76" s="21">
         <f t="shared" si="183"/>
         <v>2426.6930000000002</v>
       </c>
-      <c r="P76" s="23">
+      <c r="P76" s="21">
         <f t="shared" si="183"/>
         <v>2676.5949999999998</v>
       </c>
-      <c r="Q76" s="23">
+      <c r="Q76" s="21">
         <f t="shared" si="183"/>
         <v>3071.1769999999997</v>
       </c>
-      <c r="R76" s="23">
+      <c r="R76" s="21">
         <f t="shared" si="183"/>
         <v>3205.0770000000002</v>
       </c>
-      <c r="S76" s="23">
+      <c r="S76" s="21">
         <f t="shared" si="183"/>
         <v>3301.2830000000004</v>
       </c>
-      <c r="T76" s="23">
+      <c r="T76" s="21">
         <f t="shared" si="183"/>
         <v>3074.942</v>
       </c>
-      <c r="U76" s="23">
+      <c r="U76" s="21">
         <f t="shared" si="183"/>
         <v>3192.6040000000003</v>
       </c>
-      <c r="V76" s="23">
+      <c r="V76" s="21">
         <f t="shared" si="183"/>
         <v>3674.7290000000003</v>
       </c>
-      <c r="W76" s="23">
+      <c r="W76" s="21">
         <f t="shared" si="183"/>
         <v>0</v>
       </c>
-      <c r="X76" s="23">
+      <c r="X76" s="21">
         <f t="shared" ref="X76" si="184">X75+X69</f>
         <v>0</v>
       </c>
-      <c r="Y76" s="23">
+      <c r="Y76" s="21">
         <f t="shared" ref="Y76" si="185">Y75+Y69</f>
         <v>0</v>
       </c>
-      <c r="Z76" s="23">
+      <c r="Z76" s="21">
         <f t="shared" ref="Z76" si="186">Z75+Z69</f>
         <v>0</v>
       </c>
-      <c r="AA76" s="23">
+      <c r="AA76" s="21">
         <f t="shared" ref="AA76" si="187">AA75+AA69</f>
         <v>0</v>
       </c>
-      <c r="AB76" s="23">
+      <c r="AB76" s="21">
         <f t="shared" ref="AB76" si="188">AB75+AB69</f>
         <v>0</v>
       </c>
-      <c r="AC76" s="23">
+      <c r="AC76" s="21">
         <f t="shared" ref="AC76" si="189">AC75+AC69</f>
         <v>0</v>
       </c>
-      <c r="AD76" s="23">
+      <c r="AD76" s="21">
         <f t="shared" ref="AD76" si="190">AD75+AD69</f>
         <v>0</v>
       </c>
-      <c r="AK76" s="23">
-        <f>AK75+AK69</f>
-        <v>0</v>
-      </c>
-      <c r="AL76" s="23">
-        <f>AL75+AL69</f>
-        <v>0</v>
-      </c>
-      <c r="AM76" s="23">
-        <f>AM75+AM69</f>
-        <v>0</v>
-      </c>
-      <c r="AN76" s="23">
-        <f>AN75+AN69</f>
-        <v>0</v>
-      </c>
-      <c r="AO76" s="23">
-        <f>AO75+AO69</f>
+      <c r="AK76" s="21">
+        <f t="shared" ref="AK76:AP76" si="191">AK75+AK69</f>
+        <v>0</v>
+      </c>
+      <c r="AL76" s="21">
+        <f t="shared" si="191"/>
+        <v>0</v>
+      </c>
+      <c r="AM76" s="21">
+        <f t="shared" si="191"/>
+        <v>0</v>
+      </c>
+      <c r="AN76" s="21">
+        <f t="shared" si="191"/>
+        <v>0</v>
+      </c>
+      <c r="AO76" s="21">
+        <f t="shared" si="191"/>
         <v>1918.646</v>
       </c>
-      <c r="AP76" s="23">
-        <f>AP75+AP69</f>
+      <c r="AP76" s="21">
+        <f t="shared" si="191"/>
         <v>2241.9639999999999</v>
       </c>
-      <c r="AQ76" s="23">
-        <f t="shared" ref="AQ76" si="191">AQ75+AQ69</f>
+      <c r="AQ76" s="21">
+        <f t="shared" ref="AQ76" si="192">AQ75+AQ69</f>
         <v>3205.0770000000002</v>
       </c>
-      <c r="AR76" s="23">
-        <f t="shared" ref="AR76:AS76" si="192">AR75+AR69</f>
+      <c r="AR76" s="21">
+        <f t="shared" ref="AR76:AS76" si="193">AR75+AR69</f>
         <v>3674.7290000000003</v>
       </c>
-      <c r="AS76" s="23">
-        <f t="shared" si="192"/>
-        <v>0</v>
-      </c>
-      <c r="AT76" s="23">
-        <f>AT75+AT69</f>
-        <v>0</v>
-      </c>
-      <c r="AU76" s="23">
-        <f>AU75+AU69</f>
-        <v>0</v>
-      </c>
-      <c r="AV76" s="23">
-        <f>AV75+AV69</f>
-        <v>0</v>
-      </c>
-      <c r="AW76" s="23">
-        <f>AW75+AW69</f>
-        <v>0</v>
-      </c>
-      <c r="AX76" s="23">
-        <f>AX75+AX69</f>
-        <v>0</v>
-      </c>
-      <c r="AY76" s="23">
-        <f>AY75+AY69</f>
-        <v>0</v>
-      </c>
-      <c r="AZ76" s="23">
-        <f>AZ75+AZ69</f>
+      <c r="AS76" s="21">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="AT76" s="21">
+        <f t="shared" ref="AT76:AZ76" si="194">AT75+AT69</f>
+        <v>0</v>
+      </c>
+      <c r="AU76" s="21">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+      <c r="AV76" s="21">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+      <c r="AW76" s="21">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+      <c r="AX76" s="21">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+      <c r="AY76" s="21">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+      <c r="AZ76" s="21">
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
     </row>
@@ -7988,95 +7988,95 @@
         <v>0</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" ref="H83:W83" si="193">SUM(H78:H82)</f>
+        <f t="shared" ref="H83:W83" si="195">SUM(H78:H82)</f>
         <v>0</v>
       </c>
       <c r="I83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>707.6350000000001</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>589.68799999999999</v>
       </c>
       <c r="L83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>672.971</v>
       </c>
       <c r="M83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>781.99600000000009</v>
       </c>
       <c r="N83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>968.89600000000007</v>
       </c>
       <c r="O83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>1101.479</v>
       </c>
       <c r="P83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>1199.579</v>
       </c>
       <c r="Q83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>1496.1550000000002</v>
       </c>
       <c r="R83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>1470.0240000000001</v>
       </c>
       <c r="S83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>1353.3549999999998</v>
       </c>
       <c r="T83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>916.93999999999994</v>
       </c>
       <c r="U83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>1092.3800000000001</v>
       </c>
       <c r="V83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>1374.652</v>
       </c>
       <c r="W83" s="6">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="X83" s="6">
-        <f t="shared" ref="X83" si="194">SUM(X78:X82)</f>
+        <f t="shared" ref="X83" si="196">SUM(X78:X82)</f>
         <v>0</v>
       </c>
       <c r="Y83" s="6">
-        <f t="shared" ref="Y83" si="195">SUM(Y78:Y82)</f>
+        <f t="shared" ref="Y83" si="197">SUM(Y78:Y82)</f>
         <v>0</v>
       </c>
       <c r="Z83" s="6">
-        <f t="shared" ref="Z83" si="196">SUM(Z78:Z82)</f>
+        <f t="shared" ref="Z83" si="198">SUM(Z78:Z82)</f>
         <v>0</v>
       </c>
       <c r="AA83" s="6">
-        <f t="shared" ref="AA83" si="197">SUM(AA78:AA82)</f>
+        <f t="shared" ref="AA83" si="199">SUM(AA78:AA82)</f>
         <v>0</v>
       </c>
       <c r="AB83" s="6">
-        <f t="shared" ref="AB83" si="198">SUM(AB78:AB82)</f>
+        <f t="shared" ref="AB83" si="200">SUM(AB78:AB82)</f>
         <v>0</v>
       </c>
       <c r="AC83" s="6">
-        <f t="shared" ref="AC83" si="199">SUM(AC78:AC82)</f>
+        <f t="shared" ref="AC83" si="201">SUM(AC78:AC82)</f>
         <v>0</v>
       </c>
       <c r="AD83" s="6">
-        <f t="shared" ref="AD83" si="200">SUM(AD78:AD82)</f>
+        <f t="shared" ref="AD83" si="202">SUM(AD78:AD82)</f>
         <v>0</v>
       </c>
       <c r="AK83" s="6">
@@ -8084,63 +8084,63 @@
         <v>0</v>
       </c>
       <c r="AL83" s="6">
-        <f t="shared" ref="AL83:AZ83" si="201">SUM(AL78:AL82)</f>
+        <f t="shared" ref="AL83:AZ83" si="203">SUM(AL78:AL82)</f>
         <v>0</v>
       </c>
       <c r="AM83" s="6">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AN83" s="6">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AO83" s="6">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>707.6350000000001</v>
       </c>
       <c r="AP83" s="6">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>968.89600000000007</v>
       </c>
       <c r="AQ83" s="6">
-        <f t="shared" ref="AQ83" si="202">SUM(AQ78:AQ82)</f>
+        <f t="shared" ref="AQ83" si="204">SUM(AQ78:AQ82)</f>
         <v>1470.0240000000001</v>
       </c>
       <c r="AR83" s="6">
-        <f t="shared" ref="AR83:AS83" si="203">SUM(AR78:AR82)</f>
+        <f t="shared" ref="AR83:AS83" si="205">SUM(AR78:AR82)</f>
         <v>1374.652</v>
       </c>
       <c r="AS83" s="6">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="AT83" s="6">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AT83" s="6">
-        <f t="shared" si="201"/>
-        <v>0</v>
-      </c>
       <c r="AU83" s="6">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AV83" s="6">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AW83" s="6">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AX83" s="6">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AY83" s="6">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="AZ83" s="6">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
     </row>
@@ -8323,333 +8323,333 @@
         <v>37.947000000000003</v>
       </c>
     </row>
-    <row r="88" spans="2:52" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="14" t="s">
+    <row r="88" spans="2:52" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G88" s="14">
-        <f t="shared" ref="G88" si="204">SUM(G85:G87)</f>
-        <v>0</v>
-      </c>
-      <c r="H88" s="14">
-        <f t="shared" ref="H88" si="205">SUM(H85:H87)</f>
-        <v>0</v>
-      </c>
-      <c r="I88" s="14">
-        <f t="shared" ref="I88" si="206">SUM(I85:I87)</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="14">
-        <f t="shared" ref="J88" si="207">SUM(J85:J87)</f>
+      <c r="G88" s="13">
+        <f t="shared" ref="G88" si="206">SUM(G85:G87)</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="13">
+        <f t="shared" ref="H88" si="207">SUM(H85:H87)</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="13">
+        <f t="shared" ref="I88" si="208">SUM(I85:I87)</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="13">
+        <f t="shared" ref="J88" si="209">SUM(J85:J87)</f>
         <v>145.304</v>
       </c>
-      <c r="K88" s="14">
-        <f t="shared" ref="K88" si="208">SUM(K85:K87)</f>
+      <c r="K88" s="13">
+        <f t="shared" ref="K88" si="210">SUM(K85:K87)</f>
         <v>154.26300000000001</v>
       </c>
-      <c r="L88" s="14">
-        <f t="shared" ref="L88" si="209">SUM(L85:L87)</f>
+      <c r="L88" s="13">
+        <f t="shared" ref="L88" si="211">SUM(L85:L87)</f>
         <v>156.881</v>
       </c>
-      <c r="M88" s="14">
-        <f t="shared" ref="M88" si="210">SUM(M85:M87)</f>
+      <c r="M88" s="13">
+        <f t="shared" ref="M88" si="212">SUM(M85:M87)</f>
         <v>162.89600000000002</v>
       </c>
-      <c r="N88" s="14">
-        <f t="shared" ref="N88" si="211">SUM(N85:N87)</f>
+      <c r="N88" s="13">
+        <f t="shared" ref="N88" si="213">SUM(N85:N87)</f>
         <v>176.67000000000002</v>
       </c>
-      <c r="O88" s="14">
-        <f t="shared" ref="O88" si="212">SUM(O85:O87)</f>
+      <c r="O88" s="13">
+        <f t="shared" ref="O88" si="214">SUM(O85:O87)</f>
         <v>192.416</v>
       </c>
-      <c r="P88" s="14">
-        <f t="shared" ref="P88" si="213">SUM(P85:P87)</f>
+      <c r="P88" s="13">
+        <f t="shared" ref="P88" si="215">SUM(P85:P87)</f>
         <v>290.178</v>
       </c>
-      <c r="Q88" s="14">
-        <f t="shared" ref="Q88" si="214">SUM(Q85:Q87)</f>
+      <c r="Q88" s="13">
+        <f t="shared" ref="Q88" si="216">SUM(Q85:Q87)</f>
         <v>301.10300000000001</v>
       </c>
-      <c r="R88" s="14">
-        <f t="shared" ref="R88" si="215">SUM(R85:R87)</f>
+      <c r="R88" s="13">
+        <f t="shared" ref="R88" si="217">SUM(R85:R87)</f>
         <v>309.30599999999998</v>
       </c>
-      <c r="S88" s="14">
-        <f t="shared" ref="S88" si="216">SUM(S85:S87)</f>
+      <c r="S88" s="13">
+        <f t="shared" ref="S88" si="218">SUM(S85:S87)</f>
         <v>322.72499999999997</v>
       </c>
-      <c r="T88" s="14">
-        <f t="shared" ref="T88" si="217">SUM(T85:T87)</f>
+      <c r="T88" s="13">
+        <f t="shared" ref="T88" si="219">SUM(T85:T87)</f>
         <v>339.15999999999997</v>
       </c>
-      <c r="U88" s="14">
-        <f t="shared" ref="U88" si="218">SUM(U85:U87)</f>
+      <c r="U88" s="13">
+        <f t="shared" ref="U88" si="220">SUM(U85:U87)</f>
         <v>331.65100000000001</v>
       </c>
-      <c r="V88" s="14">
-        <f t="shared" ref="V88" si="219">SUM(V85:V87)</f>
+      <c r="V88" s="13">
+        <f t="shared" ref="V88" si="221">SUM(V85:V87)</f>
         <v>327.90700000000004</v>
       </c>
-      <c r="W88" s="14">
-        <f t="shared" ref="W88" si="220">SUM(W85:W87)</f>
-        <v>0</v>
-      </c>
-      <c r="X88" s="14">
-        <f t="shared" ref="X88" si="221">SUM(X85:X87)</f>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="14">
-        <f t="shared" ref="Y88" si="222">SUM(Y85:Y87)</f>
-        <v>0</v>
-      </c>
-      <c r="Z88" s="14">
-        <f t="shared" ref="Z88" si="223">SUM(Z85:Z87)</f>
-        <v>0</v>
-      </c>
-      <c r="AA88" s="14">
-        <f t="shared" ref="AA88" si="224">SUM(AA85:AA87)</f>
-        <v>0</v>
-      </c>
-      <c r="AB88" s="14">
-        <f t="shared" ref="AB88" si="225">SUM(AB85:AB87)</f>
-        <v>0</v>
-      </c>
-      <c r="AC88" s="14">
-        <f t="shared" ref="AC88" si="226">SUM(AC85:AC87)</f>
-        <v>0</v>
-      </c>
-      <c r="AD88" s="14">
-        <f t="shared" ref="AD88" si="227">SUM(AD85:AD87)</f>
-        <v>0</v>
-      </c>
-      <c r="AK88" s="14">
+      <c r="W88" s="13">
+        <f t="shared" ref="W88" si="222">SUM(W85:W87)</f>
+        <v>0</v>
+      </c>
+      <c r="X88" s="13">
+        <f t="shared" ref="X88" si="223">SUM(X85:X87)</f>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="13">
+        <f t="shared" ref="Y88" si="224">SUM(Y85:Y87)</f>
+        <v>0</v>
+      </c>
+      <c r="Z88" s="13">
+        <f t="shared" ref="Z88" si="225">SUM(Z85:Z87)</f>
+        <v>0</v>
+      </c>
+      <c r="AA88" s="13">
+        <f t="shared" ref="AA88" si="226">SUM(AA85:AA87)</f>
+        <v>0</v>
+      </c>
+      <c r="AB88" s="13">
+        <f t="shared" ref="AB88" si="227">SUM(AB85:AB87)</f>
+        <v>0</v>
+      </c>
+      <c r="AC88" s="13">
+        <f t="shared" ref="AC88" si="228">SUM(AC85:AC87)</f>
+        <v>0</v>
+      </c>
+      <c r="AD88" s="13">
+        <f t="shared" ref="AD88" si="229">SUM(AD85:AD87)</f>
+        <v>0</v>
+      </c>
+      <c r="AK88" s="13">
         <f>SUM(AK85:AK87)</f>
         <v>0</v>
       </c>
-      <c r="AL88" s="14">
-        <f t="shared" ref="AL88:AZ88" si="228">SUM(AL85:AL87)</f>
-        <v>0</v>
-      </c>
-      <c r="AM88" s="14">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="AN88" s="14">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="AO88" s="14">
-        <f t="shared" si="228"/>
+      <c r="AL88" s="13">
+        <f t="shared" ref="AL88:AZ88" si="230">SUM(AL85:AL87)</f>
+        <v>0</v>
+      </c>
+      <c r="AM88" s="13">
+        <f t="shared" si="230"/>
+        <v>0</v>
+      </c>
+      <c r="AN88" s="13">
+        <f t="shared" si="230"/>
+        <v>0</v>
+      </c>
+      <c r="AO88" s="13">
+        <f t="shared" si="230"/>
         <v>145.304</v>
       </c>
-      <c r="AP88" s="14">
-        <f t="shared" si="228"/>
+      <c r="AP88" s="13">
+        <f t="shared" si="230"/>
         <v>176.67000000000002</v>
       </c>
-      <c r="AQ88" s="14">
-        <f t="shared" ref="AQ88" si="229">SUM(AQ85:AQ87)</f>
+      <c r="AQ88" s="13">
+        <f t="shared" ref="AQ88" si="231">SUM(AQ85:AQ87)</f>
         <v>309.30599999999998</v>
       </c>
-      <c r="AR88" s="14">
-        <f t="shared" ref="AR88:AS88" si="230">SUM(AR85:AR87)</f>
+      <c r="AR88" s="13">
+        <f t="shared" ref="AR88:AS88" si="232">SUM(AR85:AR87)</f>
         <v>327.90700000000004</v>
       </c>
-      <c r="AS88" s="14">
+      <c r="AS88" s="13">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="AT88" s="13">
         <f t="shared" si="230"/>
         <v>0</v>
       </c>
-      <c r="AT88" s="14">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="AU88" s="14">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="AV88" s="14">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="AW88" s="14">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="AX88" s="14">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="AY88" s="14">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="AZ88" s="14">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="23" t="s">
+      <c r="AU88" s="13">
+        <f t="shared" si="230"/>
+        <v>0</v>
+      </c>
+      <c r="AV88" s="13">
+        <f t="shared" si="230"/>
+        <v>0</v>
+      </c>
+      <c r="AW88" s="13">
+        <f t="shared" si="230"/>
+        <v>0</v>
+      </c>
+      <c r="AX88" s="13">
+        <f t="shared" si="230"/>
+        <v>0</v>
+      </c>
+      <c r="AY88" s="13">
+        <f t="shared" si="230"/>
+        <v>0</v>
+      </c>
+      <c r="AZ88" s="13">
+        <f t="shared" si="230"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G89" s="23">
-        <f t="shared" ref="G89" si="231">G88+G83</f>
-        <v>0</v>
-      </c>
-      <c r="H89" s="23">
-        <f t="shared" ref="H89" si="232">H88+H83</f>
-        <v>0</v>
-      </c>
-      <c r="I89" s="23">
-        <f t="shared" ref="I89" si="233">I88+I83</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="23">
-        <f t="shared" ref="J89" si="234">J88+J83</f>
+      <c r="G89" s="21">
+        <f t="shared" ref="G89" si="233">G88+G83</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="21">
+        <f t="shared" ref="H89" si="234">H88+H83</f>
+        <v>0</v>
+      </c>
+      <c r="I89" s="21">
+        <f t="shared" ref="I89" si="235">I88+I83</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="21">
+        <f t="shared" ref="J89" si="236">J88+J83</f>
         <v>852.93900000000008</v>
       </c>
-      <c r="K89" s="23">
-        <f t="shared" ref="K89" si="235">K88+K83</f>
+      <c r="K89" s="21">
+        <f t="shared" ref="K89" si="237">K88+K83</f>
         <v>743.95100000000002</v>
       </c>
-      <c r="L89" s="23">
-        <f t="shared" ref="L89" si="236">L88+L83</f>
+      <c r="L89" s="21">
+        <f t="shared" ref="L89" si="238">L88+L83</f>
         <v>829.85199999999998</v>
       </c>
-      <c r="M89" s="23">
-        <f t="shared" ref="M89" si="237">M88+M83</f>
+      <c r="M89" s="21">
+        <f t="shared" ref="M89" si="239">M88+M83</f>
         <v>944.89200000000005</v>
       </c>
-      <c r="N89" s="23">
-        <f t="shared" ref="N89" si="238">N88+N83</f>
+      <c r="N89" s="21">
+        <f t="shared" ref="N89" si="240">N88+N83</f>
         <v>1145.566</v>
       </c>
-      <c r="O89" s="23">
-        <f t="shared" ref="O89" si="239">O88+O83</f>
+      <c r="O89" s="21">
+        <f t="shared" ref="O89" si="241">O88+O83</f>
         <v>1293.895</v>
       </c>
-      <c r="P89" s="23">
-        <f t="shared" ref="P89" si="240">P88+P83</f>
+      <c r="P89" s="21">
+        <f t="shared" ref="P89" si="242">P88+P83</f>
         <v>1489.7570000000001</v>
       </c>
-      <c r="Q89" s="23">
-        <f t="shared" ref="Q89" si="241">Q88+Q83</f>
+      <c r="Q89" s="21">
+        <f t="shared" ref="Q89" si="243">Q88+Q83</f>
         <v>1797.2580000000003</v>
       </c>
-      <c r="R89" s="23">
-        <f t="shared" ref="R89" si="242">R88+R83</f>
+      <c r="R89" s="21">
+        <f t="shared" ref="R89" si="244">R88+R83</f>
         <v>1779.3300000000002</v>
       </c>
-      <c r="S89" s="23">
-        <f t="shared" ref="S89" si="243">S88+S83</f>
+      <c r="S89" s="21">
+        <f t="shared" ref="S89" si="245">S88+S83</f>
         <v>1676.0799999999997</v>
       </c>
-      <c r="T89" s="23">
-        <f t="shared" ref="T89" si="244">T88+T83</f>
+      <c r="T89" s="21">
+        <f t="shared" ref="T89" si="246">T88+T83</f>
         <v>1256.0999999999999</v>
       </c>
-      <c r="U89" s="23">
-        <f t="shared" ref="U89" si="245">U88+U83</f>
+      <c r="U89" s="21">
+        <f t="shared" ref="U89" si="247">U88+U83</f>
         <v>1424.0310000000002</v>
       </c>
-      <c r="V89" s="23">
-        <f t="shared" ref="V89" si="246">V88+V83</f>
+      <c r="V89" s="21">
+        <f t="shared" ref="V89" si="248">V88+V83</f>
         <v>1702.5590000000002</v>
       </c>
-      <c r="W89" s="23">
-        <f t="shared" ref="W89" si="247">W88+W83</f>
-        <v>0</v>
-      </c>
-      <c r="X89" s="23">
-        <f t="shared" ref="X89" si="248">X88+X83</f>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="23">
-        <f t="shared" ref="Y89" si="249">Y88+Y83</f>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="23">
-        <f t="shared" ref="Z89" si="250">Z88+Z83</f>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="23">
-        <f t="shared" ref="AA89" si="251">AA88+AA83</f>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="23">
-        <f t="shared" ref="AB89" si="252">AB88+AB83</f>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="23">
-        <f t="shared" ref="AC89" si="253">AC88+AC83</f>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="23">
-        <f t="shared" ref="AD89" si="254">AD88+AD83</f>
-        <v>0</v>
-      </c>
-      <c r="AK89" s="23">
+      <c r="W89" s="21">
+        <f t="shared" ref="W89" si="249">W88+W83</f>
+        <v>0</v>
+      </c>
+      <c r="X89" s="21">
+        <f t="shared" ref="X89" si="250">X88+X83</f>
+        <v>0</v>
+      </c>
+      <c r="Y89" s="21">
+        <f t="shared" ref="Y89" si="251">Y88+Y83</f>
+        <v>0</v>
+      </c>
+      <c r="Z89" s="21">
+        <f t="shared" ref="Z89" si="252">Z88+Z83</f>
+        <v>0</v>
+      </c>
+      <c r="AA89" s="21">
+        <f t="shared" ref="AA89" si="253">AA88+AA83</f>
+        <v>0</v>
+      </c>
+      <c r="AB89" s="21">
+        <f t="shared" ref="AB89" si="254">AB88+AB83</f>
+        <v>0</v>
+      </c>
+      <c r="AC89" s="21">
+        <f t="shared" ref="AC89" si="255">AC88+AC83</f>
+        <v>0</v>
+      </c>
+      <c r="AD89" s="21">
+        <f t="shared" ref="AD89" si="256">AD88+AD83</f>
+        <v>0</v>
+      </c>
+      <c r="AK89" s="21">
         <f>AK88+AK83</f>
         <v>0</v>
       </c>
-      <c r="AL89" s="23">
-        <f t="shared" ref="AL89:AZ89" si="255">AL88+AL83</f>
-        <v>0</v>
-      </c>
-      <c r="AM89" s="23">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="AN89" s="23">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="AO89" s="23">
-        <f t="shared" si="255"/>
+      <c r="AL89" s="21">
+        <f t="shared" ref="AL89:AZ89" si="257">AL88+AL83</f>
+        <v>0</v>
+      </c>
+      <c r="AM89" s="21">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="AN89" s="21">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="AO89" s="21">
+        <f t="shared" si="257"/>
         <v>852.93900000000008</v>
       </c>
-      <c r="AP89" s="23">
-        <f t="shared" si="255"/>
+      <c r="AP89" s="21">
+        <f t="shared" si="257"/>
         <v>1145.566</v>
       </c>
-      <c r="AQ89" s="23">
-        <f t="shared" ref="AQ89" si="256">AQ88+AQ83</f>
+      <c r="AQ89" s="21">
+        <f t="shared" ref="AQ89" si="258">AQ88+AQ83</f>
         <v>1779.3300000000002</v>
       </c>
-      <c r="AR89" s="23">
-        <f t="shared" ref="AR89:AS89" si="257">AR88+AR83</f>
+      <c r="AR89" s="21">
+        <f t="shared" ref="AR89:AS89" si="259">AR88+AR83</f>
         <v>1702.5590000000002</v>
       </c>
-      <c r="AS89" s="23">
+      <c r="AS89" s="21">
+        <f t="shared" si="259"/>
+        <v>0</v>
+      </c>
+      <c r="AT89" s="21">
         <f t="shared" si="257"/>
         <v>0</v>
       </c>
-      <c r="AT89" s="23">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="AU89" s="23">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="AV89" s="23">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="AW89" s="23">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="AX89" s="23">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="AY89" s="23">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="AZ89" s="23">
-        <f t="shared" si="255"/>
+      <c r="AU89" s="21">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="AV89" s="21">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="AW89" s="21">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="AX89" s="21">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="AY89" s="21">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="AZ89" s="21">
+        <f t="shared" si="257"/>
         <v>0</v>
       </c>
     </row>
@@ -8899,159 +8899,159 @@
         <v>0</v>
       </c>
       <c r="H95" s="6">
-        <f t="shared" ref="H95:W95" si="258">SUM(H91:H94)</f>
+        <f t="shared" ref="H95:W95" si="260">SUM(H91:H94)</f>
         <v>0</v>
       </c>
       <c r="I95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0</v>
       </c>
       <c r="J95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1065.54</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1072.5730000000001</v>
       </c>
       <c r="L95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1064.047</v>
       </c>
       <c r="M95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1053.78</v>
       </c>
       <c r="N95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1096.2249999999999</v>
       </c>
       <c r="O95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1132.6220000000001</v>
       </c>
       <c r="P95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1186.6680000000001</v>
       </c>
       <c r="Q95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1273.7429999999999</v>
       </c>
       <c r="R95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1425.575</v>
       </c>
       <c r="S95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1625.0360000000001</v>
       </c>
       <c r="T95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1818.6770000000001</v>
       </c>
       <c r="U95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1768.4069999999999</v>
       </c>
       <c r="V95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1972.0049999999999</v>
       </c>
       <c r="W95" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0</v>
       </c>
       <c r="X95" s="6">
-        <f t="shared" ref="X95" si="259">SUM(X91:X94)</f>
+        <f t="shared" ref="X95" si="261">SUM(X91:X94)</f>
         <v>0</v>
       </c>
       <c r="Y95" s="6">
-        <f t="shared" ref="Y95" si="260">SUM(Y91:Y94)</f>
+        <f t="shared" ref="Y95" si="262">SUM(Y91:Y94)</f>
         <v>0</v>
       </c>
       <c r="Z95" s="6">
-        <f t="shared" ref="Z95" si="261">SUM(Z91:Z94)</f>
+        <f t="shared" ref="Z95" si="263">SUM(Z91:Z94)</f>
         <v>0</v>
       </c>
       <c r="AA95" s="6">
-        <f t="shared" ref="AA95" si="262">SUM(AA91:AA94)</f>
+        <f t="shared" ref="AA95" si="264">SUM(AA91:AA94)</f>
         <v>0</v>
       </c>
       <c r="AB95" s="6">
-        <f t="shared" ref="AB95" si="263">SUM(AB91:AB94)</f>
+        <f t="shared" ref="AB95" si="265">SUM(AB91:AB94)</f>
         <v>0</v>
       </c>
       <c r="AC95" s="6">
-        <f t="shared" ref="AC95" si="264">SUM(AC91:AC94)</f>
+        <f t="shared" ref="AC95" si="266">SUM(AC91:AC94)</f>
         <v>0</v>
       </c>
       <c r="AD95" s="6">
-        <f t="shared" ref="AD95" si="265">SUM(AD91:AD94)</f>
+        <f t="shared" ref="AD95" si="267">SUM(AD91:AD94)</f>
         <v>0</v>
       </c>
       <c r="AK95" s="6">
-        <f>SUM(AK91:AK94)</f>
+        <f t="shared" ref="AK95:AP95" si="268">SUM(AK91:AK94)</f>
         <v>0</v>
       </c>
       <c r="AL95" s="6">
-        <f>SUM(AL91:AL94)</f>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AM95" s="6">
-        <f>SUM(AM91:AM94)</f>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AN95" s="6">
-        <f>SUM(AN91:AN94)</f>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AO95" s="6">
-        <f>SUM(AO91:AO94)</f>
+        <f t="shared" si="268"/>
         <v>1065.54</v>
       </c>
       <c r="AP95" s="6">
-        <f>SUM(AP91:AP94)</f>
+        <f t="shared" si="268"/>
         <v>1096.2249999999999</v>
       </c>
       <c r="AQ95" s="6">
-        <f t="shared" ref="AQ95" si="266">SUM(AQ91:AQ94)</f>
+        <f t="shared" ref="AQ95" si="269">SUM(AQ91:AQ94)</f>
         <v>1425.575</v>
       </c>
       <c r="AR95" s="6">
-        <f t="shared" ref="AR95:AS95" si="267">SUM(AR91:AR94)</f>
+        <f t="shared" ref="AR95:AS95" si="270">SUM(AR91:AR94)</f>
         <v>1972.0049999999999</v>
       </c>
       <c r="AS95" s="6">
-        <f t="shared" si="267"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="AT95" s="6">
-        <f>SUM(AT91:AT94)</f>
+        <f t="shared" ref="AT95:AZ95" si="271">SUM(AT91:AT94)</f>
         <v>0</v>
       </c>
       <c r="AU95" s="6">
-        <f>SUM(AU91:AU94)</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AV95" s="6">
-        <f>SUM(AV91:AV94)</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AW95" s="6">
-        <f>SUM(AW91:AW94)</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AX95" s="6">
-        <f>SUM(AX91:AX94)</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AY95" s="6">
-        <f>SUM(AY91:AY94)</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AZ95" s="6">
-        <f>SUM(AZ91:AZ94)</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
     </row>
@@ -9113,333 +9113,333 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:52" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="22" t="s">
+    <row r="97" spans="2:52" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G97" s="22">
+      <c r="G97" s="20">
         <f>SUM(G95:G96)</f>
         <v>0</v>
       </c>
-      <c r="H97" s="22">
-        <f t="shared" ref="H97:W97" si="268">SUM(H95:H96)</f>
-        <v>0</v>
-      </c>
-      <c r="I97" s="22">
-        <f t="shared" si="268"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="22">
-        <f t="shared" si="268"/>
+      <c r="H97" s="20">
+        <f t="shared" ref="H97:W97" si="272">SUM(H95:H96)</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="20">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="20">
+        <f t="shared" si="272"/>
         <v>1065.7069999999999</v>
       </c>
-      <c r="K97" s="22">
-        <f t="shared" si="268"/>
+      <c r="K97" s="20">
+        <f t="shared" si="272"/>
         <v>1072.7420000000002</v>
       </c>
-      <c r="L97" s="22">
-        <f t="shared" si="268"/>
+      <c r="L97" s="20">
+        <f t="shared" si="272"/>
         <v>1064.22</v>
       </c>
-      <c r="M97" s="22">
-        <f t="shared" si="268"/>
+      <c r="M97" s="20">
+        <f t="shared" si="272"/>
         <v>1053.9479999999999</v>
       </c>
-      <c r="N97" s="22">
-        <f t="shared" si="268"/>
+      <c r="N97" s="20">
+        <f t="shared" si="272"/>
         <v>1096.3979999999999</v>
       </c>
-      <c r="O97" s="22">
-        <f t="shared" si="268"/>
+      <c r="O97" s="20">
+        <f t="shared" si="272"/>
         <v>1132.798</v>
       </c>
-      <c r="P97" s="22">
-        <f t="shared" si="268"/>
+      <c r="P97" s="20">
+        <f t="shared" si="272"/>
         <v>1186.845</v>
       </c>
-      <c r="Q97" s="22">
-        <f t="shared" si="268"/>
+      <c r="Q97" s="20">
+        <f t="shared" si="272"/>
         <v>1273.9189999999999</v>
       </c>
-      <c r="R97" s="22">
-        <f t="shared" si="268"/>
+      <c r="R97" s="20">
+        <f t="shared" si="272"/>
         <v>1425.7470000000001</v>
       </c>
-      <c r="S97" s="22">
-        <f t="shared" si="268"/>
+      <c r="S97" s="20">
+        <f t="shared" si="272"/>
         <v>1625.203</v>
       </c>
-      <c r="T97" s="22">
-        <f t="shared" si="268"/>
+      <c r="T97" s="20">
+        <f t="shared" si="272"/>
         <v>1818.8420000000001</v>
       </c>
-      <c r="U97" s="22">
-        <f t="shared" si="268"/>
+      <c r="U97" s="20">
+        <f t="shared" si="272"/>
         <v>1768.5729999999999</v>
       </c>
-      <c r="V97" s="22">
-        <f t="shared" si="268"/>
+      <c r="V97" s="20">
+        <f t="shared" si="272"/>
         <v>1972.1699999999998</v>
       </c>
-      <c r="W97" s="22">
-        <f t="shared" si="268"/>
-        <v>0</v>
-      </c>
-      <c r="X97" s="22">
-        <f t="shared" ref="X97" si="269">SUM(X95:X96)</f>
-        <v>0</v>
-      </c>
-      <c r="Y97" s="22">
-        <f t="shared" ref="Y97" si="270">SUM(Y95:Y96)</f>
-        <v>0</v>
-      </c>
-      <c r="Z97" s="22">
-        <f t="shared" ref="Z97" si="271">SUM(Z95:Z96)</f>
-        <v>0</v>
-      </c>
-      <c r="AA97" s="22">
-        <f t="shared" ref="AA97" si="272">SUM(AA95:AA96)</f>
-        <v>0</v>
-      </c>
-      <c r="AB97" s="22">
-        <f t="shared" ref="AB97" si="273">SUM(AB95:AB96)</f>
-        <v>0</v>
-      </c>
-      <c r="AC97" s="22">
-        <f t="shared" ref="AC97" si="274">SUM(AC95:AC96)</f>
-        <v>0</v>
-      </c>
-      <c r="AD97" s="22">
-        <f t="shared" ref="AD97" si="275">SUM(AD95:AD96)</f>
-        <v>0</v>
-      </c>
-      <c r="AK97" s="22">
+      <c r="W97" s="20">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="X97" s="20">
+        <f t="shared" ref="X97" si="273">SUM(X95:X96)</f>
+        <v>0</v>
+      </c>
+      <c r="Y97" s="20">
+        <f t="shared" ref="Y97" si="274">SUM(Y95:Y96)</f>
+        <v>0</v>
+      </c>
+      <c r="Z97" s="20">
+        <f t="shared" ref="Z97" si="275">SUM(Z95:Z96)</f>
+        <v>0</v>
+      </c>
+      <c r="AA97" s="20">
+        <f t="shared" ref="AA97" si="276">SUM(AA95:AA96)</f>
+        <v>0</v>
+      </c>
+      <c r="AB97" s="20">
+        <f t="shared" ref="AB97" si="277">SUM(AB95:AB96)</f>
+        <v>0</v>
+      </c>
+      <c r="AC97" s="20">
+        <f t="shared" ref="AC97" si="278">SUM(AC95:AC96)</f>
+        <v>0</v>
+      </c>
+      <c r="AD97" s="20">
+        <f t="shared" ref="AD97" si="279">SUM(AD95:AD96)</f>
+        <v>0</v>
+      </c>
+      <c r="AK97" s="20">
         <f>SUM(AK95:AK96)</f>
         <v>0</v>
       </c>
-      <c r="AL97" s="22">
-        <f t="shared" ref="AL97:AZ97" si="276">SUM(AL95:AL96)</f>
-        <v>0</v>
-      </c>
-      <c r="AM97" s="22">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="AN97" s="22">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="AO97" s="22">
-        <f t="shared" si="276"/>
+      <c r="AL97" s="20">
+        <f t="shared" ref="AL97:AZ97" si="280">SUM(AL95:AL96)</f>
+        <v>0</v>
+      </c>
+      <c r="AM97" s="20">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="AN97" s="20">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="AO97" s="20">
+        <f t="shared" si="280"/>
         <v>1065.7069999999999</v>
       </c>
-      <c r="AP97" s="22">
-        <f t="shared" si="276"/>
+      <c r="AP97" s="20">
+        <f t="shared" si="280"/>
         <v>1096.3979999999999</v>
       </c>
-      <c r="AQ97" s="22">
-        <f t="shared" ref="AQ97" si="277">SUM(AQ95:AQ96)</f>
+      <c r="AQ97" s="20">
+        <f t="shared" ref="AQ97" si="281">SUM(AQ95:AQ96)</f>
         <v>1425.7470000000001</v>
       </c>
-      <c r="AR97" s="22">
-        <f t="shared" ref="AR97:AS97" si="278">SUM(AR95:AR96)</f>
+      <c r="AR97" s="20">
+        <f t="shared" ref="AR97:AS97" si="282">SUM(AR95:AR96)</f>
         <v>1972.1699999999998</v>
       </c>
-      <c r="AS97" s="22">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="AT97" s="22">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="AU97" s="22">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="AV97" s="22">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="AW97" s="22">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="AX97" s="22">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="AY97" s="22">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="AZ97" s="22">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="23" t="s">
+      <c r="AS97" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="AT97" s="20">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="AU97" s="20">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="AV97" s="20">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="AW97" s="20">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="AX97" s="20">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="AY97" s="20">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="AZ97" s="20">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G98" s="23">
+      <c r="G98" s="21">
         <f>G97+G89</f>
         <v>0</v>
       </c>
-      <c r="H98" s="23">
-        <f t="shared" ref="H98:W98" si="279">H97+H89</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="23">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="23">
-        <f t="shared" si="279"/>
+      <c r="H98" s="21">
+        <f t="shared" ref="H98:W98" si="283">H97+H89</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="21">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="21">
+        <f t="shared" si="283"/>
         <v>1918.646</v>
       </c>
-      <c r="K98" s="23">
-        <f t="shared" si="279"/>
+      <c r="K98" s="21">
+        <f t="shared" si="283"/>
         <v>1816.6930000000002</v>
       </c>
-      <c r="L98" s="23">
-        <f t="shared" si="279"/>
+      <c r="L98" s="21">
+        <f t="shared" si="283"/>
         <v>1894.0720000000001</v>
       </c>
-      <c r="M98" s="23">
-        <f t="shared" si="279"/>
+      <c r="M98" s="21">
+        <f t="shared" si="283"/>
         <v>1998.84</v>
       </c>
-      <c r="N98" s="23">
-        <f t="shared" si="279"/>
+      <c r="N98" s="21">
+        <f t="shared" si="283"/>
         <v>2241.9639999999999</v>
       </c>
-      <c r="O98" s="23">
-        <f t="shared" si="279"/>
+      <c r="O98" s="21">
+        <f t="shared" si="283"/>
         <v>2426.6930000000002</v>
       </c>
-      <c r="P98" s="23">
-        <f t="shared" si="279"/>
+      <c r="P98" s="21">
+        <f t="shared" si="283"/>
         <v>2676.6019999999999</v>
       </c>
-      <c r="Q98" s="23">
-        <f t="shared" si="279"/>
+      <c r="Q98" s="21">
+        <f t="shared" si="283"/>
         <v>3071.1770000000001</v>
       </c>
-      <c r="R98" s="23">
-        <f t="shared" si="279"/>
+      <c r="R98" s="21">
+        <f t="shared" si="283"/>
         <v>3205.0770000000002</v>
       </c>
-      <c r="S98" s="23">
-        <f t="shared" si="279"/>
+      <c r="S98" s="21">
+        <f t="shared" si="283"/>
         <v>3301.2829999999994</v>
       </c>
-      <c r="T98" s="23">
-        <f t="shared" si="279"/>
+      <c r="T98" s="21">
+        <f t="shared" si="283"/>
         <v>3074.942</v>
       </c>
-      <c r="U98" s="23">
-        <f t="shared" si="279"/>
+      <c r="U98" s="21">
+        <f t="shared" si="283"/>
         <v>3192.6040000000003</v>
       </c>
-      <c r="V98" s="23">
-        <f t="shared" si="279"/>
+      <c r="V98" s="21">
+        <f t="shared" si="283"/>
         <v>3674.7290000000003</v>
       </c>
-      <c r="W98" s="23">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="X98" s="23">
-        <f t="shared" ref="X98" si="280">X97+X89</f>
-        <v>0</v>
-      </c>
-      <c r="Y98" s="23">
-        <f t="shared" ref="Y98" si="281">Y97+Y89</f>
-        <v>0</v>
-      </c>
-      <c r="Z98" s="23">
-        <f t="shared" ref="Z98" si="282">Z97+Z89</f>
-        <v>0</v>
-      </c>
-      <c r="AA98" s="23">
-        <f t="shared" ref="AA98" si="283">AA97+AA89</f>
-        <v>0</v>
-      </c>
-      <c r="AB98" s="23">
-        <f t="shared" ref="AB98" si="284">AB97+AB89</f>
-        <v>0</v>
-      </c>
-      <c r="AC98" s="23">
-        <f t="shared" ref="AC98" si="285">AC97+AC89</f>
-        <v>0</v>
-      </c>
-      <c r="AD98" s="23">
-        <f t="shared" ref="AD98" si="286">AD97+AD89</f>
-        <v>0</v>
-      </c>
-      <c r="AK98" s="23">
-        <f>AK97+AK89</f>
-        <v>0</v>
-      </c>
-      <c r="AL98" s="23">
-        <f>AL97+AL89</f>
-        <v>0</v>
-      </c>
-      <c r="AM98" s="23">
-        <f>AM97+AM89</f>
-        <v>0</v>
-      </c>
-      <c r="AN98" s="23">
-        <f>AN97+AN89</f>
-        <v>0</v>
-      </c>
-      <c r="AO98" s="23">
-        <f>AO97+AO89</f>
+      <c r="W98" s="21">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="X98" s="21">
+        <f t="shared" ref="X98" si="284">X97+X89</f>
+        <v>0</v>
+      </c>
+      <c r="Y98" s="21">
+        <f t="shared" ref="Y98" si="285">Y97+Y89</f>
+        <v>0</v>
+      </c>
+      <c r="Z98" s="21">
+        <f t="shared" ref="Z98" si="286">Z97+Z89</f>
+        <v>0</v>
+      </c>
+      <c r="AA98" s="21">
+        <f t="shared" ref="AA98" si="287">AA97+AA89</f>
+        <v>0</v>
+      </c>
+      <c r="AB98" s="21">
+        <f t="shared" ref="AB98" si="288">AB97+AB89</f>
+        <v>0</v>
+      </c>
+      <c r="AC98" s="21">
+        <f t="shared" ref="AC98" si="289">AC97+AC89</f>
+        <v>0</v>
+      </c>
+      <c r="AD98" s="21">
+        <f t="shared" ref="AD98" si="290">AD97+AD89</f>
+        <v>0</v>
+      </c>
+      <c r="AK98" s="21">
+        <f t="shared" ref="AK98:AP98" si="291">AK97+AK89</f>
+        <v>0</v>
+      </c>
+      <c r="AL98" s="21">
+        <f t="shared" si="291"/>
+        <v>0</v>
+      </c>
+      <c r="AM98" s="21">
+        <f t="shared" si="291"/>
+        <v>0</v>
+      </c>
+      <c r="AN98" s="21">
+        <f t="shared" si="291"/>
+        <v>0</v>
+      </c>
+      <c r="AO98" s="21">
+        <f t="shared" si="291"/>
         <v>1918.646</v>
       </c>
-      <c r="AP98" s="23">
-        <f>AP97+AP89</f>
+      <c r="AP98" s="21">
+        <f t="shared" si="291"/>
         <v>2241.9639999999999</v>
       </c>
-      <c r="AQ98" s="23">
-        <f t="shared" ref="AQ98" si="287">AQ97+AQ89</f>
+      <c r="AQ98" s="21">
+        <f t="shared" ref="AQ98" si="292">AQ97+AQ89</f>
         <v>3205.0770000000002</v>
       </c>
-      <c r="AR98" s="23">
-        <f t="shared" ref="AR98:AS98" si="288">AR97+AR89</f>
+      <c r="AR98" s="21">
+        <f t="shared" ref="AR98:AS98" si="293">AR97+AR89</f>
         <v>3674.7290000000003</v>
       </c>
-      <c r="AS98" s="23">
-        <f t="shared" si="288"/>
-        <v>0</v>
-      </c>
-      <c r="AT98" s="23">
-        <f>AT97+AT89</f>
-        <v>0</v>
-      </c>
-      <c r="AU98" s="23">
-        <f>AU97+AU89</f>
-        <v>0</v>
-      </c>
-      <c r="AV98" s="23">
-        <f>AV97+AV89</f>
-        <v>0</v>
-      </c>
-      <c r="AW98" s="23">
-        <f>AW97+AW89</f>
-        <v>0</v>
-      </c>
-      <c r="AX98" s="23">
-        <f>AX97+AX89</f>
-        <v>0</v>
-      </c>
-      <c r="AY98" s="23">
-        <f>AY97+AY89</f>
-        <v>0</v>
-      </c>
-      <c r="AZ98" s="23">
-        <f>AZ97+AZ89</f>
+      <c r="AS98" s="21">
+        <f t="shared" si="293"/>
+        <v>0</v>
+      </c>
+      <c r="AT98" s="21">
+        <f t="shared" ref="AT98:AZ98" si="294">AT97+AT89</f>
+        <v>0</v>
+      </c>
+      <c r="AU98" s="21">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="AV98" s="21">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="AW98" s="21">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="AX98" s="21">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="AY98" s="21">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="AZ98" s="21">
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
     </row>
@@ -9453,95 +9453,95 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H100" s="6" t="e">
-        <f t="shared" ref="H100:AD100" si="289">H69/H83</f>
+        <f t="shared" ref="H100:AD100" si="295">H69/H83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I100" s="6" t="e">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>2.2508228111950368</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>2.5089894995319559</v>
       </c>
       <c r="L100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>2.2947095788674403</v>
       </c>
       <c r="M100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>2.0967498554979818</v>
       </c>
       <c r="N100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>1.9272027131910954</v>
       </c>
       <c r="O100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>1.8492908171649212</v>
       </c>
       <c r="P100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>1.9117382014856878</v>
       </c>
       <c r="Q100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>1.7903993904374877</v>
       </c>
       <c r="R100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>1.9090266553471236</v>
       </c>
       <c r="S100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>2.1279560795208949</v>
       </c>
       <c r="T100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>2.8895053111435867</v>
       </c>
       <c r="U100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>2.4855590545414596</v>
       </c>
       <c r="V100" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>2.3128951909283226</v>
       </c>
       <c r="W100" s="6" t="e">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X100" s="6" t="e">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y100" s="6" t="e">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z100" s="6" t="e">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA100" s="6" t="e">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB100" s="6" t="e">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC100" s="6" t="e">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD100" s="6" t="e">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK100" s="6" t="e">
@@ -9549,63 +9549,63 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL100" s="6" t="e">
-        <f t="shared" ref="AL100:AZ100" si="290">AL69/AL83</f>
+        <f t="shared" ref="AL100:AZ100" si="296">AL69/AL83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM100" s="6" t="e">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN100" s="6" t="e">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO100" s="6">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>2.2508228111950368</v>
       </c>
       <c r="AP100" s="6">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>1.9272027131910954</v>
       </c>
       <c r="AQ100" s="6">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>1.9090266553471236</v>
       </c>
       <c r="AR100" s="6">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>2.3128951909283226</v>
       </c>
       <c r="AS100" s="6" t="e">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT100" s="6" t="e">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU100" s="6" t="e">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV100" s="6" t="e">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW100" s="6" t="e">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX100" s="6" t="e">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY100" s="6" t="e">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ100" s="6" t="e">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9618,95 +9618,95 @@
         <v>0</v>
       </c>
       <c r="H101" s="6">
-        <f t="shared" ref="H101:AD101" si="291">H65-(H81+H86)</f>
+        <f t="shared" ref="H101:AD101" si="297">H65-(H81+H86)</f>
         <v>0</v>
       </c>
       <c r="I101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="J101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>181.13199999999998</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>264.06200000000001</v>
       </c>
       <c r="L101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>270.11200000000002</v>
       </c>
       <c r="M101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>92.524000000000001</v>
       </c>
       <c r="N101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>134.07599999999999</v>
       </c>
       <c r="O101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>-8.7609999999999673</v>
       </c>
       <c r="P101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>-68.53600000000003</v>
       </c>
       <c r="Q101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>-300.0440000000001</v>
       </c>
       <c r="R101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>-329.36700000000002</v>
       </c>
       <c r="S101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>-11.455999999999989</v>
       </c>
       <c r="T101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>134.45300000000003</v>
       </c>
       <c r="U101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>175.59399999999997</v>
       </c>
       <c r="V101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>150.15699999999998</v>
       </c>
       <c r="W101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="X101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="Y101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="Z101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="AA101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="AB101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="AC101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="AD101" s="6">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="AK101" s="6">
@@ -9714,63 +9714,63 @@
         <v>0</v>
       </c>
       <c r="AL101" s="6">
-        <f t="shared" ref="AL101:AZ101" si="292">AL65-(AL81+AL86)</f>
+        <f t="shared" ref="AL101:AZ101" si="298">AL65-(AL81+AL86)</f>
         <v>0</v>
       </c>
       <c r="AM101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="AN101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="AO101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>181.13199999999998</v>
       </c>
       <c r="AP101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>134.07599999999999</v>
       </c>
       <c r="AQ101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>-329.36700000000002</v>
       </c>
       <c r="AR101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>150.15699999999998</v>
       </c>
       <c r="AS101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="AT101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="AU101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="AV101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="AW101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="AX101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="AY101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="AZ101" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
     </row>
@@ -9812,8 +9812,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
+    <row r="103" spans="2:52" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9944,95 +9944,95 @@
         <v>0</v>
       </c>
       <c r="H106" s="6">
-        <f t="shared" ref="H106:W106" si="293">SUM(H104:H105)</f>
+        <f t="shared" ref="H106:W106" si="299">SUM(H104:H105)</f>
         <v>0</v>
       </c>
       <c r="I106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="J106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>108.70400000000001</v>
       </c>
       <c r="L106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>158.251</v>
       </c>
       <c r="M106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>14.765000000000001</v>
       </c>
       <c r="N106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>64.942000000000007</v>
       </c>
       <c r="O106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>-145.37299999999999</v>
       </c>
       <c r="P106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>-210.928</v>
       </c>
       <c r="Q106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>-449.815</v>
       </c>
       <c r="R106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>-485.983</v>
       </c>
       <c r="S106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>302.84100000000001</v>
       </c>
       <c r="T106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>454.04300000000001</v>
       </c>
       <c r="U106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>644.30099999999993</v>
       </c>
       <c r="V106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>626.78700000000003</v>
       </c>
       <c r="W106" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="X106" s="6">
-        <f t="shared" ref="X106" si="294">SUM(X104:X105)</f>
+        <f t="shared" ref="X106" si="300">SUM(X104:X105)</f>
         <v>0</v>
       </c>
       <c r="Y106" s="6">
-        <f t="shared" ref="Y106" si="295">SUM(Y104:Y105)</f>
+        <f t="shared" ref="Y106" si="301">SUM(Y104:Y105)</f>
         <v>0</v>
       </c>
       <c r="Z106" s="6">
-        <f t="shared" ref="Z106" si="296">SUM(Z104:Z105)</f>
+        <f t="shared" ref="Z106" si="302">SUM(Z104:Z105)</f>
         <v>0</v>
       </c>
       <c r="AA106" s="6">
-        <f t="shared" ref="AA106" si="297">SUM(AA104:AA105)</f>
+        <f t="shared" ref="AA106" si="303">SUM(AA104:AA105)</f>
         <v>0</v>
       </c>
       <c r="AB106" s="6">
-        <f t="shared" ref="AB106" si="298">SUM(AB104:AB105)</f>
+        <f t="shared" ref="AB106" si="304">SUM(AB104:AB105)</f>
         <v>0</v>
       </c>
       <c r="AC106" s="6">
-        <f t="shared" ref="AC106" si="299">SUM(AC104:AC105)</f>
+        <f t="shared" ref="AC106" si="305">SUM(AC104:AC105)</f>
         <v>0</v>
       </c>
       <c r="AD106" s="6">
-        <f t="shared" ref="AD106" si="300">SUM(AD104:AD105)</f>
+        <f t="shared" ref="AD106" si="306">SUM(AD104:AD105)</f>
         <v>0</v>
       </c>
       <c r="AK106" s="6">
@@ -10040,19 +10040,19 @@
         <v>0</v>
       </c>
       <c r="AL106" s="6">
-        <f t="shared" ref="AL106:AO106" si="301">SUM(AL104:AL105)</f>
+        <f t="shared" ref="AL106:AO106" si="307">SUM(AL104:AL105)</f>
         <v>0</v>
       </c>
       <c r="AM106" s="6">
-        <f t="shared" si="301"/>
+        <f t="shared" si="307"/>
         <v>0</v>
       </c>
       <c r="AN106" s="6">
-        <f t="shared" si="301"/>
+        <f t="shared" si="307"/>
         <v>237.70499999999998</v>
       </c>
       <c r="AO106" s="6">
-        <f t="shared" si="301"/>
+        <f t="shared" si="307"/>
         <v>-74.671999999999997</v>
       </c>
       <c r="AP106" s="6">
@@ -10060,43 +10060,43 @@
         <v>64.942000000000007</v>
       </c>
       <c r="AQ106" s="6">
-        <f t="shared" ref="AQ106:AZ106" si="302">SUM(AQ104:AQ105)</f>
+        <f t="shared" ref="AQ106:AZ106" si="308">SUM(AQ104:AQ105)</f>
         <v>-485.983</v>
       </c>
       <c r="AR106" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>626.78700000000003</v>
       </c>
       <c r="AS106" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="AT106" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="AU106" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="AV106" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="AW106" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="AX106" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="AY106" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="AZ106" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
     </row>
@@ -10457,15 +10457,15 @@
         <v>108.70400000000001</v>
       </c>
       <c r="L116" s="6">
-        <f t="shared" ref="L116:AD116" si="303">SUM(L114:L115)</f>
+        <f t="shared" ref="L116:AD116" si="309">SUM(L114:L115)</f>
         <v>49.54699999999999</v>
       </c>
       <c r="M116" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="309"/>
         <v>-143.48599999999999</v>
       </c>
       <c r="N116" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="309"/>
         <v>50.177000000000021</v>
       </c>
       <c r="O116" s="6">
@@ -10473,15 +10473,15 @@
         <v>-145.37299999999999</v>
       </c>
       <c r="P116" s="6">
-        <f t="shared" ref="P116" si="304">SUM(P114:P115)</f>
+        <f t="shared" ref="P116" si="310">SUM(P114:P115)</f>
         <v>-65.555000000000007</v>
       </c>
       <c r="Q116" s="6">
-        <f t="shared" ref="Q116" si="305">SUM(Q114:Q115)</f>
+        <f t="shared" ref="Q116" si="311">SUM(Q114:Q115)</f>
         <v>-238.887</v>
       </c>
       <c r="R116" s="6">
-        <f t="shared" ref="R116" si="306">SUM(R114:R115)</f>
+        <f t="shared" ref="R116" si="312">SUM(R114:R115)</f>
         <v>-36.167999999999978</v>
       </c>
       <c r="S116" s="6">
@@ -10489,47 +10489,47 @@
         <v>302.84100000000001</v>
       </c>
       <c r="T116" s="6">
-        <f t="shared" ref="T116" si="307">SUM(T114:T115)</f>
+        <f t="shared" ref="T116" si="313">SUM(T114:T115)</f>
         <v>151.202</v>
       </c>
       <c r="U116" s="6">
-        <f t="shared" ref="U116" si="308">SUM(U114:U115)</f>
+        <f t="shared" ref="U116" si="314">SUM(U114:U115)</f>
         <v>190.25800000000001</v>
       </c>
       <c r="V116" s="6">
-        <f t="shared" ref="V116" si="309">SUM(V114:V115)</f>
+        <f t="shared" ref="V116" si="315">SUM(V114:V115)</f>
         <v>-17.513999999999946</v>
       </c>
       <c r="W116" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="X116" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="Y116" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="Z116" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="AA116" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="AB116" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="AC116" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="AD116" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
     </row>
@@ -10699,11 +10699,11 @@
       <c r="B121" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K121" s="25">
+      <c r="K121" s="6">
         <f>K111</f>
         <v>0</v>
       </c>
-      <c r="L121" s="25">
+      <c r="L121" s="6">
         <f>L111-K111</f>
         <v>0</v>
       </c>
@@ -10715,11 +10715,11 @@
         <f>N111-M121-L121-K121</f>
         <v>0</v>
       </c>
-      <c r="O121" s="25">
+      <c r="O121" s="6">
         <f>O111</f>
         <v>0</v>
       </c>
-      <c r="P121" s="25">
+      <c r="P121" s="6">
         <f>P111-O111</f>
         <v>0</v>
       </c>
@@ -10731,11 +10731,11 @@
         <f>R111-Q121-P121-O121</f>
         <v>0</v>
       </c>
-      <c r="S121" s="25">
+      <c r="S121" s="6">
         <f>S111</f>
         <v>0</v>
       </c>
-      <c r="T121" s="25">
+      <c r="T121" s="6">
         <f>T111-S111</f>
         <v>0</v>
       </c>
@@ -10758,95 +10758,95 @@
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="2:44" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="27" t="s">
+    <row r="127" spans="2:44" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="N127" s="27">
-        <f t="shared" ref="H127:AD127" si="310">N7*N128</f>
+      <c r="N127" s="23">
+        <f t="shared" ref="N127:AD127" si="316">N7*N128</f>
         <v>1861.2232441399999</v>
       </c>
-      <c r="O127" s="27">
-        <f t="shared" si="310"/>
+      <c r="O127" s="23">
+        <f t="shared" si="316"/>
         <v>1842.3709200000001</v>
       </c>
-      <c r="P127" s="27">
-        <f t="shared" si="310"/>
+      <c r="P127" s="23">
+        <f t="shared" si="316"/>
         <v>2077.1907200000001</v>
       </c>
-      <c r="Q127" s="27">
-        <f t="shared" si="310"/>
+      <c r="Q127" s="23">
+        <f t="shared" si="316"/>
         <v>2142.26244</v>
       </c>
-      <c r="R127" s="27">
-        <f t="shared" si="310"/>
+      <c r="R127" s="23">
+        <f t="shared" si="316"/>
         <v>2392.2621958</v>
       </c>
-      <c r="S127" s="27">
-        <f t="shared" si="310"/>
+      <c r="S127" s="23">
+        <f t="shared" si="316"/>
         <v>2997.5600199999999</v>
       </c>
-      <c r="T127" s="27">
-        <f t="shared" si="310"/>
+      <c r="T127" s="23">
+        <f t="shared" si="316"/>
         <v>4047.0707999999995</v>
       </c>
-      <c r="U127" s="27">
-        <f t="shared" si="310"/>
+      <c r="U127" s="23">
+        <f t="shared" si="316"/>
         <v>4792.5360000000001</v>
       </c>
-      <c r="V127" s="27">
-        <f t="shared" si="310"/>
+      <c r="V127" s="23">
+        <f t="shared" si="316"/>
         <v>8791.3812129899998</v>
       </c>
-      <c r="W127" s="27">
-        <f t="shared" si="310"/>
-        <v>0</v>
-      </c>
-      <c r="X127" s="27">
-        <f t="shared" si="310"/>
-        <v>0</v>
-      </c>
-      <c r="Y127" s="27">
-        <f t="shared" si="310"/>
-        <v>0</v>
-      </c>
-      <c r="Z127" s="27">
-        <f t="shared" si="310"/>
-        <v>0</v>
-      </c>
-      <c r="AA127" s="27">
-        <f t="shared" si="310"/>
-        <v>0</v>
-      </c>
-      <c r="AB127" s="27">
-        <f t="shared" si="310"/>
-        <v>0</v>
-      </c>
-      <c r="AC127" s="27">
-        <f t="shared" si="310"/>
-        <v>0</v>
-      </c>
-      <c r="AD127" s="27">
-        <f t="shared" si="310"/>
-        <v>0</v>
-      </c>
-      <c r="AN127" s="27">
+      <c r="W127" s="23">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="X127" s="23">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="Y127" s="23">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="Z127" s="23">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="AA127" s="23">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="AB127" s="23">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="AC127" s="23">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="AD127" s="23">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="AN127" s="23">
         <f>AN7*AN128</f>
         <v>916.97529000000009</v>
       </c>
-      <c r="AO127" s="27">
-        <f t="shared" ref="AO127:AQ127" si="311">AO7*AO128</f>
+      <c r="AO127" s="23">
+        <f t="shared" ref="AO127:AQ127" si="317">AO7*AO128</f>
         <v>1149.2469799999999</v>
       </c>
-      <c r="AP127" s="27">
-        <f t="shared" si="311"/>
+      <c r="AP127" s="23">
+        <f t="shared" si="317"/>
         <v>1594.1055836600001</v>
       </c>
-      <c r="AQ127" s="27">
-        <f t="shared" si="311"/>
+      <c r="AQ127" s="23">
+        <f t="shared" si="317"/>
         <v>2141.5196155399999</v>
       </c>
-      <c r="AR127" s="27">
+      <c r="AR127" s="23">
         <f>AR7*AR128</f>
         <v>5115.4760154299993</v>
       </c>
@@ -10855,470 +10855,470 @@
       <c r="B128" t="s">
         <v>2</v>
       </c>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="19"/>
-      <c r="M128" s="19"/>
-      <c r="N128" s="19">
-        <f t="shared" ref="L128:AD128" si="312">N60/1000</f>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18">
+        <f t="shared" ref="N128:AD128" si="318">N60/1000</f>
         <v>50.590465999999999</v>
       </c>
-      <c r="O128" s="19">
-        <f t="shared" si="312"/>
+      <c r="O128" s="18">
+        <f t="shared" si="318"/>
         <v>50.795999999999999</v>
       </c>
-      <c r="P128" s="19">
-        <f t="shared" si="312"/>
+      <c r="P128" s="18">
+        <f t="shared" si="318"/>
         <v>51.314</v>
       </c>
-      <c r="Q128" s="19">
-        <f t="shared" si="312"/>
+      <c r="Q128" s="18">
+        <f t="shared" si="318"/>
         <v>51.707999999999998</v>
       </c>
-      <c r="R128" s="19">
-        <f t="shared" si="312"/>
+      <c r="R128" s="18">
+        <f t="shared" si="318"/>
         <v>52.347093999999998</v>
       </c>
-      <c r="S128" s="19">
-        <f t="shared" si="312"/>
+      <c r="S128" s="18">
+        <f t="shared" si="318"/>
         <v>52.597999999999999</v>
       </c>
-      <c r="T128" s="19">
-        <f t="shared" si="312"/>
+      <c r="T128" s="18">
+        <f t="shared" si="318"/>
         <v>53.16</v>
       </c>
-      <c r="U128" s="19">
-        <f t="shared" si="312"/>
+      <c r="U128" s="18">
+        <f t="shared" si="318"/>
         <v>53.28</v>
       </c>
-      <c r="V128" s="19">
-        <f t="shared" si="312"/>
+      <c r="V128" s="18">
+        <f t="shared" si="318"/>
         <v>52.905946999999998</v>
       </c>
-      <c r="W128" s="19">
-        <f t="shared" si="312"/>
-        <v>0</v>
-      </c>
-      <c r="X128" s="19">
-        <f t="shared" si="312"/>
-        <v>0</v>
-      </c>
-      <c r="Y128" s="19">
-        <f t="shared" si="312"/>
-        <v>0</v>
-      </c>
-      <c r="Z128" s="19">
-        <f t="shared" si="312"/>
-        <v>0</v>
-      </c>
-      <c r="AA128" s="19">
-        <f t="shared" si="312"/>
-        <v>0</v>
-      </c>
-      <c r="AB128" s="19">
-        <f t="shared" si="312"/>
-        <v>0</v>
-      </c>
-      <c r="AC128" s="19">
-        <f t="shared" si="312"/>
-        <v>0</v>
-      </c>
-      <c r="AD128" s="19">
-        <f t="shared" si="312"/>
-        <v>0</v>
-      </c>
-      <c r="AN128" s="19">
+      <c r="W128" s="18">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="X128" s="18">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="Y128" s="18">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="Z128" s="18">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="AA128" s="18">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="AB128" s="18">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="AC128" s="18">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="AD128" s="18">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="AN128" s="18">
         <f>AN60/1000</f>
         <v>49.917000000000002</v>
       </c>
-      <c r="AO128" s="19">
-        <f t="shared" ref="AO128:AQ128" si="313">AO60/1000</f>
+      <c r="AO128" s="18">
+        <f t="shared" ref="AO128:AQ128" si="319">AO60/1000</f>
         <v>50.987000000000002</v>
       </c>
-      <c r="AP128" s="19">
-        <f t="shared" si="313"/>
+      <c r="AP128" s="18">
+        <f t="shared" si="319"/>
         <v>50.590465999999999</v>
       </c>
-      <c r="AQ128" s="19">
-        <f t="shared" si="313"/>
+      <c r="AQ128" s="18">
+        <f t="shared" si="319"/>
         <v>52.347093999999998</v>
       </c>
-      <c r="AR128" s="19">
+      <c r="AR128" s="18">
         <f>AR60/1000</f>
         <v>52.905946999999998</v>
       </c>
     </row>
-    <row r="129" spans="2:52" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="13" t="s">
+    <row r="129" spans="2:52" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="N129" s="13">
+      <c r="N129" s="12">
         <f>N127/SUM(K39:N39)</f>
         <v>0.52319439305766924</v>
       </c>
-      <c r="O129" s="13">
-        <f t="shared" ref="H129:AD129" si="314">O127/SUM(L39:O39)</f>
+      <c r="O129" s="12">
+        <f t="shared" ref="O129:AD129" si="320">O127/SUM(L39:O39)</f>
         <v>0.48130044081588297</v>
       </c>
-      <c r="P129" s="13">
-        <f t="shared" si="314"/>
+      <c r="P129" s="12">
+        <f t="shared" si="320"/>
         <v>0.49812547916494304</v>
       </c>
-      <c r="Q129" s="13">
-        <f t="shared" si="314"/>
+      <c r="Q129" s="12">
+        <f t="shared" si="320"/>
         <v>0.46272924971876767</v>
       </c>
-      <c r="R129" s="13">
-        <f t="shared" si="314"/>
+      <c r="R129" s="12">
+        <f t="shared" si="320"/>
         <v>0.46039580766263305</v>
       </c>
-      <c r="S129" s="13">
-        <f t="shared" si="314"/>
+      <c r="S129" s="12">
+        <f t="shared" si="320"/>
         <v>0.49830612888473585</v>
       </c>
-      <c r="T129" s="13">
-        <f t="shared" si="314"/>
+      <c r="T129" s="12">
+        <f t="shared" si="320"/>
         <v>0.60892316372705002</v>
       </c>
-      <c r="U129" s="13">
-        <f t="shared" si="314"/>
+      <c r="U129" s="12">
+        <f t="shared" si="320"/>
         <v>0.72900470803447648</v>
       </c>
-      <c r="V129" s="13">
-        <f t="shared" si="314"/>
+      <c r="V129" s="12">
+        <f t="shared" si="320"/>
         <v>1.2341410019692616</v>
       </c>
-      <c r="W129" s="13">
-        <f t="shared" si="314"/>
-        <v>0</v>
-      </c>
-      <c r="X129" s="13">
-        <f t="shared" si="314"/>
-        <v>0</v>
-      </c>
-      <c r="Y129" s="13">
-        <f t="shared" si="314"/>
-        <v>0</v>
-      </c>
-      <c r="Z129" s="13" t="e">
-        <f t="shared" si="314"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA129" s="13" t="e">
-        <f t="shared" si="314"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB129" s="13" t="e">
-        <f t="shared" si="314"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC129" s="13" t="e">
-        <f t="shared" si="314"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD129" s="13" t="e">
-        <f t="shared" si="314"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN129" s="13">
+      <c r="W129" s="12">
+        <f t="shared" si="320"/>
+        <v>0</v>
+      </c>
+      <c r="X129" s="12">
+        <f t="shared" si="320"/>
+        <v>0</v>
+      </c>
+      <c r="Y129" s="12">
+        <f t="shared" si="320"/>
+        <v>0</v>
+      </c>
+      <c r="Z129" s="12" t="e">
+        <f t="shared" si="320"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA129" s="12" t="e">
+        <f t="shared" si="320"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB129" s="12" t="e">
+        <f t="shared" si="320"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC129" s="12" t="e">
+        <f t="shared" si="320"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD129" s="12" t="e">
+        <f t="shared" si="320"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN129" s="12">
         <f>AN127/AN39</f>
         <v>0.26196599492623618</v>
       </c>
-      <c r="AO129" s="13">
-        <f t="shared" ref="AO129:AQ129" si="315">AO127/AO39</f>
+      <c r="AO129" s="12">
+        <f t="shared" ref="AO129:AQ129" si="321">AO127/AO39</f>
         <v>0.34416000929541418</v>
       </c>
-      <c r="AP129" s="13">
-        <f t="shared" si="315"/>
+      <c r="AP129" s="12">
+        <f t="shared" si="321"/>
         <v>0.4481069672532525</v>
       </c>
-      <c r="AQ129" s="13">
-        <f t="shared" si="315"/>
+      <c r="AQ129" s="12">
+        <f t="shared" si="321"/>
         <v>0.41213987946342051</v>
       </c>
-      <c r="AR129" s="13">
+      <c r="AR129" s="12">
         <f>AR127/AR39</f>
         <v>0.71811454221825777</v>
       </c>
     </row>
-    <row r="130" spans="2:52" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="13" t="s">
+    <row r="130" spans="2:52" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="N130" s="13">
-        <f t="shared" ref="H130:AD130" si="316">N127/SUM(K56:N56)</f>
+      <c r="N130" s="12">
+        <f t="shared" ref="N130:AD130" si="322">N127/SUM(K56:N56)</f>
         <v>16.638119556072031</v>
       </c>
-      <c r="O130" s="13">
-        <f t="shared" si="316"/>
+      <c r="O130" s="12">
+        <f t="shared" si="322"/>
         <v>16.642766732007814</v>
       </c>
-      <c r="P130" s="13">
-        <f t="shared" si="316"/>
+      <c r="P130" s="12">
+        <f t="shared" si="322"/>
         <v>16.622978096815732</v>
       </c>
-      <c r="Q130" s="13">
-        <f t="shared" si="316"/>
+      <c r="Q130" s="12">
+        <f t="shared" si="322"/>
         <v>11.674263853996914</v>
       </c>
-      <c r="R130" s="13">
-        <f t="shared" si="316"/>
+      <c r="R130" s="12">
+        <f t="shared" si="322"/>
         <v>8.3891044623601054</v>
       </c>
-      <c r="S130" s="13">
-        <f t="shared" si="316"/>
+      <c r="S130" s="12">
+        <f t="shared" si="322"/>
         <v>6.7491028094618271</v>
       </c>
-      <c r="T130" s="13">
-        <f t="shared" si="316"/>
+      <c r="T130" s="12">
+        <f t="shared" si="322"/>
         <v>6.9972886197065147</v>
       </c>
-      <c r="U130" s="13">
-        <f t="shared" si="316"/>
+      <c r="U130" s="12">
+        <f t="shared" si="322"/>
         <v>8.160966945990717</v>
       </c>
-      <c r="V130" s="13">
-        <f t="shared" si="316"/>
+      <c r="V130" s="12">
+        <f t="shared" si="322"/>
         <v>13.736576072097101</v>
       </c>
-      <c r="W130" s="13">
-        <f t="shared" si="316"/>
-        <v>0</v>
-      </c>
-      <c r="X130" s="13">
-        <f t="shared" si="316"/>
-        <v>0</v>
-      </c>
-      <c r="Y130" s="13">
-        <f t="shared" si="316"/>
-        <v>0</v>
-      </c>
-      <c r="Z130" s="13" t="e">
-        <f t="shared" si="316"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA130" s="13" t="e">
-        <f t="shared" si="316"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB130" s="13" t="e">
-        <f t="shared" si="316"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC130" s="13" t="e">
-        <f t="shared" si="316"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD130" s="13" t="e">
-        <f t="shared" si="316"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN130" s="13">
+      <c r="W130" s="12">
+        <f t="shared" si="322"/>
+        <v>0</v>
+      </c>
+      <c r="X130" s="12">
+        <f t="shared" si="322"/>
+        <v>0</v>
+      </c>
+      <c r="Y130" s="12">
+        <f t="shared" si="322"/>
+        <v>0</v>
+      </c>
+      <c r="Z130" s="12" t="e">
+        <f t="shared" si="322"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA130" s="12" t="e">
+        <f t="shared" si="322"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB130" s="12" t="e">
+        <f t="shared" si="322"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC130" s="12" t="e">
+        <f t="shared" si="322"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD130" s="12" t="e">
+        <f t="shared" si="322"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN130" s="12">
         <f>AN127/AN56</f>
         <v>12.750289079229145</v>
       </c>
-      <c r="AO130" s="13">
-        <f t="shared" ref="AO130:AQ130" si="317">AO127/AO56</f>
+      <c r="AO130" s="12">
+        <f t="shared" ref="AO130:AQ130" si="323">AO127/AO56</f>
         <v>13.631529392228494</v>
       </c>
-      <c r="AP130" s="13">
-        <f t="shared" si="317"/>
+      <c r="AP130" s="12">
+        <f t="shared" si="323"/>
         <v>14.250262223751843</v>
       </c>
-      <c r="AQ130" s="13">
-        <f t="shared" si="317"/>
+      <c r="AQ130" s="12">
+        <f t="shared" si="323"/>
         <v>7.509808830528498</v>
       </c>
-      <c r="AR130" s="13">
+      <c r="AR130" s="12">
         <f>AR127/AR56</f>
         <v>7.9929562520976667</v>
       </c>
     </row>
-    <row r="131" spans="2:52" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="13" t="s">
+    <row r="131" spans="2:52" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N131" s="13">
-        <f t="shared" ref="H131:AD131" si="318">N127/N97</f>
+      <c r="N131" s="12">
+        <f t="shared" ref="N131:AD131" si="324">N127/N97</f>
         <v>1.6975799336919624</v>
       </c>
-      <c r="O131" s="13">
-        <f t="shared" si="318"/>
+      <c r="O131" s="12">
+        <f t="shared" si="324"/>
         <v>1.6263896299251941</v>
       </c>
-      <c r="P131" s="13">
-        <f t="shared" si="318"/>
+      <c r="P131" s="12">
+        <f t="shared" si="324"/>
         <v>1.7501785995643913</v>
       </c>
-      <c r="Q131" s="13">
-        <f t="shared" si="318"/>
+      <c r="Q131" s="12">
+        <f t="shared" si="324"/>
         <v>1.6816315951014156</v>
       </c>
-      <c r="R131" s="13">
-        <f t="shared" si="318"/>
+      <c r="R131" s="12">
+        <f t="shared" si="324"/>
         <v>1.6779009149589652</v>
       </c>
-      <c r="S131" s="13">
-        <f t="shared" si="318"/>
+      <c r="S131" s="12">
+        <f t="shared" si="324"/>
         <v>1.8444219091399658</v>
       </c>
-      <c r="T131" s="13">
-        <f t="shared" si="318"/>
+      <c r="T131" s="12">
+        <f t="shared" si="324"/>
         <v>2.2250810130841487</v>
       </c>
-      <c r="U131" s="13">
-        <f t="shared" si="318"/>
+      <c r="U131" s="12">
+        <f t="shared" si="324"/>
         <v>2.7098321641232794</v>
       </c>
-      <c r="V131" s="13">
-        <f t="shared" si="318"/>
+      <c r="V131" s="12">
+        <f t="shared" si="324"/>
         <v>4.4577197771946642</v>
       </c>
-      <c r="W131" s="13" t="e">
-        <f t="shared" si="318"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X131" s="13" t="e">
-        <f t="shared" si="318"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y131" s="13" t="e">
-        <f t="shared" si="318"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z131" s="13" t="e">
-        <f t="shared" si="318"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA131" s="13" t="e">
-        <f t="shared" si="318"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB131" s="13" t="e">
-        <f t="shared" si="318"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC131" s="13" t="e">
-        <f t="shared" si="318"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD131" s="13" t="e">
-        <f t="shared" si="318"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN131" s="13" t="e">
+      <c r="W131" s="12" t="e">
+        <f t="shared" si="324"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X131" s="12" t="e">
+        <f t="shared" si="324"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y131" s="12" t="e">
+        <f t="shared" si="324"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z131" s="12" t="e">
+        <f t="shared" si="324"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA131" s="12" t="e">
+        <f t="shared" si="324"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB131" s="12" t="e">
+        <f t="shared" si="324"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC131" s="12" t="e">
+        <f t="shared" si="324"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD131" s="12" t="e">
+        <f t="shared" si="324"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN131" s="12" t="e">
         <f>AN127/AN97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO131" s="13">
-        <f t="shared" ref="AO131:AQ131" si="319">AO127/AO97</f>
+      <c r="AO131" s="12">
+        <f t="shared" ref="AO131:AQ131" si="325">AO127/AO97</f>
         <v>1.0783892570847335</v>
       </c>
-      <c r="AP131" s="13">
-        <f t="shared" si="319"/>
+      <c r="AP131" s="12">
+        <f t="shared" si="325"/>
         <v>1.4539479127652553</v>
       </c>
-      <c r="AQ131" s="13">
-        <f t="shared" si="319"/>
+      <c r="AQ131" s="12">
+        <f t="shared" si="325"/>
         <v>1.5020334011153451</v>
       </c>
-      <c r="AR131" s="13">
+      <c r="AR131" s="12">
         <f>AR127/AR97</f>
         <v>2.5938311684236144</v>
       </c>
     </row>
-    <row r="132" spans="2:52" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="13" t="s">
+    <row r="132" spans="2:52" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="N132" s="13">
-        <f t="shared" ref="H132:AD132" si="320">N127/SUM(K116:N116)</f>
+      <c r="N132" s="12">
+        <f t="shared" ref="N132:AD132" si="326">N127/SUM(K116:N116)</f>
         <v>28.659777095562177</v>
       </c>
-      <c r="O132" s="13">
-        <f t="shared" si="320"/>
+      <c r="O132" s="12">
+        <f t="shared" si="326"/>
         <v>-9.7410364025695948</v>
       </c>
-      <c r="P132" s="13">
-        <f t="shared" si="320"/>
+      <c r="P132" s="12">
+        <f t="shared" si="326"/>
         <v>-6.8275414232982845</v>
       </c>
-      <c r="Q132" s="13">
-        <f t="shared" si="320"/>
+      <c r="Q132" s="12">
+        <f t="shared" si="326"/>
         <v>-5.3605073591600405</v>
       </c>
-      <c r="R132" s="13">
-        <f t="shared" si="320"/>
+      <c r="R132" s="12">
+        <f t="shared" si="326"/>
         <v>-4.9225223841163173</v>
       </c>
-      <c r="S132" s="13">
-        <f t="shared" si="320"/>
+      <c r="S132" s="12">
+        <f t="shared" si="326"/>
         <v>-79.365617834732177</v>
       </c>
-      <c r="T132" s="13">
-        <f t="shared" si="320"/>
+      <c r="T132" s="12">
+        <f t="shared" si="326"/>
         <v>22.610849889378049</v>
       </c>
-      <c r="U132" s="13">
-        <f t="shared" si="320"/>
+      <c r="U132" s="12">
+        <f t="shared" si="326"/>
         <v>7.8807366151812186</v>
       </c>
-      <c r="V132" s="13">
-        <f t="shared" si="320"/>
+      <c r="V132" s="12">
+        <f t="shared" si="326"/>
         <v>14.026106497087524</v>
       </c>
-      <c r="W132" s="13">
-        <f t="shared" si="320"/>
-        <v>0</v>
-      </c>
-      <c r="X132" s="13">
-        <f t="shared" si="320"/>
-        <v>0</v>
-      </c>
-      <c r="Y132" s="13">
-        <f t="shared" si="320"/>
-        <v>0</v>
-      </c>
-      <c r="Z132" s="13" t="e">
-        <f t="shared" si="320"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA132" s="13" t="e">
-        <f t="shared" si="320"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB132" s="13" t="e">
-        <f t="shared" si="320"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC132" s="13" t="e">
-        <f t="shared" si="320"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD132" s="13" t="e">
-        <f t="shared" si="320"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN132" s="13">
+      <c r="W132" s="12">
+        <f t="shared" si="326"/>
+        <v>0</v>
+      </c>
+      <c r="X132" s="12">
+        <f t="shared" si="326"/>
+        <v>0</v>
+      </c>
+      <c r="Y132" s="12">
+        <f t="shared" si="326"/>
+        <v>0</v>
+      </c>
+      <c r="Z132" s="12" t="e">
+        <f t="shared" si="326"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA132" s="12" t="e">
+        <f t="shared" si="326"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB132" s="12" t="e">
+        <f t="shared" si="326"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC132" s="12" t="e">
+        <f t="shared" si="326"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD132" s="12" t="e">
+        <f t="shared" si="326"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN132" s="12">
         <f>AN127/AN106</f>
         <v>3.8576188553038437</v>
       </c>
-      <c r="AO132" s="13">
-        <f t="shared" ref="AO132:AQ132" si="321">AO127/AO106</f>
+      <c r="AO132" s="12">
+        <f t="shared" ref="AO132:AQ132" si="327">AO127/AO106</f>
         <v>-15.390601296335975</v>
       </c>
-      <c r="AP132" s="13">
-        <f t="shared" si="321"/>
+      <c r="AP132" s="12">
+        <f t="shared" si="327"/>
         <v>24.546604411012904</v>
       </c>
-      <c r="AQ132" s="13">
-        <f t="shared" si="321"/>
+      <c r="AQ132" s="12">
+        <f t="shared" si="327"/>
         <v>-4.4065731014047813</v>
       </c>
-      <c r="AR132" s="13">
+      <c r="AR132" s="12">
         <f>AR127/AR106</f>
         <v>8.1614264741132132</v>
       </c>
@@ -11342,131 +11342,131 @@
         <v>0.55090530718113173</v>
       </c>
       <c r="L139" s="8">
-        <f t="shared" ref="L139:AD139" si="322">L44/L47</f>
+        <f t="shared" ref="L139:AD139" si="328">L44/L47</f>
         <v>0.53407272358958779</v>
       </c>
       <c r="M139" s="8">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>0.54653555048036084</v>
       </c>
       <c r="N139" s="8">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>0.55369726580851264</v>
       </c>
       <c r="O139" s="8">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>0.59758189540505091</v>
       </c>
       <c r="P139" s="8">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>0.5809626067048822</v>
       </c>
       <c r="Q139" s="8">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>0.58570389593216421</v>
       </c>
       <c r="R139" s="8">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>0.57962351900827802</v>
       </c>
       <c r="S139" s="8">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>0.58270021662009852</v>
       </c>
       <c r="T139" s="8">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>0.57837041884816753</v>
       </c>
       <c r="U139" s="8">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>0.6090259826991522</v>
       </c>
       <c r="V139" s="8">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>0.58507944611945562</v>
       </c>
       <c r="W139" s="8" t="e">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X139" s="8" t="e">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y139" s="8" t="e">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z139" s="8" t="e">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA139" s="8" t="e">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB139" s="8" t="e">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC139" s="8" t="e">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD139" s="8" t="e">
-        <f t="shared" si="322"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN139" s="8">
-        <f t="shared" ref="AN139:AZ139" si="323">AN44/AN47</f>
+        <f t="shared" ref="AN139:AZ139" si="329">AN44/AN47</f>
         <v>0.45169964523248191</v>
       </c>
       <c r="AO139" s="8">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>0.50272383079563099</v>
       </c>
       <c r="AP139" s="8">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>0.54645377029696218</v>
       </c>
       <c r="AQ139" s="8">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>0.58574243708506701</v>
       </c>
       <c r="AR139" s="8">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>0.58876731753118594</v>
       </c>
       <c r="AS139" s="8" t="e">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT139" s="8" t="e">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU139" s="8" t="e">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV139" s="8" t="e">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW139" s="8" t="e">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX139" s="8" t="e">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY139" s="8" t="e">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ139" s="8" t="e">
-        <f t="shared" si="323"/>
+        <f t="shared" si="329"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11479,131 +11479,131 @@
         <v>0.20400325729624305</v>
       </c>
       <c r="L140" s="8">
-        <f t="shared" ref="L140:AD140" si="324">L45/L47</f>
+        <f t="shared" ref="L140:AD140" si="330">L45/L47</f>
         <v>0.21006786184543705</v>
       </c>
       <c r="M140" s="8">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>0.20597950208565335</v>
       </c>
       <c r="N140" s="8">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>0.21446020858780424</v>
       </c>
       <c r="O140" s="8">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>0.19836530258414289</v>
       </c>
       <c r="P140" s="8">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>0.19486396791310981</v>
       </c>
       <c r="Q140" s="8">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>0.1847633845187524</v>
       </c>
       <c r="R140" s="8">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>0.19803325936903821</v>
       </c>
       <c r="S140" s="8">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>0.23045709980221643</v>
       </c>
       <c r="T140" s="8">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>0.23269797120418848</v>
       </c>
       <c r="U140" s="8">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>0.19887332353842407</v>
       </c>
       <c r="V140" s="8">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>0.22012405047571085</v>
       </c>
       <c r="W140" s="8" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X140" s="8" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y140" s="8" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z140" s="8" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA140" s="8" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB140" s="8" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC140" s="8" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD140" s="8" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="330"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN140" s="8">
-        <f t="shared" ref="AN140:AZ140" si="325">AN45/AN47</f>
+        <f t="shared" ref="AN140:AZ140" si="331">AN45/AN47</f>
         <v>0.19371360996663223</v>
       </c>
       <c r="AO140" s="8">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>0.19324898537302862</v>
       </c>
       <c r="AP140" s="8">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>0.20868211918916879</v>
       </c>
       <c r="AQ140" s="8">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>0.19388857097372397</v>
       </c>
       <c r="AR140" s="8">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>0.22040929733458525</v>
       </c>
       <c r="AS140" s="8" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT140" s="8" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU140" s="8" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV140" s="8" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW140" s="8" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX140" s="8" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY140" s="8" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ140" s="8" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="331"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11616,136 +11616,136 @@
         <v>0.24509143552262513</v>
       </c>
       <c r="L141" s="9">
-        <f t="shared" ref="L141:AD141" si="326">L46/L47</f>
+        <f t="shared" ref="L141:AD141" si="332">L46/L47</f>
         <v>0.25585941456497518</v>
       </c>
       <c r="M141" s="9">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>0.24748494743398577</v>
       </c>
       <c r="N141" s="9">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>0.23184252560368321</v>
       </c>
       <c r="O141" s="9">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>0.20405280201080625</v>
       </c>
       <c r="P141" s="9">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>0.22417342538200791</v>
       </c>
       <c r="Q141" s="9">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>0.22953271954908347</v>
       </c>
       <c r="R141" s="9">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>0.2223432216226838</v>
       </c>
       <c r="S141" s="9">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>0.18684268357768502</v>
       </c>
       <c r="T141" s="9">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>0.18893160994764396</v>
       </c>
       <c r="U141" s="9">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>0.1921006937624237</v>
       </c>
       <c r="V141" s="9">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>0.19479650340483362</v>
       </c>
       <c r="W141" s="9" t="e">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X141" s="9" t="e">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y141" s="9" t="e">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z141" s="9" t="e">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA141" s="9" t="e">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB141" s="9" t="e">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC141" s="9" t="e">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD141" s="9" t="e">
-        <f t="shared" si="326"/>
+        <f t="shared" si="332"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN141" s="9">
-        <f t="shared" ref="AN141:AZ141" si="327">AN46/AN47</f>
+        <f t="shared" ref="AN141:AZ141" si="333">AN46/AN47</f>
         <v>0.35458674480088576</v>
       </c>
       <c r="AO141" s="9">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>0.30402718383134036</v>
       </c>
       <c r="AP141" s="9">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>0.24486411051386903</v>
       </c>
       <c r="AQ141" s="9">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>0.22036899194120912</v>
       </c>
       <c r="AR141" s="9">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>0.19082338513422881</v>
       </c>
       <c r="AS141" s="9" t="e">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT141" s="9" t="e">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU141" s="9" t="e">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV141" s="9" t="e">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW141" s="9" t="e">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX141" s="9" t="e">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY141" s="9" t="e">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ141" s="9" t="e">
-        <f t="shared" si="327"/>
+        <f t="shared" si="333"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="142" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B142" s="26" t="s">
+      <c r="B142" s="6" t="s">
         <v>134</v>
       </c>
       <c r="K142" s="8">
@@ -11753,131 +11753,131 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="L142" s="8">
-        <f t="shared" ref="L142:AD142" si="328">SUM(L139:L141)</f>
+        <f t="shared" ref="L142:AD142" si="334">SUM(L139:L141)</f>
         <v>1</v>
       </c>
       <c r="M142" s="8">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>1</v>
       </c>
       <c r="N142" s="8">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>1</v>
       </c>
       <c r="O142" s="8">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>1</v>
       </c>
       <c r="P142" s="8">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Q142" s="8">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>1</v>
       </c>
       <c r="R142" s="8">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>1</v>
       </c>
       <c r="S142" s="8">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>1</v>
       </c>
       <c r="T142" s="8">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>1</v>
       </c>
       <c r="U142" s="8">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>1</v>
       </c>
       <c r="V142" s="8">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>1</v>
       </c>
       <c r="W142" s="8" t="e">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X142" s="8" t="e">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y142" s="8" t="e">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z142" s="8" t="e">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA142" s="8" t="e">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB142" s="8" t="e">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC142" s="8" t="e">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD142" s="8" t="e">
-        <f t="shared" si="328"/>
+        <f t="shared" si="334"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN142" s="8">
-        <f t="shared" ref="AN142" si="329">SUM(AN139:AN141)</f>
+        <f t="shared" ref="AN142" si="335">SUM(AN139:AN141)</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="AO142" s="8">
-        <f t="shared" ref="AO142" si="330">SUM(AO139:AO141)</f>
+        <f t="shared" ref="AO142" si="336">SUM(AO139:AO141)</f>
         <v>1</v>
       </c>
       <c r="AP142" s="8">
-        <f t="shared" ref="AP142" si="331">SUM(AP139:AP141)</f>
+        <f t="shared" ref="AP142" si="337">SUM(AP139:AP141)</f>
         <v>1</v>
       </c>
       <c r="AQ142" s="8">
-        <f t="shared" ref="AQ142" si="332">SUM(AQ139:AQ141)</f>
+        <f t="shared" ref="AQ142" si="338">SUM(AQ139:AQ141)</f>
         <v>1</v>
       </c>
       <c r="AR142" s="8">
-        <f t="shared" ref="AR142" si="333">SUM(AR139:AR141)</f>
+        <f t="shared" ref="AR142" si="339">SUM(AR139:AR141)</f>
         <v>1</v>
       </c>
       <c r="AS142" s="8" t="e">
-        <f t="shared" ref="AS142" si="334">SUM(AS139:AS141)</f>
+        <f t="shared" ref="AS142" si="340">SUM(AS139:AS141)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT142" s="8" t="e">
-        <f t="shared" ref="AT142" si="335">SUM(AT139:AT141)</f>
+        <f t="shared" ref="AT142" si="341">SUM(AT139:AT141)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AU142" s="8" t="e">
-        <f t="shared" ref="AU142" si="336">SUM(AU139:AU141)</f>
+        <f t="shared" ref="AU142" si="342">SUM(AU139:AU141)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV142" s="8" t="e">
-        <f t="shared" ref="AV142" si="337">SUM(AV139:AV141)</f>
+        <f t="shared" ref="AV142" si="343">SUM(AV139:AV141)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW142" s="8" t="e">
-        <f t="shared" ref="AW142" si="338">SUM(AW139:AW141)</f>
+        <f t="shared" ref="AW142" si="344">SUM(AW139:AW141)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AX142" s="8" t="e">
-        <f t="shared" ref="AX142" si="339">SUM(AX139:AX141)</f>
+        <f t="shared" ref="AX142" si="345">SUM(AX139:AX141)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AY142" s="8" t="e">
-        <f t="shared" ref="AY142" si="340">SUM(AY139:AY141)</f>
+        <f t="shared" ref="AY142" si="346">SUM(AY139:AY141)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ142" s="8" t="e">
-        <f t="shared" ref="AZ142" si="341">SUM(AZ139:AZ141)</f>
+        <f t="shared" ref="AZ142" si="347">SUM(AZ139:AZ141)</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/SMCI/SMCI.xlsx
+++ b/SMCI/SMCI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/SMCI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1770" documentId="11_F25DC773A252ABDACC10487F99996F625BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85457CA4-4B1C-45C9-9C89-FFAD206E7FA7}"/>
+  <xr:revisionPtr revIDLastSave="1905" documentId="11_F25DC773A252ABDACC10487F99996F625BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FCC4DCA-B60E-47DD-96F3-11C027006138}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="2020" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="153">
   <si>
     <t>Ticker</t>
   </si>
@@ -577,6 +577,24 @@
   </si>
   <si>
     <t>Full Time Employees</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
+  <si>
+    <t>Should have bought here!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Revenue and earnings growth over 200%, yet it remained at 7-13 P/E</t>
   </si>
 </sst>
 </file>
@@ -641,7 +659,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,8 +678,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -689,11 +713,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -718,6 +775,31 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,10 +815,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,13 +937,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>356.99990000000003</v>
-    <v>50.28</v>
-    <v>1.1327</v>
-    <v>-1.45</v>
-    <v>2.7520000000000001E-3</v>
-    <v>-4.6730000000000001E-3</v>
-    <v>0.85</v>
+    <v>699.77</v>
+    <v>82.33</v>
+    <v>1.1609</v>
+    <v>2.0099999999999998</v>
+    <v>-5.1200000000000004E-3</v>
+    <v>2.9489999999999998E-3</v>
+    <v>-3.5</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>5126</v>
@@ -873,25 +951,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>315.97000000000003</v>
+    <v>699.77</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45210.901030392968</v>
+    <v>45330.041665300778</v>
     <v>0</v>
-    <v>302.56009999999998</v>
-    <v>16340531717</v>
+    <v>660</v>
+    <v>38236024388</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>311.10000000000002</v>
-    <v>27.118200000000002</v>
-    <v>310.31</v>
-    <v>308.86</v>
-    <v>309.70999999999998</v>
-    <v>52905950</v>
+    <v>675</v>
+    <v>53.429099999999998</v>
+    <v>681.59</v>
+    <v>683.6</v>
+    <v>680.1</v>
+    <v>55933330</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>3695317</v>
-    <v>2819332</v>
+    <v>12332979</v>
+    <v>8921976</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1056,9 +1134,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -1464,7 +1542,7 @@
       </c>
       <c r="B2" s="1" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>308.86</v>
+        <v>683.6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1473,7 +1551,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>52.905949999999997</v>
+        <v>55.933329999999998</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1485,7 +1563,7 @@
       </c>
       <c r="B4" s="1">
         <f>B2*B3</f>
-        <v>16340.531717</v>
+        <v>38236.024387999998</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1645,13 +1723,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AZ142"/>
+  <dimension ref="B1:AZ148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J145" sqref="J145"/>
+      <selection pane="bottomRight" activeCell="X132" sqref="X132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1659,11 +1737,15 @@
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
     <col min="10" max="11" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" style="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" style="26" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.453125" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="42" max="45" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1684,7 +1766,7 @@
       <c r="N1" t="s">
         <v>141</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="26" t="s">
         <v>140</v>
       </c>
       <c r="P1" t="s">
@@ -1696,7 +1778,7 @@
       <c r="R1" t="s">
         <v>137</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="26" t="s">
         <v>128</v>
       </c>
       <c r="T1" t="s">
@@ -1707,6 +1789,15 @@
       </c>
       <c r="V1" t="s">
         <v>136</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="X1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>149</v>
       </c>
       <c r="AN1" t="s">
         <v>24</v>
@@ -1733,7 +1824,7 @@
         <f>AP2</f>
         <v>44435</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="27">
         <v>44505</v>
       </c>
       <c r="P2" s="3">
@@ -1746,7 +1837,7 @@
         <f>AQ2</f>
         <v>44802</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="27">
         <v>44869</v>
       </c>
       <c r="T2" s="3">
@@ -1759,6 +1850,12 @@
         <f>AR2</f>
         <v>45166</v>
       </c>
+      <c r="W2" s="27">
+        <v>45233</v>
+      </c>
+      <c r="X2" s="3">
+        <v>45324</v>
+      </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3">
         <v>43818</v>
@@ -1795,7 +1892,7 @@
       <c r="N3" s="3">
         <v>44377</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="27">
         <v>44469</v>
       </c>
       <c r="P3" s="3">
@@ -1807,7 +1904,7 @@
       <c r="R3" s="3">
         <v>44742</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="27">
         <v>44834</v>
       </c>
       <c r="T3" s="3">
@@ -1818,6 +1915,12 @@
       </c>
       <c r="V3" s="3">
         <v>45107</v>
+      </c>
+      <c r="W3" s="27">
+        <v>45199</v>
+      </c>
+      <c r="X3" s="3">
+        <v>45291</v>
       </c>
       <c r="AM3">
         <v>2018</v>
@@ -1859,6 +1962,9 @@
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="O4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="W4" s="28"/>
     </row>
     <row r="5" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
@@ -1876,7 +1982,7 @@
       <c r="N5">
         <v>40.71</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="26">
         <v>39.630000000000003</v>
       </c>
       <c r="P5">
@@ -1888,7 +1994,7 @@
       <c r="R5">
         <v>58.34</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="26">
         <v>74.930000000000007</v>
       </c>
       <c r="T5">
@@ -1899,6 +2005,12 @@
       </c>
       <c r="V5">
         <v>270.18</v>
+      </c>
+      <c r="W5" s="26">
+        <v>357</v>
+      </c>
+      <c r="X5">
+        <v>327.55</v>
       </c>
       <c r="AM5">
         <v>27.9</v>
@@ -1935,7 +2047,7 @@
       <c r="N6">
         <v>33.479999999999997</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="26">
         <v>32.880000000000003</v>
       </c>
       <c r="P6">
@@ -1947,7 +2059,7 @@
       <c r="R6">
         <v>34.11</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="26">
         <v>37.01</v>
       </c>
       <c r="T6">
@@ -1958,6 +2070,12 @@
       </c>
       <c r="V6">
         <v>93.19</v>
+      </c>
+      <c r="W6" s="26">
+        <v>228.26</v>
+      </c>
+      <c r="X6">
+        <v>226.59</v>
       </c>
       <c r="AM6">
         <v>16.100000000000001</v>
@@ -1994,7 +2112,7 @@
       <c r="N7" s="17">
         <v>36.79</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="29">
         <v>36.270000000000003</v>
       </c>
       <c r="P7" s="17">
@@ -2006,7 +2124,7 @@
       <c r="R7" s="17">
         <v>45.7</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="29">
         <v>56.99</v>
       </c>
       <c r="T7" s="17">
@@ -2017,6 +2135,12 @@
       </c>
       <c r="V7" s="17">
         <v>166.17</v>
+      </c>
+      <c r="W7" s="29">
+        <v>278.87</v>
+      </c>
+      <c r="X7" s="17">
+        <v>277.18</v>
       </c>
       <c r="AM7" s="17">
         <v>22.23</v>
@@ -2041,6 +2165,9 @@
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="O12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="W12" s="28"/>
     </row>
     <row r="13" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
@@ -2059,7 +2186,7 @@
         <f>AP13-M13-L13-K13</f>
         <v>836.46200000000022</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="30">
         <v>849.85599999999999</v>
       </c>
       <c r="P13" s="6">
@@ -2072,7 +2199,7 @@
         <f>AQ13-Q13-P13-O13</f>
         <v>1482.0230000000004</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="30">
         <v>1713.056</v>
       </c>
       <c r="T13" s="6">
@@ -2085,6 +2212,12 @@
         <f>AR13-U13-T13-S13</f>
         <v>2032.0900000000001</v>
       </c>
+      <c r="W13" s="30">
+        <v>1966.6079999999999</v>
+      </c>
+      <c r="X13" s="6">
+        <v>3435.5619999999999</v>
+      </c>
       <c r="AN13" s="6">
         <v>2858.7</v>
       </c>
@@ -2118,7 +2251,7 @@
         <f>AP14-M14-L14-K14</f>
         <v>232.50099999999998</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="31">
         <v>182.874</v>
       </c>
       <c r="P14" s="7">
@@ -2131,7 +2264,7 @@
         <f>AQ14-Q14-P14-O14</f>
         <v>153.43800000000002</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="31">
         <v>139.07400000000001</v>
       </c>
       <c r="T14" s="7">
@@ -2144,6 +2277,12 @@
         <f>AR14-U14-T14-S14</f>
         <v>152.78900000000004</v>
       </c>
+      <c r="W14" s="31">
+        <v>153.06399999999999</v>
+      </c>
+      <c r="X14" s="7">
+        <v>229.36199999999999</v>
+      </c>
       <c r="AN14" s="7">
         <v>641.70000000000005</v>
       </c>
@@ -2196,7 +2335,7 @@
         <f t="shared" si="2"/>
         <v>1068.9630000000002</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="30">
         <f t="shared" si="2"/>
         <v>1032.73</v>
       </c>
@@ -2212,7 +2351,7 @@
         <f t="shared" si="2"/>
         <v>1635.4610000000005</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="30">
         <f t="shared" si="2"/>
         <v>1852.13</v>
       </c>
@@ -2228,13 +2367,13 @@
         <f t="shared" si="2"/>
         <v>2184.8790000000004</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2119.672</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" ref="X15" si="3">SUM(X13:X14)</f>
-        <v>0</v>
+        <v>3664.924</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" ref="Y15" si="4">SUM(Y13:Y14)</f>
@@ -2329,6 +2468,9 @@
       <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="O16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="W16" s="32"/>
     </row>
     <row r="17" spans="2:52" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
@@ -2366,7 +2508,7 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="33">
         <f t="shared" si="11"/>
         <v>0.37564342460520433</v>
       </c>
@@ -2382,7 +2524,7 @@
         <f t="shared" si="11"/>
         <v>0.77177564551647293</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="33">
         <f t="shared" si="11"/>
         <v>1.0157014835454479</v>
       </c>
@@ -2398,13 +2540,13 @@
         <f t="shared" si="11"/>
         <v>0.37115955690296282</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="33">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>0.14801150692096457</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" ref="X17:X19" si="12">(X13-T13)/ABS(T13)</f>
-        <v>-1</v>
+        <v>1.0684555830434856</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" ref="Y17:Y19" si="13">(Y13-U13)/ABS(U13)</f>
@@ -2414,13 +2556,13 @@
         <f t="shared" ref="Z17:Z19" si="14">(Z13-V13)/ABS(V13)</f>
         <v>-1</v>
       </c>
-      <c r="AA17" s="11" t="e">
+      <c r="AA17" s="11">
         <f t="shared" ref="AA17:AA19" si="15">(AA13-W13)/ABS(W13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB17" s="11" t="e">
+        <v>-1</v>
+      </c>
+      <c r="AB17" s="11">
         <f t="shared" ref="AB17:AB19" si="16">(AB13-X13)/ABS(X13)</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="AC17" s="11" t="e">
         <f t="shared" ref="AC17:AC19" si="17">(AC13-Y13)/ABS(Y13)</f>
@@ -2531,7 +2673,7 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="33">
         <f t="shared" si="20"/>
         <v>0.26589691406736726</v>
       </c>
@@ -2547,7 +2689,7 @@
         <f t="shared" si="20"/>
         <v>-0.3400544513787036</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="33">
         <f t="shared" si="20"/>
         <v>-0.23950917024836765</v>
       </c>
@@ -2563,13 +2705,13 @@
         <f t="shared" si="20"/>
         <v>-4.2297214510093484E-3</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W18" s="33">
         <f t="shared" si="20"/>
-        <v>-1</v>
+        <v>0.10059392841221206</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="12"/>
-        <v>-1</v>
+        <v>0.61222797053365563</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="13"/>
@@ -2579,13 +2721,13 @@
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="AA18" s="11" t="e">
+      <c r="AA18" s="11">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB18" s="11" t="e">
+        <v>-1</v>
+      </c>
+      <c r="AB18" s="11">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="AC18" s="11" t="e">
         <f t="shared" si="17"/>
@@ -2696,7 +2838,7 @@
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="34">
         <f t="shared" si="22"/>
         <v>0.35484421121679244</v>
       </c>
@@ -2712,7 +2854,7 @@
         <f t="shared" si="22"/>
         <v>0.52995098988458922</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="34">
         <f t="shared" si="22"/>
         <v>0.79343100326319571</v>
       </c>
@@ -2728,13 +2870,13 @@
         <f t="shared" si="22"/>
         <v>0.33594075309652738</v>
       </c>
-      <c r="W19" s="22">
+      <c r="W19" s="34">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>0.14445098346228391</v>
       </c>
       <c r="X19" s="22">
         <f t="shared" si="12"/>
-        <v>-1</v>
+        <v>1.0324612701344</v>
       </c>
       <c r="Y19" s="22">
         <f t="shared" si="13"/>
@@ -2744,13 +2886,13 @@
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="AA19" s="22" t="e">
+      <c r="AA19" s="22">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB19" s="22" t="e">
+        <v>-1</v>
+      </c>
+      <c r="AB19" s="22">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="AC19" s="22" t="e">
         <f t="shared" si="17"/>
@@ -2829,6 +2971,9 @@
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="O20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="W20" s="35"/>
     </row>
     <row r="21" spans="2:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
@@ -2866,7 +3011,7 @@
         <f t="shared" si="24"/>
         <v>0.78249855233530075</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="36">
         <f t="shared" si="24"/>
         <v>0.82292177045307102</v>
       </c>
@@ -2882,7 +3027,7 @@
         <f t="shared" si="24"/>
         <v>0.90618058149965053</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="36">
         <f t="shared" si="24"/>
         <v>0.9249113183199883</v>
       </c>
@@ -2898,13 +3043,13 @@
         <f t="shared" si="24"/>
         <v>0.93006981164631997</v>
       </c>
-      <c r="W21" s="8" t="e">
+      <c r="W21" s="36">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X21" s="8" t="e">
+        <v>0.92778882770541848</v>
+      </c>
+      <c r="X21" s="8">
         <f t="shared" ref="X21:AB21" si="25">X13/X$15</f>
-        <v>#DIV/0!</v>
+        <v>0.93741698327168588</v>
       </c>
       <c r="Y21" s="8" t="e">
         <f t="shared" si="25"/>
@@ -3031,7 +3176,7 @@
         <f t="shared" si="28"/>
         <v>0.21750144766469928</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="37">
         <f t="shared" si="28"/>
         <v>0.17707822954692901</v>
       </c>
@@ -3047,7 +3192,7 @@
         <f t="shared" si="28"/>
         <v>9.381941850034943E-2</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="37">
         <f t="shared" si="28"/>
         <v>7.5088681680011662E-2</v>
       </c>
@@ -3063,13 +3208,13 @@
         <f t="shared" si="28"/>
         <v>6.9930188353680006E-2</v>
       </c>
-      <c r="W22" s="9" t="e">
+      <c r="W22" s="37">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X22" s="9" t="e">
+        <v>7.2211172294581419E-2</v>
+      </c>
+      <c r="X22" s="9">
         <f t="shared" ref="X22:AB22" si="29">X14/X$15</f>
-        <v>#DIV/0!</v>
+        <v>6.258301672831415E-2</v>
       </c>
       <c r="Y22" s="9" t="e">
         <f t="shared" si="29"/>
@@ -3196,7 +3341,7 @@
         <f t="shared" ref="N23" si="39">SUM(N21:N22)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="36">
         <f t="shared" ref="O23" si="40">SUM(O21:O22)</f>
         <v>1</v>
       </c>
@@ -3212,7 +3357,7 @@
         <f t="shared" ref="R23" si="43">SUM(R21:R22)</f>
         <v>1</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="36">
         <f t="shared" ref="S23" si="44">SUM(S21:S22)</f>
         <v>1</v>
       </c>
@@ -3228,13 +3373,13 @@
         <f t="shared" ref="V23" si="47">SUM(V21:V22)</f>
         <v>1</v>
       </c>
-      <c r="W23" s="8" t="e">
+      <c r="W23" s="36">
         <f t="shared" ref="W23" si="48">SUM(W21:W22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X23" s="8" t="e">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="X23" s="8">
         <f t="shared" ref="X23" si="49">SUM(X21:X22)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="8" t="e">
         <f t="shared" ref="Y23" si="50">SUM(Y21:Y22)</f>
@@ -3332,6 +3477,9 @@
       <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="O26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="W26" s="28"/>
     </row>
     <row r="27" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
@@ -3350,7 +3498,7 @@
         <f>AP27-M27-L27-K27</f>
         <v>649.65100000000007</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="30">
         <v>560.94799999999998</v>
       </c>
       <c r="P27" s="6">
@@ -3363,7 +3511,7 @@
         <f>AQ27-Q27-P27-O27</f>
         <v>1073.9270000000001</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="30">
         <v>1295.5039999999999</v>
       </c>
       <c r="T27" s="6">
@@ -3376,6 +3524,12 @@
         <f>AR27-U27-T27-S27</f>
         <v>1661.6570000000006</v>
       </c>
+      <c r="W27" s="30">
+        <v>1619.5139999999999</v>
+      </c>
+      <c r="X27" s="6">
+        <v>2605.585</v>
+      </c>
       <c r="AN27" s="6">
         <v>2032.9</v>
       </c>
@@ -3409,7 +3563,7 @@
         <f>AP28-M28-L28-K28</f>
         <v>174.37400000000002</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="30">
         <v>263.08600000000001</v>
       </c>
       <c r="P28" s="6">
@@ -3422,7 +3576,7 @@
         <f>AQ28-Q28-P28-O28</f>
         <v>282.73500000000013</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="30">
         <v>270.024</v>
       </c>
       <c r="T28" s="6">
@@ -3435,6 +3589,12 @@
         <f>AR28-U28-T28-S28</f>
         <v>235.70199999999988</v>
       </c>
+      <c r="W28" s="30">
+        <v>225.46799999999999</v>
+      </c>
+      <c r="X28" s="6">
+        <v>656.22</v>
+      </c>
       <c r="AN28" s="6">
         <v>712.2</v>
       </c>
@@ -3468,7 +3628,7 @@
         <f>AP29-M29-L29-K29</f>
         <v>185.60700000000003</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="30">
         <v>179.69399999999999</v>
       </c>
       <c r="P29" s="6">
@@ -3481,7 +3641,7 @@
         <f>AQ29-Q29-P29-O29</f>
         <v>224.61100000000008</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="30">
         <v>235.07400000000001</v>
       </c>
       <c r="T29" s="6">
@@ -3494,6 +3654,12 @@
         <f>AR29-U29-T29-S29</f>
         <v>226.96199999999993</v>
       </c>
+      <c r="W29" s="30">
+        <v>190.84800000000001</v>
+      </c>
+      <c r="X29" s="6">
+        <v>288.44799999999998</v>
+      </c>
       <c r="AN29" s="6">
         <v>611</v>
       </c>
@@ -3527,7 +3693,7 @@
         <f>AP30-M30-L30-K30</f>
         <v>29.331</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="31">
         <v>29.001999999999999</v>
       </c>
       <c r="P30" s="7">
@@ -3540,7 +3706,7 @@
         <f>AQ30-Q30-P30-O30</f>
         <v>54.188000000000002</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="31">
         <v>51.527999999999999</v>
       </c>
       <c r="T30" s="7">
@@ -3553,6 +3719,12 @@
         <f>AR30-U30-T30-S30</f>
         <v>60.558000000000014</v>
       </c>
+      <c r="W30" s="31">
+        <v>83.841999999999999</v>
+      </c>
+      <c r="X30" s="7">
+        <v>114.67100000000001</v>
+      </c>
       <c r="AN30" s="7">
         <v>144.30000000000001</v>
       </c>
@@ -3605,7 +3777,7 @@
         <f t="shared" si="57"/>
         <v>1038.963</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="30">
         <f t="shared" si="57"/>
         <v>1032.73</v>
       </c>
@@ -3621,7 +3793,7 @@
         <f t="shared" si="57"/>
         <v>1635.4610000000005</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="30">
         <f t="shared" si="57"/>
         <v>1852.1299999999999</v>
       </c>
@@ -3637,13 +3809,13 @@
         <f t="shared" si="57"/>
         <v>2184.8790000000004</v>
       </c>
-      <c r="W31" s="6">
+      <c r="W31" s="30">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>2119.672</v>
       </c>
       <c r="X31" s="6">
         <f t="shared" ref="X31" si="58">SUM(X27:X30)</f>
-        <v>0</v>
+        <v>3664.924</v>
       </c>
       <c r="Y31" s="6">
         <f t="shared" ref="Y31" si="59">SUM(Y27:Y30)</f>
@@ -3738,6 +3910,9 @@
       <c r="B32" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="O32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="W32" s="35"/>
     </row>
     <row r="33" spans="2:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="8" t="s">
@@ -3775,7 +3950,7 @@
         <f t="shared" si="66"/>
         <v>0.62528790726907513</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="36">
         <f t="shared" si="66"/>
         <v>0.54317004444530514</v>
       </c>
@@ -3791,7 +3966,7 @@
         <f t="shared" si="66"/>
         <v>0.65665093817584141</v>
       </c>
-      <c r="S33" s="8">
+      <c r="S33" s="36">
         <f t="shared" si="66"/>
         <v>0.69946710004157375</v>
       </c>
@@ -3807,13 +3982,13 @@
         <f t="shared" si="66"/>
         <v>0.76052586893828</v>
       </c>
-      <c r="W33" s="8" t="e">
+      <c r="W33" s="36">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X33" s="8" t="e">
+        <v>0.76403990806124711</v>
+      </c>
+      <c r="X33" s="8">
         <f t="shared" ref="X33:AB33" si="67">X27/X$31</f>
-        <v>#DIV/0!</v>
+        <v>0.71095198699891182</v>
       </c>
       <c r="Y33" s="8" t="e">
         <f t="shared" si="67"/>
@@ -3940,7 +4115,7 @@
         <f t="shared" si="70"/>
         <v>0.16783465821208265</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="36">
         <f t="shared" si="70"/>
         <v>0.2547480948553833</v>
       </c>
@@ -3956,7 +4131,7 @@
         <f t="shared" si="70"/>
         <v>0.17287786134918537</v>
       </c>
-      <c r="S34" s="8">
+      <c r="S34" s="36">
         <f t="shared" si="70"/>
         <v>0.14579106218246021</v>
       </c>
@@ -3972,13 +4147,13 @@
         <f t="shared" si="70"/>
         <v>0.10787874294182874</v>
       </c>
-      <c r="W34" s="8" t="e">
+      <c r="W34" s="36">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X34" s="8" t="e">
+        <v>0.10636928732369913</v>
+      </c>
+      <c r="X34" s="8">
         <f t="shared" ref="X34:AB34" si="71">X28/X$31</f>
-        <v>#DIV/0!</v>
+        <v>0.17905419048253116</v>
       </c>
       <c r="Y34" s="8" t="e">
         <f t="shared" si="71"/>
@@ -4105,7 +4280,7 @@
         <f t="shared" si="74"/>
         <v>0.17864640030491946</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="36">
         <f t="shared" si="74"/>
         <v>0.17399901232655193</v>
       </c>
@@ -4121,7 +4296,7 @@
         <f t="shared" si="74"/>
         <v>0.137338034963842</v>
       </c>
-      <c r="S35" s="8">
+      <c r="S35" s="36">
         <f t="shared" si="74"/>
         <v>0.12692089648134852</v>
       </c>
@@ -4137,13 +4312,13 @@
         <f t="shared" si="74"/>
         <v>0.1038785214192639</v>
       </c>
-      <c r="W35" s="8" t="e">
+      <c r="W35" s="36">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X35" s="8" t="e">
+        <v>9.0036571695998255E-2</v>
+      </c>
+      <c r="X35" s="8">
         <f t="shared" ref="X35:AB35" si="75">X29/X$31</f>
-        <v>#DIV/0!</v>
+        <v>7.8705042723941881E-2</v>
       </c>
       <c r="Y35" s="8" t="e">
         <f t="shared" si="75"/>
@@ -4270,7 +4445,7 @@
         <f t="shared" si="78"/>
         <v>2.8231034213922923E-2</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="37">
         <f t="shared" si="78"/>
         <v>2.8082848372759577E-2</v>
       </c>
@@ -4286,7 +4461,7 @@
         <f t="shared" si="78"/>
         <v>3.3133165511131102E-2</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S36" s="37">
         <f t="shared" si="78"/>
         <v>2.7820941294617551E-2</v>
       </c>
@@ -4302,13 +4477,13 @@
         <f t="shared" si="78"/>
         <v>2.7716866700627358E-2</v>
       </c>
-      <c r="W36" s="9" t="e">
+      <c r="W36" s="37">
         <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X36" s="9" t="e">
+        <v>3.9554232919055403E-2</v>
+      </c>
+      <c r="X36" s="9">
         <f t="shared" ref="X36:AB36" si="79">X30/X$31</f>
-        <v>#DIV/0!</v>
+        <v>3.1288779794615112E-2</v>
       </c>
       <c r="Y36" s="9" t="e">
         <f t="shared" si="79"/>
@@ -4435,7 +4610,7 @@
         <f t="shared" si="82"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="36">
         <f t="shared" si="82"/>
         <v>0.99999999999999989</v>
       </c>
@@ -4451,7 +4626,7 @@
         <f t="shared" si="82"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="S37" s="8">
+      <c r="S37" s="36">
         <f t="shared" si="82"/>
         <v>1</v>
       </c>
@@ -4467,13 +4642,13 @@
         <f t="shared" si="82"/>
         <v>1</v>
       </c>
-      <c r="W37" s="8" t="e">
+      <c r="W37" s="36">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X37" s="8" t="e">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="X37" s="8">
         <f t="shared" ref="X37" si="83">SUM(X33:X36)</f>
-        <v>#DIV/0!</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="Y37" s="8" t="e">
         <f t="shared" ref="Y37" si="84">SUM(Y33:Y36)</f>
@@ -4568,6 +4743,9 @@
       <c r="B38" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="O38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="W38" s="28"/>
     </row>
     <row r="39" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
@@ -4586,7 +4764,7 @@
         <f>AP39-M39-L39-K39</f>
         <v>1068.9850000000001</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="30">
         <v>1032.73</v>
       </c>
       <c r="P39" s="6">
@@ -4599,7 +4777,7 @@
         <f>AQ39-Q39-P39-O39</f>
         <v>1635.4600000000005</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39" s="30">
         <v>1852.13</v>
       </c>
       <c r="T39" s="6">
@@ -4612,6 +4790,12 @@
         <f>AR39-U39-T39-S39</f>
         <v>2184.8609999999999</v>
       </c>
+      <c r="W39" s="30">
+        <v>2119.672</v>
+      </c>
+      <c r="X39" s="6">
+        <v>3664.924</v>
+      </c>
       <c r="AN39" s="6">
         <v>3500.36</v>
       </c>
@@ -4645,7 +4829,7 @@
         <f>AP40-M40-L40-K40</f>
         <v>923.47399999999993</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="31">
         <v>894.59100000000001</v>
       </c>
       <c r="P40" s="7">
@@ -4658,7 +4842,7 @@
         <f>AQ40-Q40-P40-O40</f>
         <v>1348.116</v>
       </c>
-      <c r="S40" s="7">
+      <c r="S40" s="31">
         <v>1504.595</v>
       </c>
       <c r="T40" s="7">
@@ -4671,6 +4855,12 @@
         <f>AR40-U40-T40-S40</f>
         <v>1813.1650000000002</v>
       </c>
+      <c r="W40" s="31">
+        <v>1765.981</v>
+      </c>
+      <c r="X40" s="7">
+        <v>3100.6019999999999</v>
+      </c>
       <c r="AN40" s="7">
         <v>3004.8380000000002</v>
       </c>
@@ -4723,7 +4913,7 @@
         <f t="shared" si="91"/>
         <v>145.51100000000019</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="30">
         <f t="shared" si="91"/>
         <v>138.13900000000001</v>
       </c>
@@ -4739,7 +4929,7 @@
         <f t="shared" si="91"/>
         <v>287.34400000000051</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="30">
         <f t="shared" si="91"/>
         <v>347.53500000000008</v>
       </c>
@@ -4755,13 +4945,13 @@
         <f t="shared" si="91"/>
         <v>371.69599999999969</v>
       </c>
-      <c r="W41" s="6">
+      <c r="W41" s="30">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>353.69100000000003</v>
       </c>
       <c r="X41" s="6">
         <f t="shared" ref="X41" si="92">X39-X40</f>
-        <v>0</v>
+        <v>564.32200000000012</v>
       </c>
       <c r="Y41" s="6">
         <f t="shared" ref="Y41" si="93">Y39-Y40</f>
@@ -4888,7 +5078,7 @@
         <f t="shared" si="100"/>
         <v>0.13612071263862466</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42" s="33">
         <f t="shared" si="100"/>
         <v>0.13376100239171904</v>
       </c>
@@ -4904,7 +5094,7 @@
         <f t="shared" si="100"/>
         <v>0.17569613442089713</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S42" s="33">
         <f t="shared" si="100"/>
         <v>0.1876407163644021</v>
       </c>
@@ -4920,13 +5110,13 @@
         <f t="shared" si="100"/>
         <v>0.17012340830835448</v>
       </c>
-      <c r="W42" s="11" t="e">
+      <c r="W42" s="33">
         <f t="shared" si="100"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X42" s="11" t="e">
+        <v>0.16686119361863536</v>
+      </c>
+      <c r="X42" s="11">
         <f t="shared" ref="X42" si="101">X41/X39</f>
-        <v>#DIV/0!</v>
+        <v>0.1539791821058227</v>
       </c>
       <c r="Y42" s="11" t="e">
         <f t="shared" ref="Y42" si="102">Y41/Y39</f>
@@ -5021,6 +5211,9 @@
       <c r="B43" s="10" t="s">
         <v>76</v>
       </c>
+      <c r="O43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="W43" s="32"/>
     </row>
     <row r="44" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
@@ -5039,7 +5232,7 @@
         <f>AP44-M44-L44-K44</f>
         <v>58.929999999999993</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="30">
         <v>65.143000000000001</v>
       </c>
       <c r="P44" s="6">
@@ -5052,7 +5245,7 @@
         <f>AQ44-Q44-P44-O44</f>
         <v>70.79000000000002</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="30">
         <v>74.242999999999995</v>
       </c>
       <c r="T44" s="6">
@@ -5065,6 +5258,12 @@
         <f>AR44-U44-T44-S44</f>
         <v>84.802000000000021</v>
       </c>
+      <c r="W44" s="30">
+        <v>111.027</v>
+      </c>
+      <c r="X44" s="6">
+        <v>108.824</v>
+      </c>
       <c r="AN44" s="6">
         <v>179.90700000000001</v>
       </c>
@@ -5098,7 +5297,7 @@
         <f>AP45-M45-L45-K45</f>
         <v>22.825000000000003</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="30">
         <v>21.623999999999999</v>
       </c>
       <c r="P45" s="6">
@@ -5111,7 +5310,7 @@
         <f>AQ45-Q45-P45-O45</f>
         <v>24.186000000000011</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="30">
         <v>29.363</v>
       </c>
       <c r="T45" s="6">
@@ -5124,6 +5323,12 @@
         <f>AR45-U45-T45-S45</f>
         <v>31.905000000000008</v>
       </c>
+      <c r="W45" s="30">
+        <v>37.229999999999997</v>
+      </c>
+      <c r="X45" s="6">
+        <v>46.853999999999999</v>
+      </c>
       <c r="AN45" s="6">
         <v>77.153999999999996</v>
       </c>
@@ -5157,7 +5362,7 @@
         <f>AP46-M46-L46-K46</f>
         <v>24.675000000000001</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="31">
         <v>22.244</v>
       </c>
       <c r="P46" s="7">
@@ -5170,7 +5375,7 @@
         <f>AQ46-Q46-P46-O46</f>
         <v>27.155000000000001</v>
       </c>
-      <c r="S46" s="7">
+      <c r="S46" s="31">
         <v>23.806000000000001</v>
       </c>
       <c r="T46" s="7">
@@ -5183,6 +5388,12 @@
         <f>AR46-U46-T46-S46</f>
         <v>28.233999999999991</v>
       </c>
+      <c r="W46" s="31">
+        <v>32.923999999999999</v>
+      </c>
+      <c r="X46" s="7">
+        <v>37.18</v>
+      </c>
       <c r="AN46" s="7">
         <v>141.22800000000001</v>
       </c>
@@ -5235,7 +5446,7 @@
         <f t="shared" si="109"/>
         <v>106.42999999999999</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="38">
         <f t="shared" si="109"/>
         <v>109.011</v>
       </c>
@@ -5251,7 +5462,7 @@
         <f t="shared" si="109"/>
         <v>122.13100000000003</v>
       </c>
-      <c r="S47" s="13">
+      <c r="S47" s="38">
         <f t="shared" si="109"/>
         <v>127.41199999999999</v>
       </c>
@@ -5267,13 +5478,13 @@
         <f t="shared" si="109"/>
         <v>144.941</v>
       </c>
-      <c r="W47" s="13">
+      <c r="W47" s="38">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>181.18100000000001</v>
       </c>
       <c r="X47" s="13">
         <f t="shared" ref="X47" si="110">SUM(X44:X46)</f>
-        <v>0</v>
+        <v>192.858</v>
       </c>
       <c r="Y47" s="13">
         <f t="shared" ref="Y47" si="111">SUM(Y44:Y46)</f>
@@ -5400,7 +5611,7 @@
         <f t="shared" si="118"/>
         <v>39.081000000000202</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="30">
         <f t="shared" si="118"/>
         <v>29.128000000000014</v>
       </c>
@@ -5416,7 +5627,7 @@
         <f t="shared" si="118"/>
         <v>165.21300000000048</v>
       </c>
-      <c r="S48" s="6">
+      <c r="S48" s="30">
         <f t="shared" si="118"/>
         <v>220.1230000000001</v>
       </c>
@@ -5432,13 +5643,13 @@
         <f t="shared" si="118"/>
         <v>226.75499999999968</v>
       </c>
-      <c r="W48" s="6">
+      <c r="W48" s="30">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>172.51000000000002</v>
       </c>
       <c r="X48" s="6">
         <f t="shared" ref="X48" si="119">X41-X47</f>
-        <v>0</v>
+        <v>371.46400000000011</v>
       </c>
       <c r="Y48" s="6">
         <f t="shared" ref="Y48" si="120">Y41-Y47</f>
@@ -5565,7 +5776,7 @@
         <f t="shared" si="127"/>
         <v>3.6558978844418021E-2</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O49" s="33">
         <f t="shared" si="127"/>
         <v>2.8204855092812269E-2</v>
       </c>
@@ -5581,7 +5792,7 @@
         <f t="shared" si="127"/>
         <v>0.10101928509410223</v>
       </c>
-      <c r="S49" s="11">
+      <c r="S49" s="33">
         <f t="shared" si="127"/>
         <v>0.11884856894494451</v>
       </c>
@@ -5597,13 +5808,13 @@
         <f t="shared" si="127"/>
         <v>0.10378463435431348</v>
       </c>
-      <c r="W49" s="11" t="e">
+      <c r="W49" s="33">
         <f t="shared" si="127"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X49" s="11" t="e">
+        <v>8.13852331870214E-2</v>
+      </c>
+      <c r="X49" s="11">
         <f t="shared" ref="X49" si="128">X48/X39</f>
-        <v>#DIV/0!</v>
+        <v>0.10135653563348111</v>
       </c>
       <c r="Y49" s="11" t="e">
         <f t="shared" ref="Y49" si="129">Y48/Y39</f>
@@ -5698,6 +5909,9 @@
       <c r="B50" s="10" t="s">
         <v>83</v>
       </c>
+      <c r="O50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="W50" s="32"/>
     </row>
     <row r="51" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
@@ -5716,7 +5930,7 @@
         <f>AP51-M51-L51-K51</f>
         <v>-1.4709999999999999</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51" s="30">
         <v>0.05</v>
       </c>
       <c r="P51" s="6">
@@ -5729,7 +5943,7 @@
         <f>AQ51-Q51-P51-O51</f>
         <v>3.9730000000000008</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="30">
         <v>8.0540000000000003</v>
       </c>
       <c r="T51" s="6">
@@ -5742,6 +5956,12 @@
         <f>AR51-U51-T51-S51</f>
         <v>2.004999999999999</v>
       </c>
+      <c r="W51" s="30">
+        <v>6.6130000000000004</v>
+      </c>
+      <c r="X51" s="6">
+        <v>-7.8860000000000001</v>
+      </c>
       <c r="AN51" s="6">
         <v>-1.02</v>
       </c>
@@ -5775,7 +5995,7 @@
         <f>AP52-M52-L52-K52</f>
         <v>-0.6349999999999999</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="31">
         <v>-0.80400000000000005</v>
       </c>
       <c r="P52" s="7">
@@ -5788,7 +6008,7 @@
         <f>AQ52-Q52-P52-O52</f>
         <v>-2.9280000000000008</v>
       </c>
-      <c r="S52" s="7">
+      <c r="S52" s="31">
         <v>-3.9380000000000002</v>
       </c>
       <c r="T52" s="7">
@@ -5801,6 +6021,12 @@
         <f>AR52-U52-T52-S52</f>
         <v>-3.508999999999999</v>
       </c>
+      <c r="W52" s="31">
+        <v>-1.863</v>
+      </c>
+      <c r="X52" s="7">
+        <v>-8.1310000000000002</v>
+      </c>
       <c r="AN52" s="7">
         <v>-6.69</v>
       </c>
@@ -5853,7 +6079,7 @@
         <f t="shared" si="136"/>
         <v>36.9750000000002</v>
       </c>
-      <c r="O53" s="6">
+      <c r="O53" s="30">
         <f t="shared" si="136"/>
         <v>28.374000000000013</v>
       </c>
@@ -5869,7 +6095,7 @@
         <f t="shared" si="136"/>
         <v>166.25800000000046</v>
       </c>
-      <c r="S53" s="6">
+      <c r="S53" s="30">
         <f t="shared" si="136"/>
         <v>224.23900000000009</v>
       </c>
@@ -5885,13 +6111,13 @@
         <f t="shared" si="136"/>
         <v>225.25099999999969</v>
       </c>
-      <c r="W53" s="6">
+      <c r="W53" s="30">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>177.26000000000002</v>
       </c>
       <c r="X53" s="6">
         <f t="shared" ref="X53" si="137">X48+SUM(X51:X52)</f>
-        <v>0</v>
+        <v>355.44700000000012</v>
       </c>
       <c r="Y53" s="6">
         <f t="shared" ref="Y53" si="138">Y48+SUM(Y51:Y52)</f>
@@ -5999,7 +6225,7 @@
         <f>AP54-M54-L54-K54</f>
         <v>1.6049999999999995</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="30">
         <v>-3.3250000000000002</v>
       </c>
       <c r="P54" s="6">
@@ -6012,7 +6238,7 @@
         <f>AQ54-Q54-P54-O54</f>
         <v>-25.759999999999998</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S54" s="30">
         <v>-38.933999999999997</v>
       </c>
       <c r="T54" s="6">
@@ -6025,6 +6251,12 @@
         <f>AR54-U54-T54-S54</f>
         <v>-31.301999999999992</v>
       </c>
+      <c r="W54" s="30">
+        <v>-20.215</v>
+      </c>
+      <c r="X54" s="6">
+        <v>-61.503</v>
+      </c>
       <c r="AN54" s="6">
         <v>-14.884</v>
       </c>
@@ -6058,7 +6290,7 @@
         <f>AP55-M55-L55-K55</f>
         <v>0.58200000000000007</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="31">
         <v>0.38800000000000001</v>
       </c>
       <c r="P55" s="7">
@@ -6071,7 +6303,7 @@
         <f>AQ55-Q55-P55-O55</f>
         <v>0.32399999999999995</v>
       </c>
-      <c r="S55" s="7">
+      <c r="S55" s="31">
         <v>-0.88900000000000001</v>
       </c>
       <c r="T55" s="7">
@@ -6084,6 +6316,12 @@
         <f>AR55-U55-T55-S55</f>
         <v>-0.38000000000000012</v>
       </c>
+      <c r="W55" s="31">
+        <v>-0.05</v>
+      </c>
+      <c r="X55" s="7">
+        <v>2.024</v>
+      </c>
       <c r="AN55" s="7">
         <v>-2.7210000000000001</v>
       </c>
@@ -6136,7 +6374,7 @@
         <f t="shared" si="145"/>
         <v>39.162000000000198</v>
       </c>
-      <c r="O56" s="21">
+      <c r="O56" s="39">
         <f t="shared" si="145"/>
         <v>25.437000000000015</v>
       </c>
@@ -6152,7 +6390,7 @@
         <f t="shared" si="145"/>
         <v>140.82200000000049</v>
       </c>
-      <c r="S56" s="21">
+      <c r="S56" s="39">
         <f t="shared" si="145"/>
         <v>184.41600000000008</v>
       </c>
@@ -6168,13 +6406,13 @@
         <f t="shared" si="145"/>
         <v>193.5689999999997</v>
       </c>
-      <c r="W56" s="21">
+      <c r="W56" s="39">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>156.995</v>
       </c>
       <c r="X56" s="21">
         <f t="shared" ref="X56" si="146">SUM(X53:X55)</f>
-        <v>0</v>
+        <v>295.96800000000013</v>
       </c>
       <c r="Y56" s="21">
         <f t="shared" ref="Y56" si="147">SUM(Y53:Y55)</f>
@@ -6304,7 +6542,7 @@
         <f t="shared" si="154"/>
         <v>0.77409842399949824</v>
       </c>
-      <c r="O58" s="12">
+      <c r="O58" s="40">
         <f t="shared" si="154"/>
         <v>0.50076777699031449</v>
       </c>
@@ -6320,7 +6558,7 @@
         <f t="shared" si="154"/>
         <v>2.6901588844645414</v>
       </c>
-      <c r="S58" s="12">
+      <c r="S58" s="40">
         <f t="shared" si="154"/>
         <v>3.5061409179056251</v>
       </c>
@@ -6336,13 +6574,13 @@
         <f t="shared" si="154"/>
         <v>3.6587380242905341</v>
       </c>
-      <c r="W58" s="12" t="e">
+      <c r="W58" s="40">
         <f t="shared" si="154"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X58" s="12" t="e">
+        <v>2.9569811462904716</v>
+      </c>
+      <c r="X58" s="12">
         <f t="shared" ref="X58:AB58" si="155">(X56/X60)*1000</f>
-        <v>#DIV/0!</v>
+        <v>5.4672208367968995</v>
       </c>
       <c r="Y58" s="12" t="e">
         <f t="shared" si="155"/>
@@ -6469,7 +6707,7 @@
         <f t="shared" si="158"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O59" s="12">
+      <c r="O59" s="40">
         <f t="shared" si="158"/>
         <v>0.48070526872779529</v>
       </c>
@@ -6485,7 +6723,7 @@
         <f t="shared" si="158"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S59" s="12">
+      <c r="S59" s="40">
         <f t="shared" si="158"/>
         <v>3.3519821146191191</v>
       </c>
@@ -6501,13 +6739,13 @@
         <f t="shared" si="158"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W59" s="12" t="e">
+      <c r="W59" s="40">
         <f t="shared" si="158"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X59" s="12" t="e">
+        <v>2.7453877765148205</v>
+      </c>
+      <c r="X59" s="12">
         <f t="shared" ref="X59:AB59" si="159">(X56/X61)*1000</f>
-        <v>#DIV/0!</v>
+        <v>5.0960432521781067</v>
       </c>
       <c r="Y59" s="12" t="e">
         <f t="shared" si="159"/>
@@ -6614,7 +6852,7 @@
       <c r="N60" s="15">
         <v>50590.466</v>
       </c>
-      <c r="O60" s="15">
+      <c r="O60" s="41">
         <v>50796</v>
       </c>
       <c r="P60" s="15">
@@ -6626,7 +6864,7 @@
       <c r="R60" s="15">
         <v>52347.093999999997</v>
       </c>
-      <c r="S60" s="15">
+      <c r="S60" s="41">
         <v>52598</v>
       </c>
       <c r="T60" s="15">
@@ -6637,6 +6875,12 @@
       </c>
       <c r="V60" s="15">
         <v>52905.947</v>
+      </c>
+      <c r="W60" s="41">
+        <v>53093</v>
+      </c>
+      <c r="X60" s="15">
+        <v>54135</v>
       </c>
       <c r="AN60" s="15">
         <v>49917</v>
@@ -6667,7 +6911,7 @@
       <c r="M61" s="15">
         <v>53218</v>
       </c>
-      <c r="O61" s="15">
+      <c r="O61" s="41">
         <v>52916</v>
       </c>
       <c r="P61" s="15">
@@ -6676,7 +6920,7 @@
       <c r="Q61" s="15">
         <v>53786</v>
       </c>
-      <c r="S61" s="15">
+      <c r="S61" s="41">
         <v>55017</v>
       </c>
       <c r="T61" s="15">
@@ -6684,6 +6928,12 @@
       </c>
       <c r="U61" s="15">
         <v>56233</v>
+      </c>
+      <c r="W61" s="41">
+        <v>57185</v>
+      </c>
+      <c r="X61" s="15">
+        <v>58078</v>
       </c>
       <c r="AN61" s="15">
         <v>51716</v>
@@ -6705,11 +6955,17 @@
       <c r="B63" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="O63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="W63" s="28"/>
     </row>
     <row r="64" spans="2:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="O64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="W64" s="35"/>
     </row>
     <row r="65" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
@@ -6731,7 +6987,7 @@
       <c r="N65" s="6">
         <v>232.26599999999999</v>
       </c>
-      <c r="O65" s="6">
+      <c r="O65" s="30">
         <v>270.04700000000003</v>
       </c>
       <c r="P65" s="6">
@@ -6743,7 +6999,7 @@
       <c r="R65" s="6">
         <v>267.39699999999999</v>
       </c>
-      <c r="S65" s="6">
+      <c r="S65" s="30">
         <v>238.268</v>
       </c>
       <c r="T65" s="6">
@@ -6756,6 +7012,12 @@
         <f>AR65</f>
         <v>440.459</v>
       </c>
+      <c r="W65" s="30">
+        <v>543.15599999999995</v>
+      </c>
+      <c r="X65" s="6">
+        <v>725.66</v>
+      </c>
       <c r="AO65" s="6">
         <v>210.53299999999999</v>
       </c>
@@ -6789,7 +7051,7 @@
       <c r="N66" s="6">
         <v>463.834</v>
       </c>
-      <c r="O66" s="6">
+      <c r="O66" s="30">
         <v>458.07600000000002</v>
       </c>
       <c r="P66" s="6">
@@ -6801,7 +7063,7 @@
       <c r="R66" s="6">
         <v>834.51300000000003</v>
       </c>
-      <c r="S66" s="6">
+      <c r="S66" s="30">
         <v>736.31200000000001</v>
       </c>
       <c r="T66" s="6">
@@ -6814,6 +7076,12 @@
         <f>AR66</f>
         <v>1148.259</v>
       </c>
+      <c r="W66" s="30">
+        <v>845.72900000000004</v>
+      </c>
+      <c r="X66" s="6">
+        <v>1502.971</v>
+      </c>
       <c r="AO66" s="6">
         <v>403.745</v>
       </c>
@@ -6847,7 +7115,7 @@
       <c r="N67" s="6">
         <v>1040.9639999999999</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O67" s="30">
         <v>1184.5730000000001</v>
       </c>
       <c r="P67" s="6">
@@ -6859,7 +7127,7 @@
       <c r="R67" s="6">
         <v>1545.606</v>
       </c>
-      <c r="S67" s="6">
+      <c r="S67" s="30">
         <v>1736.0550000000001</v>
       </c>
       <c r="T67" s="6">
@@ -6872,6 +7140,12 @@
         <f>AR67</f>
         <v>1445.5640000000001</v>
       </c>
+      <c r="W67" s="30">
+        <v>2052.8049999999998</v>
+      </c>
+      <c r="X67" s="6">
+        <v>2466.9969999999998</v>
+      </c>
       <c r="AO67" s="6">
         <v>851.49800000000005</v>
       </c>
@@ -6905,7 +7179,7 @@
       <c r="N68" s="7">
         <v>130.19499999999999</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O68" s="31">
         <v>124.259</v>
       </c>
       <c r="P68" s="7">
@@ -6917,7 +7191,7 @@
       <c r="R68" s="7">
         <v>158.79900000000001</v>
       </c>
-      <c r="S68" s="7">
+      <c r="S68" s="31">
         <v>169.245</v>
       </c>
       <c r="T68" s="7">
@@ -6930,6 +7204,12 @@
         <f>AR68</f>
         <v>145.14400000000001</v>
       </c>
+      <c r="W68" s="31">
+        <v>129.14400000000001</v>
+      </c>
+      <c r="X68" s="7">
+        <v>146.727</v>
+      </c>
       <c r="AO68" s="7">
         <v>126.985</v>
       </c>
@@ -6979,7 +7259,7 @@
         <f t="shared" si="163"/>
         <v>1867.2589999999998</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="30">
         <f t="shared" si="163"/>
         <v>2036.9550000000002</v>
       </c>
@@ -6995,7 +7275,7 @@
         <f t="shared" si="163"/>
         <v>2806.3150000000001</v>
       </c>
-      <c r="S69" s="6">
+      <c r="S69" s="30">
         <f t="shared" si="163"/>
         <v>2879.88</v>
       </c>
@@ -7011,13 +7291,13 @@
         <f t="shared" si="163"/>
         <v>3179.4260000000004</v>
       </c>
-      <c r="W69" s="6">
+      <c r="W69" s="30">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>3570.8339999999998</v>
       </c>
       <c r="X69" s="6">
         <f t="shared" ref="X69" si="164">SUM(X65:X68)</f>
-        <v>0</v>
+        <v>4842.3549999999996</v>
       </c>
       <c r="Y69" s="6">
         <f t="shared" ref="Y69" si="165">SUM(Y65:Y68)</f>
@@ -7112,6 +7392,9 @@
       <c r="B70" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="O70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="W70" s="32"/>
     </row>
     <row r="71" spans="2:52" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="16" t="s">
@@ -7133,7 +7416,7 @@
       <c r="N71" s="16">
         <v>0</v>
       </c>
-      <c r="O71" s="16">
+      <c r="O71" s="42">
         <v>0</v>
       </c>
       <c r="P71" s="16">
@@ -7145,7 +7428,7 @@
       <c r="R71" s="16">
         <v>0</v>
       </c>
-      <c r="S71" s="16">
+      <c r="S71" s="42">
         <v>0</v>
       </c>
       <c r="T71" s="16">
@@ -7156,6 +7439,12 @@
       </c>
       <c r="V71" s="6">
         <f>AR71</f>
+        <v>0</v>
+      </c>
+      <c r="W71" s="42">
+        <v>0</v>
+      </c>
+      <c r="X71" s="16">
         <v>0</v>
       </c>
       <c r="AO71" s="16">
@@ -7191,7 +7480,7 @@
       <c r="N72" s="6">
         <v>274.71300000000002</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O72" s="30">
         <v>284.14800000000002</v>
       </c>
       <c r="P72" s="6">
@@ -7203,7 +7492,7 @@
       <c r="R72" s="6">
         <v>285.97199999999998</v>
       </c>
-      <c r="S72" s="6">
+      <c r="S72" s="30">
         <v>290.75200000000001</v>
       </c>
       <c r="T72" s="6">
@@ -7216,6 +7505,12 @@
         <f>AR72</f>
         <v>290.24</v>
       </c>
+      <c r="W72" s="30">
+        <v>291.66899999999998</v>
+      </c>
+      <c r="X72" s="6">
+        <v>297.10199999999998</v>
+      </c>
       <c r="AO72" s="6">
         <v>233.785</v>
       </c>
@@ -7249,7 +7544,7 @@
       <c r="N73" s="6">
         <v>63.287999999999997</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O73" s="30">
         <v>63.268999999999998</v>
       </c>
       <c r="P73" s="6">
@@ -7261,7 +7556,7 @@
       <c r="R73" s="6">
         <v>69.929000000000002</v>
       </c>
-      <c r="S73" s="6">
+      <c r="S73" s="30">
         <v>89.155000000000001</v>
       </c>
       <c r="T73" s="6">
@@ -7274,6 +7569,12 @@
         <f>AR73</f>
         <v>162.654</v>
       </c>
+      <c r="W73" s="30">
+        <v>185.67500000000001</v>
+      </c>
+      <c r="X73" s="6">
+        <v>218.274</v>
+      </c>
       <c r="AO73" s="6">
         <v>54.898000000000003</v>
       </c>
@@ -7311,7 +7612,7 @@
         <f>32.126+4.578</f>
         <v>36.704000000000001</v>
       </c>
-      <c r="O74" s="7">
+      <c r="O74" s="31">
         <f>37.16+5.161</f>
         <v>42.320999999999998</v>
       </c>
@@ -7326,7 +7627,7 @@
       <c r="R74" s="7">
         <v>42.860999999999997</v>
       </c>
-      <c r="S74" s="7">
+      <c r="S74" s="31">
         <f>37.144+4.352</f>
         <v>41.495999999999995</v>
       </c>
@@ -7341,6 +7642,12 @@
         <f>AR74</f>
         <v>42.408999999999999</v>
       </c>
+      <c r="W74" s="31">
+        <v>47.786000000000001</v>
+      </c>
+      <c r="X74" s="7">
+        <v>47.268999999999998</v>
+      </c>
       <c r="AO74" s="7">
         <v>34.499000000000002</v>
       </c>
@@ -7390,7 +7697,7 @@
         <f t="shared" si="174"/>
         <v>374.70500000000004</v>
       </c>
-      <c r="O75" s="13">
+      <c r="O75" s="38">
         <f t="shared" si="174"/>
         <v>389.73800000000006</v>
       </c>
@@ -7406,7 +7713,7 @@
         <f t="shared" si="174"/>
         <v>398.76199999999994</v>
       </c>
-      <c r="S75" s="13">
+      <c r="S75" s="38">
         <f t="shared" si="174"/>
         <v>421.40300000000002</v>
       </c>
@@ -7422,13 +7729,13 @@
         <f t="shared" si="174"/>
         <v>495.303</v>
       </c>
-      <c r="W75" s="13">
+      <c r="W75" s="38">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>525.13</v>
       </c>
       <c r="X75" s="13">
         <f t="shared" ref="X75" si="175">SUM(X71:X74)</f>
-        <v>0</v>
+        <v>562.64499999999998</v>
       </c>
       <c r="Y75" s="13">
         <f t="shared" ref="Y75" si="176">SUM(Y71:Y74)</f>
@@ -7555,7 +7862,7 @@
         <f t="shared" si="183"/>
         <v>2241.9639999999999</v>
       </c>
-      <c r="O76" s="21">
+      <c r="O76" s="39">
         <f t="shared" si="183"/>
         <v>2426.6930000000002</v>
       </c>
@@ -7571,7 +7878,7 @@
         <f t="shared" si="183"/>
         <v>3205.0770000000002</v>
       </c>
-      <c r="S76" s="21">
+      <c r="S76" s="39">
         <f t="shared" si="183"/>
         <v>3301.2830000000004</v>
       </c>
@@ -7587,13 +7894,13 @@
         <f t="shared" si="183"/>
         <v>3674.7290000000003</v>
       </c>
-      <c r="W76" s="21">
+      <c r="W76" s="39">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>4095.9639999999999</v>
       </c>
       <c r="X76" s="21">
         <f t="shared" ref="X76" si="184">X75+X69</f>
-        <v>0</v>
+        <v>5405</v>
       </c>
       <c r="Y76" s="21">
         <f t="shared" ref="Y76" si="185">Y75+Y69</f>
@@ -7688,6 +7995,9 @@
       <c r="B77" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="O77" s="32"/>
+      <c r="S77" s="32"/>
+      <c r="W77" s="32"/>
     </row>
     <row r="78" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
@@ -7709,7 +8019,7 @@
       <c r="N78" s="6">
         <v>612.33600000000001</v>
       </c>
-      <c r="O78" s="6">
+      <c r="O78" s="30">
         <v>564.62800000000004</v>
       </c>
       <c r="P78" s="6">
@@ -7721,7 +8031,7 @@
       <c r="R78" s="6">
         <v>655.40300000000002</v>
       </c>
-      <c r="S78" s="6">
+      <c r="S78" s="30">
         <v>785.02499999999998</v>
       </c>
       <c r="T78" s="6">
@@ -7734,6 +8044,12 @@
         <f>AR78</f>
         <v>776.83100000000002</v>
       </c>
+      <c r="W78" s="30">
+        <v>1084.058</v>
+      </c>
+      <c r="X78" s="6">
+        <v>1261.5329999999999</v>
+      </c>
       <c r="AO78" s="6">
         <v>417.673</v>
       </c>
@@ -7767,7 +8083,7 @@
       <c r="N79" s="6">
         <v>178.85</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O79" s="30">
         <v>175.221</v>
       </c>
       <c r="P79" s="6">
@@ -7779,7 +8095,7 @@
       <c r="R79" s="6">
         <v>212.41900000000001</v>
       </c>
-      <c r="S79" s="6">
+      <c r="S79" s="30">
         <v>213.52099999999999</v>
       </c>
       <c r="T79" s="6">
@@ -7792,6 +8108,12 @@
         <f>AR79</f>
         <v>163.86500000000001</v>
       </c>
+      <c r="W79" s="30">
+        <v>152.5</v>
+      </c>
+      <c r="X79" s="6">
+        <v>214.46199999999999</v>
+      </c>
       <c r="AO79" s="6">
         <v>155.40100000000001</v>
       </c>
@@ -7825,7 +8147,7 @@
       <c r="N80" s="6">
         <v>12.741</v>
       </c>
-      <c r="O80" s="6">
+      <c r="O80" s="30">
         <v>14.273</v>
       </c>
       <c r="P80" s="6">
@@ -7837,7 +8159,7 @@
       <c r="R80" s="6">
         <v>41.743000000000002</v>
       </c>
-      <c r="S80" s="6">
+      <c r="S80" s="30">
         <v>68.411000000000001</v>
       </c>
       <c r="T80" s="6">
@@ -7850,6 +8172,12 @@
         <f>AR80</f>
         <v>129.166</v>
       </c>
+      <c r="W80" s="30">
+        <v>161.39500000000001</v>
+      </c>
+      <c r="X80" s="6">
+        <v>46.453000000000003</v>
+      </c>
       <c r="AO80" s="6">
         <v>4.7</v>
       </c>
@@ -7883,7 +8211,7 @@
       <c r="N81" s="6">
         <v>63.49</v>
       </c>
-      <c r="O81" s="6">
+      <c r="O81" s="30">
         <v>233.67400000000001</v>
       </c>
       <c r="P81" s="6">
@@ -7895,7 +8223,7 @@
       <c r="R81" s="6">
         <v>449.14600000000002</v>
       </c>
-      <c r="S81" s="6">
+      <c r="S81" s="30">
         <v>101.173</v>
       </c>
       <c r="T81" s="6">
@@ -7908,6 +8236,12 @@
         <f>AR81</f>
         <v>170.12299999999999</v>
       </c>
+      <c r="W81" s="30">
+        <v>40.843000000000004</v>
+      </c>
+      <c r="X81" s="6">
+        <v>276.30700000000002</v>
+      </c>
       <c r="AO81" s="6">
         <v>23.704000000000001</v>
       </c>
@@ -7941,7 +8275,7 @@
       <c r="N82" s="7">
         <v>101.479</v>
       </c>
-      <c r="O82" s="7">
+      <c r="O82" s="31">
         <v>113.68300000000001</v>
       </c>
       <c r="P82" s="7">
@@ -7953,7 +8287,7 @@
       <c r="R82" s="7">
         <v>111.313</v>
       </c>
-      <c r="S82" s="7">
+      <c r="S82" s="31">
         <v>185.22499999999999</v>
       </c>
       <c r="T82" s="7">
@@ -7966,6 +8300,12 @@
         <f>AR82</f>
         <v>134.667</v>
       </c>
+      <c r="W82" s="31">
+        <v>166.02500000000001</v>
+      </c>
+      <c r="X82" s="7">
+        <v>193.334</v>
+      </c>
       <c r="AO82" s="7">
         <v>106.157</v>
       </c>
@@ -8015,7 +8355,7 @@
         <f t="shared" si="195"/>
         <v>968.89600000000007</v>
       </c>
-      <c r="O83" s="6">
+      <c r="O83" s="30">
         <f t="shared" si="195"/>
         <v>1101.479</v>
       </c>
@@ -8031,7 +8371,7 @@
         <f t="shared" si="195"/>
         <v>1470.0240000000001</v>
       </c>
-      <c r="S83" s="6">
+      <c r="S83" s="30">
         <f t="shared" si="195"/>
         <v>1353.3549999999998</v>
       </c>
@@ -8047,13 +8387,13 @@
         <f t="shared" si="195"/>
         <v>1374.652</v>
       </c>
-      <c r="W83" s="6">
+      <c r="W83" s="30">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>1604.8210000000001</v>
       </c>
       <c r="X83" s="6">
         <f t="shared" ref="X83" si="196">SUM(X78:X82)</f>
-        <v>0</v>
+        <v>1992.0889999999999</v>
       </c>
       <c r="Y83" s="6">
         <f t="shared" ref="Y83" si="197">SUM(Y78:Y82)</f>
@@ -8148,6 +8488,9 @@
       <c r="B84" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="O84" s="32"/>
+      <c r="S84" s="32"/>
+      <c r="W84" s="32"/>
     </row>
     <row r="85" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B85" s="6" t="s">
@@ -8169,7 +8512,7 @@
       <c r="N85" s="6">
         <v>100.83799999999999</v>
       </c>
-      <c r="O85" s="6">
+      <c r="O85" s="30">
         <v>101.749</v>
       </c>
       <c r="P85" s="6">
@@ -8181,7 +8524,7 @@
       <c r="R85" s="6">
         <v>122.548</v>
       </c>
-      <c r="S85" s="6">
+      <c r="S85" s="30">
         <v>134.625</v>
       </c>
       <c r="T85" s="6">
@@ -8194,6 +8537,12 @@
         <f>AR85</f>
         <v>169.78100000000001</v>
       </c>
+      <c r="W85" s="30">
+        <v>174.47800000000001</v>
+      </c>
+      <c r="X85" s="6">
+        <v>190.34200000000001</v>
+      </c>
       <c r="AO85" s="6">
         <v>97.611999999999995</v>
       </c>
@@ -8227,7 +8576,7 @@
       <c r="N86" s="6">
         <v>34.700000000000003</v>
       </c>
-      <c r="O86" s="6">
+      <c r="O86" s="30">
         <v>45.134</v>
       </c>
       <c r="P86" s="6">
@@ -8239,7 +8588,7 @@
       <c r="R86" s="6">
         <v>147.61799999999999</v>
       </c>
-      <c r="S86" s="6">
+      <c r="S86" s="30">
         <v>148.55099999999999</v>
       </c>
       <c r="T86" s="6">
@@ -8252,6 +8601,12 @@
         <f>AR86</f>
         <v>120.179</v>
       </c>
+      <c r="W86" s="30">
+        <v>105.389</v>
+      </c>
+      <c r="X86" s="6">
+        <v>99.322000000000003</v>
+      </c>
       <c r="AO86" s="6">
         <v>5.6970000000000001</v>
       </c>
@@ -8285,7 +8640,7 @@
       <c r="N87" s="7">
         <v>41.131999999999998</v>
       </c>
-      <c r="O87" s="7">
+      <c r="O87" s="31">
         <v>45.533000000000001</v>
       </c>
       <c r="P87" s="7">
@@ -8297,7 +8652,7 @@
       <c r="R87" s="7">
         <v>39.14</v>
       </c>
-      <c r="S87" s="7">
+      <c r="S87" s="31">
         <v>39.548999999999999</v>
       </c>
       <c r="T87" s="7">
@@ -8310,6 +8665,12 @@
         <f>AR87</f>
         <v>37.947000000000003</v>
       </c>
+      <c r="W87" s="31">
+        <v>45.737000000000002</v>
+      </c>
+      <c r="X87" s="7">
+        <v>46.173000000000002</v>
+      </c>
       <c r="AO87" s="7">
         <v>41.994999999999997</v>
       </c>
@@ -8359,7 +8720,7 @@
         <f t="shared" ref="N88" si="213">SUM(N85:N87)</f>
         <v>176.67000000000002</v>
       </c>
-      <c r="O88" s="13">
+      <c r="O88" s="38">
         <f t="shared" ref="O88" si="214">SUM(O85:O87)</f>
         <v>192.416</v>
       </c>
@@ -8375,7 +8736,7 @@
         <f t="shared" ref="R88" si="217">SUM(R85:R87)</f>
         <v>309.30599999999998</v>
       </c>
-      <c r="S88" s="13">
+      <c r="S88" s="38">
         <f t="shared" ref="S88" si="218">SUM(S85:S87)</f>
         <v>322.72499999999997</v>
       </c>
@@ -8391,13 +8752,13 @@
         <f t="shared" ref="V88" si="221">SUM(V85:V87)</f>
         <v>327.90700000000004</v>
       </c>
-      <c r="W88" s="13">
+      <c r="W88" s="38">
         <f t="shared" ref="W88" si="222">SUM(W85:W87)</f>
-        <v>0</v>
+        <v>325.60400000000004</v>
       </c>
       <c r="X88" s="13">
         <f t="shared" ref="X88" si="223">SUM(X85:X87)</f>
-        <v>0</v>
+        <v>335.83699999999999</v>
       </c>
       <c r="Y88" s="13">
         <f t="shared" ref="Y88" si="224">SUM(Y85:Y87)</f>
@@ -8524,7 +8885,7 @@
         <f t="shared" ref="N89" si="240">N88+N83</f>
         <v>1145.566</v>
       </c>
-      <c r="O89" s="21">
+      <c r="O89" s="39">
         <f t="shared" ref="O89" si="241">O88+O83</f>
         <v>1293.895</v>
       </c>
@@ -8540,7 +8901,7 @@
         <f t="shared" ref="R89" si="244">R88+R83</f>
         <v>1779.3300000000002</v>
       </c>
-      <c r="S89" s="21">
+      <c r="S89" s="39">
         <f t="shared" ref="S89" si="245">S88+S83</f>
         <v>1676.0799999999997</v>
       </c>
@@ -8556,13 +8917,13 @@
         <f t="shared" ref="V89" si="248">V88+V83</f>
         <v>1702.5590000000002</v>
       </c>
-      <c r="W89" s="21">
+      <c r="W89" s="39">
         <f t="shared" ref="W89" si="249">W88+W83</f>
-        <v>0</v>
+        <v>1930.4250000000002</v>
       </c>
       <c r="X89" s="21">
         <f t="shared" ref="X89" si="250">X88+X83</f>
-        <v>0</v>
+        <v>2327.9259999999999</v>
       </c>
       <c r="Y89" s="21">
         <f t="shared" ref="Y89" si="251">Y88+Y83</f>
@@ -8657,6 +9018,9 @@
       <c r="B90" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="O90" s="32"/>
+      <c r="S90" s="32"/>
+      <c r="W90" s="32"/>
     </row>
     <row r="91" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="6" t="s">
@@ -8678,7 +9042,7 @@
       <c r="N91" s="6">
         <v>438.012</v>
       </c>
-      <c r="O91" s="6">
+      <c r="O91" s="30">
         <v>448.976</v>
       </c>
       <c r="P91" s="6">
@@ -8690,7 +9054,7 @@
       <c r="R91" s="6">
         <v>481.74099999999999</v>
       </c>
-      <c r="S91" s="6">
+      <c r="S91" s="30">
         <v>497.18299999999999</v>
       </c>
       <c r="T91" s="6">
@@ -8703,6 +9067,12 @@
         <f>AR91</f>
         <v>538.35199999999998</v>
       </c>
+      <c r="W91" s="30">
+        <v>574.71799999999996</v>
+      </c>
+      <c r="X91" s="6">
+        <v>1190.2760000000001</v>
+      </c>
       <c r="AO91" s="6">
         <v>389.97199999999998</v>
       </c>
@@ -8736,7 +9106,7 @@
       <c r="N92" s="6">
         <v>0</v>
       </c>
-      <c r="O92" s="6">
+      <c r="O92" s="30">
         <v>0</v>
       </c>
       <c r="P92" s="6">
@@ -8748,7 +9118,7 @@
       <c r="R92" s="6">
         <v>0</v>
       </c>
-      <c r="S92" s="6">
+      <c r="S92" s="30">
         <v>0</v>
       </c>
       <c r="T92" s="6">
@@ -8759,6 +9129,12 @@
       </c>
       <c r="V92" s="6">
         <f>AR92</f>
+        <v>0</v>
+      </c>
+      <c r="W92" s="30">
+        <v>0</v>
+      </c>
+      <c r="X92" s="6">
         <v>0</v>
       </c>
       <c r="AO92" s="6">
@@ -8794,7 +9170,7 @@
       <c r="N93" s="6">
         <v>0.45300000000000001</v>
       </c>
-      <c r="O93" s="6">
+      <c r="O93" s="30">
         <v>0.44900000000000001</v>
       </c>
       <c r="P93" s="6">
@@ -8806,7 +9182,7 @@
       <c r="R93" s="6">
         <v>0.91100000000000003</v>
       </c>
-      <c r="S93" s="6">
+      <c r="S93" s="30">
         <v>0.51400000000000001</v>
       </c>
       <c r="T93" s="6">
@@ -8819,6 +9195,12 @@
         <f>AR93</f>
         <v>0.63900000000000001</v>
       </c>
+      <c r="W93" s="30">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="X93" s="6">
+        <v>0.65700000000000003</v>
+      </c>
       <c r="AO93" s="6">
         <v>-0.152</v>
       </c>
@@ -8852,7 +9234,7 @@
       <c r="N94" s="7">
         <v>657.76</v>
       </c>
-      <c r="O94" s="7">
+      <c r="O94" s="31">
         <v>683.197</v>
       </c>
       <c r="P94" s="7">
@@ -8864,7 +9246,7 @@
       <c r="R94" s="7">
         <v>942.923</v>
       </c>
-      <c r="S94" s="7">
+      <c r="S94" s="31">
         <v>1127.3389999999999</v>
       </c>
       <c r="T94" s="7">
@@ -8877,6 +9259,12 @@
         <f>AR94</f>
         <v>1433.0139999999999</v>
       </c>
+      <c r="W94" s="31">
+        <v>1590.009</v>
+      </c>
+      <c r="X94" s="7">
+        <v>1885.9770000000001</v>
+      </c>
       <c r="AO94" s="7">
         <v>696.21100000000001</v>
       </c>
@@ -8926,7 +9314,7 @@
         <f t="shared" si="260"/>
         <v>1096.2249999999999</v>
       </c>
-      <c r="O95" s="6">
+      <c r="O95" s="30">
         <f t="shared" si="260"/>
         <v>1132.6220000000001</v>
       </c>
@@ -8942,7 +9330,7 @@
         <f t="shared" si="260"/>
         <v>1425.575</v>
       </c>
-      <c r="S95" s="6">
+      <c r="S95" s="30">
         <f t="shared" si="260"/>
         <v>1625.0360000000001</v>
       </c>
@@ -8958,13 +9346,13 @@
         <f t="shared" si="260"/>
         <v>1972.0049999999999</v>
       </c>
-      <c r="W95" s="6">
+      <c r="W95" s="30">
         <f t="shared" si="260"/>
-        <v>0</v>
+        <v>2165.3779999999997</v>
       </c>
       <c r="X95" s="6">
         <f t="shared" ref="X95" si="261">SUM(X91:X94)</f>
-        <v>0</v>
+        <v>3076.91</v>
       </c>
       <c r="Y95" s="6">
         <f t="shared" ref="Y95" si="262">SUM(Y91:Y94)</f>
@@ -9075,7 +9463,7 @@
       <c r="N96" s="7">
         <v>0.17299999999999999</v>
       </c>
-      <c r="O96" s="7">
+      <c r="O96" s="31">
         <v>0.17599999999999999</v>
       </c>
       <c r="P96" s="7">
@@ -9087,7 +9475,7 @@
       <c r="R96" s="7">
         <v>0.17199999999999999</v>
       </c>
-      <c r="S96" s="7">
+      <c r="S96" s="31">
         <v>0.16700000000000001</v>
       </c>
       <c r="T96" s="7">
@@ -9100,6 +9488,12 @@
         <f>AR96</f>
         <v>0.16500000000000001</v>
       </c>
+      <c r="W96" s="31">
+        <v>0.161</v>
+      </c>
+      <c r="X96" s="7">
+        <v>0.16400000000000001</v>
+      </c>
       <c r="AO96" s="7">
         <v>0.16700000000000001</v>
       </c>
@@ -9149,7 +9543,7 @@
         <f t="shared" si="272"/>
         <v>1096.3979999999999</v>
       </c>
-      <c r="O97" s="20">
+      <c r="O97" s="43">
         <f t="shared" si="272"/>
         <v>1132.798</v>
       </c>
@@ -9165,7 +9559,7 @@
         <f t="shared" si="272"/>
         <v>1425.7470000000001</v>
       </c>
-      <c r="S97" s="20">
+      <c r="S97" s="43">
         <f t="shared" si="272"/>
         <v>1625.203</v>
       </c>
@@ -9181,13 +9575,13 @@
         <f t="shared" si="272"/>
         <v>1972.1699999999998</v>
       </c>
-      <c r="W97" s="20">
+      <c r="W97" s="43">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>2165.5389999999998</v>
       </c>
       <c r="X97" s="20">
         <f t="shared" ref="X97" si="273">SUM(X95:X96)</f>
-        <v>0</v>
+        <v>3077.0740000000001</v>
       </c>
       <c r="Y97" s="20">
         <f t="shared" ref="Y97" si="274">SUM(Y95:Y96)</f>
@@ -9314,7 +9708,7 @@
         <f t="shared" si="283"/>
         <v>2241.9639999999999</v>
       </c>
-      <c r="O98" s="21">
+      <c r="O98" s="39">
         <f t="shared" si="283"/>
         <v>2426.6930000000002</v>
       </c>
@@ -9330,7 +9724,7 @@
         <f t="shared" si="283"/>
         <v>3205.0770000000002</v>
       </c>
-      <c r="S98" s="21">
+      <c r="S98" s="39">
         <f t="shared" si="283"/>
         <v>3301.2829999999994</v>
       </c>
@@ -9346,13 +9740,13 @@
         <f t="shared" si="283"/>
         <v>3674.7290000000003</v>
       </c>
-      <c r="W98" s="21">
+      <c r="W98" s="39">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>4095.9639999999999</v>
       </c>
       <c r="X98" s="21">
         <f t="shared" ref="X98" si="284">X97+X89</f>
-        <v>0</v>
+        <v>5405</v>
       </c>
       <c r="Y98" s="21">
         <f t="shared" ref="Y98" si="285">Y97+Y89</f>
@@ -9443,7 +9837,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O99" s="30"/>
+      <c r="S99" s="30"/>
+      <c r="W99" s="30"/>
+    </row>
     <row r="100" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B100" s="6" t="s">
         <v>104</v>
@@ -9480,7 +9878,7 @@
         <f t="shared" si="295"/>
         <v>1.9272027131910954</v>
       </c>
-      <c r="O100" s="6">
+      <c r="O100" s="30">
         <f t="shared" si="295"/>
         <v>1.8492908171649212</v>
       </c>
@@ -9496,7 +9894,7 @@
         <f t="shared" si="295"/>
         <v>1.9090266553471236</v>
       </c>
-      <c r="S100" s="6">
+      <c r="S100" s="30">
         <f t="shared" si="295"/>
         <v>2.1279560795208949</v>
       </c>
@@ -9512,13 +9910,13 @@
         <f t="shared" si="295"/>
         <v>2.3128951909283226</v>
       </c>
-      <c r="W100" s="6" t="e">
+      <c r="W100" s="30">
         <f t="shared" si="295"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X100" s="6" t="e">
+        <v>2.2250668454612694</v>
+      </c>
+      <c r="X100" s="6">
         <f t="shared" si="295"/>
-        <v>#DIV/0!</v>
+        <v>2.4307924997326924</v>
       </c>
       <c r="Y100" s="6" t="e">
         <f t="shared" si="295"/>
@@ -9645,7 +10043,7 @@
         <f t="shared" si="297"/>
         <v>134.07599999999999</v>
       </c>
-      <c r="O101" s="6">
+      <c r="O101" s="30">
         <f t="shared" si="297"/>
         <v>-8.7609999999999673</v>
       </c>
@@ -9661,7 +10059,7 @@
         <f t="shared" si="297"/>
         <v>-329.36700000000002</v>
       </c>
-      <c r="S101" s="6">
+      <c r="S101" s="30">
         <f t="shared" si="297"/>
         <v>-11.455999999999989</v>
       </c>
@@ -9677,13 +10075,13 @@
         <f t="shared" si="297"/>
         <v>150.15699999999998</v>
       </c>
-      <c r="W101" s="6">
+      <c r="W101" s="30">
         <f t="shared" si="297"/>
-        <v>0</v>
+        <v>396.92399999999998</v>
       </c>
       <c r="X101" s="6">
         <f t="shared" si="297"/>
-        <v>0</v>
+        <v>350.03099999999995</v>
       </c>
       <c r="Y101" s="6">
         <f t="shared" si="297"/>
@@ -9787,7 +10185,7 @@
       <c r="N102" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="O102" s="6" t="s">
+      <c r="O102" s="30" t="s">
         <v>127</v>
       </c>
       <c r="P102" s="6" t="s">
@@ -9799,7 +10197,7 @@
       <c r="R102" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="S102" s="6" t="s">
+      <c r="S102" s="30" t="s">
         <v>127</v>
       </c>
       <c r="T102" s="6" t="s">
@@ -9811,11 +10209,15 @@
       <c r="V102" s="6" t="s">
         <v>135</v>
       </c>
+      <c r="W102" s="30"/>
     </row>
     <row r="103" spans="2:52" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="14" t="s">
         <v>94</v>
       </c>
+      <c r="O103" s="44"/>
+      <c r="S103" s="44"/>
+      <c r="W103" s="44"/>
     </row>
     <row r="104" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="6" t="s">
@@ -9834,7 +10236,7 @@
         <f>AP104</f>
         <v>122.955</v>
       </c>
-      <c r="O104" s="6">
+      <c r="O104" s="30">
         <v>-134.571</v>
       </c>
       <c r="P104" s="6">
@@ -9847,7 +10249,7 @@
         <f>AQ104</f>
         <v>-440.80099999999999</v>
       </c>
-      <c r="S104" s="6">
+      <c r="S104" s="30">
         <v>313.58699999999999</v>
       </c>
       <c r="T104" s="6">
@@ -9860,6 +10262,12 @@
         <f>AR104</f>
         <v>663.58</v>
       </c>
+      <c r="W104" s="30">
+        <v>270.46499999999997</v>
+      </c>
+      <c r="X104" s="6">
+        <v>-324.62</v>
+      </c>
       <c r="AN104" s="6">
         <v>262.55399999999997</v>
       </c>
@@ -9893,7 +10301,7 @@
         <f>AP105</f>
         <v>-58.012999999999998</v>
       </c>
-      <c r="O105" s="7">
+      <c r="O105" s="31">
         <v>-10.802</v>
       </c>
       <c r="P105" s="7">
@@ -9906,7 +10314,7 @@
         <f>AQ105</f>
         <v>-45.182000000000002</v>
       </c>
-      <c r="S105" s="7">
+      <c r="S105" s="31">
         <v>-10.746</v>
       </c>
       <c r="T105" s="7">
@@ -9919,6 +10327,12 @@
         <f>AR105</f>
         <v>-36.792999999999999</v>
       </c>
+      <c r="W105" s="31">
+        <v>-2.6309999999999998</v>
+      </c>
+      <c r="X105" s="7">
+        <v>-17.350999999999999</v>
+      </c>
       <c r="AN105" s="7">
         <v>-24.849</v>
       </c>
@@ -9971,7 +10385,7 @@
         <f t="shared" si="299"/>
         <v>64.942000000000007</v>
       </c>
-      <c r="O106" s="6">
+      <c r="O106" s="30">
         <f t="shared" si="299"/>
         <v>-145.37299999999999</v>
       </c>
@@ -9987,7 +10401,7 @@
         <f t="shared" si="299"/>
         <v>-485.983</v>
       </c>
-      <c r="S106" s="6">
+      <c r="S106" s="30">
         <f t="shared" si="299"/>
         <v>302.84100000000001</v>
       </c>
@@ -10003,13 +10417,13 @@
         <f t="shared" si="299"/>
         <v>626.78700000000003</v>
       </c>
-      <c r="W106" s="6">
+      <c r="W106" s="30">
         <f t="shared" si="299"/>
-        <v>0</v>
+        <v>267.834</v>
       </c>
       <c r="X106" s="6">
         <f t="shared" ref="X106" si="300">SUM(X104:X105)</f>
-        <v>0</v>
+        <v>-341.971</v>
       </c>
       <c r="Y106" s="6">
         <f t="shared" ref="Y106" si="301">SUM(Y104:Y105)</f>
@@ -10100,7 +10514,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O107" s="30"/>
+      <c r="S107" s="30"/>
+      <c r="W107" s="30"/>
+    </row>
     <row r="108" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B108" s="6" t="s">
         <v>98</v>
@@ -10118,7 +10536,7 @@
         <f>AP108</f>
         <v>0</v>
       </c>
-      <c r="O108" s="6">
+      <c r="O108" s="30">
         <v>0</v>
       </c>
       <c r="P108" s="6">
@@ -10131,7 +10549,7 @@
         <f>AQ108</f>
         <v>0</v>
       </c>
-      <c r="S108" s="6">
+      <c r="S108" s="30">
         <v>0</v>
       </c>
       <c r="T108" s="6">
@@ -10143,6 +10561,12 @@
       <c r="V108" s="6">
         <f>AR108</f>
         <v>0</v>
+      </c>
+      <c r="W108" s="30">
+        <v>0</v>
+      </c>
+      <c r="X108" s="6">
+        <v>582.80399999999997</v>
       </c>
       <c r="AN108" s="6">
         <v>0</v>
@@ -10177,7 +10601,7 @@
         <f>AP109</f>
         <v>28.548999999999999</v>
       </c>
-      <c r="O109" s="6">
+      <c r="O109" s="30">
         <v>7.0149999999999997</v>
       </c>
       <c r="P109" s="6">
@@ -10190,7 +10614,7 @@
         <f>AQ109</f>
         <v>32.816000000000003</v>
       </c>
-      <c r="S109" s="6">
+      <c r="S109" s="30">
         <v>11.013999999999999</v>
       </c>
       <c r="T109" s="6">
@@ -10203,6 +10627,12 @@
         <f>AR109</f>
         <v>54.433</v>
       </c>
+      <c r="W109" s="30">
+        <v>57.378999999999998</v>
+      </c>
+      <c r="X109" s="6">
+        <v>100.44</v>
+      </c>
       <c r="AN109" s="6">
         <v>21.184000000000001</v>
       </c>
@@ -10236,7 +10666,7 @@
         <f>AP110</f>
         <v>-130</v>
       </c>
-      <c r="O110" s="6">
+      <c r="O110" s="30">
         <v>0</v>
       </c>
       <c r="P110" s="6">
@@ -10249,7 +10679,7 @@
         <f>AQ110</f>
         <v>0</v>
       </c>
-      <c r="S110" s="6">
+      <c r="S110" s="30">
         <v>0</v>
       </c>
       <c r="T110" s="6">
@@ -10262,6 +10692,12 @@
         <f>AR110</f>
         <v>-149.99799999999999</v>
       </c>
+      <c r="W110" s="30">
+        <v>0</v>
+      </c>
+      <c r="X110" s="6">
+        <v>0</v>
+      </c>
       <c r="AN110" s="6">
         <v>0</v>
       </c>
@@ -10295,7 +10731,7 @@
         <f>AP111</f>
         <v>0</v>
       </c>
-      <c r="O111" s="6">
+      <c r="O111" s="30">
         <v>0</v>
       </c>
       <c r="P111" s="6">
@@ -10308,7 +10744,7 @@
         <f>AQ111</f>
         <v>0</v>
       </c>
-      <c r="S111" s="6">
+      <c r="S111" s="30">
         <v>0</v>
       </c>
       <c r="T111" s="6">
@@ -10319,6 +10755,12 @@
       </c>
       <c r="V111" s="6">
         <f>AR111</f>
+        <v>0</v>
+      </c>
+      <c r="W111" s="30">
+        <v>0</v>
+      </c>
+      <c r="X111" s="6">
         <v>0</v>
       </c>
       <c r="AN111" s="6">
@@ -10341,6 +10783,9 @@
       <c r="B113" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="O113" s="35"/>
+      <c r="S113" s="35"/>
+      <c r="W113" s="35"/>
     </row>
     <row r="114" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B114" s="6" t="s">
@@ -10362,7 +10807,7 @@
         <f>N104-M114-L114-K114</f>
         <v>63.563000000000017</v>
       </c>
-      <c r="O114" s="6">
+      <c r="O114" s="30">
         <f>O104</f>
         <v>-134.571</v>
       </c>
@@ -10378,7 +10823,7 @@
         <f>R104-Q114-P114-O114</f>
         <v>-25.142999999999972</v>
       </c>
-      <c r="S114" s="6">
+      <c r="S114" s="30">
         <f>S104</f>
         <v>313.58699999999999</v>
       </c>
@@ -10415,7 +10860,7 @@
         <f>N105-M115-L115-K115</f>
         <v>-13.385999999999994</v>
       </c>
-      <c r="O115" s="7">
+      <c r="O115" s="31">
         <f>O105</f>
         <v>-10.802</v>
       </c>
@@ -10431,7 +10876,7 @@
         <f>R105-Q115-P115-O115</f>
         <v>-11.025000000000009</v>
       </c>
-      <c r="S115" s="7">
+      <c r="S115" s="31">
         <f>S105</f>
         <v>-10.746</v>
       </c>
@@ -10447,6 +10892,7 @@
         <f>V105-U115-T115-S115</f>
         <v>-8.175000000000006</v>
       </c>
+      <c r="W115" s="45"/>
     </row>
     <row r="116" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B116" s="6" t="s">
@@ -10468,7 +10914,7 @@
         <f t="shared" si="309"/>
         <v>50.177000000000021</v>
       </c>
-      <c r="O116" s="6">
+      <c r="O116" s="30">
         <f>SUM(O114:O115)</f>
         <v>-145.37299999999999</v>
       </c>
@@ -10484,7 +10930,7 @@
         <f t="shared" ref="R116" si="312">SUM(R114:R115)</f>
         <v>-36.167999999999978</v>
       </c>
-      <c r="S116" s="6">
+      <c r="S116" s="30">
         <f>SUM(S114:S115)</f>
         <v>302.84100000000001</v>
       </c>
@@ -10500,7 +10946,7 @@
         <f t="shared" ref="V116" si="315">SUM(V114:V115)</f>
         <v>-17.513999999999946</v>
       </c>
-      <c r="W116" s="6">
+      <c r="W116" s="30">
         <f t="shared" si="309"/>
         <v>0</v>
       </c>
@@ -10556,7 +11002,7 @@
         <f>N108-M118-L118-K118</f>
         <v>0</v>
       </c>
-      <c r="O118" s="6">
+      <c r="O118" s="30">
         <f>O108</f>
         <v>0</v>
       </c>
@@ -10572,7 +11018,7 @@
         <f>R108-Q118-P118-O118</f>
         <v>0</v>
       </c>
-      <c r="S118" s="6">
+      <c r="S118" s="30">
         <f>S108</f>
         <v>0</v>
       </c>
@@ -10609,7 +11055,7 @@
         <f>N109-M119-L119-K119</f>
         <v>7.4320000000000004</v>
       </c>
-      <c r="O119" s="6">
+      <c r="O119" s="30">
         <f>O109</f>
         <v>7.0149999999999997</v>
       </c>
@@ -10625,7 +11071,7 @@
         <f>R109-Q119-P119-O119</f>
         <v>8.8840000000000039</v>
       </c>
-      <c r="S119" s="6">
+      <c r="S119" s="30">
         <f>S109</f>
         <v>11.013999999999999</v>
       </c>
@@ -10662,7 +11108,7 @@
         <f>N110-M120-L120-K120</f>
         <v>-12.032</v>
       </c>
-      <c r="O120" s="6">
+      <c r="O120" s="30">
         <f>O110</f>
         <v>0</v>
       </c>
@@ -10678,7 +11124,7 @@
         <f>R110-Q120-P120-O120</f>
         <v>0</v>
       </c>
-      <c r="S120" s="6">
+      <c r="S120" s="30">
         <f>S110</f>
         <v>0</v>
       </c>
@@ -10715,7 +11161,7 @@
         <f>N111-M121-L121-K121</f>
         <v>0</v>
       </c>
-      <c r="O121" s="6">
+      <c r="O121" s="30">
         <f>O111</f>
         <v>0</v>
       </c>
@@ -10731,7 +11177,7 @@
         <f>R111-Q121-P121-O121</f>
         <v>0</v>
       </c>
-      <c r="S121" s="6">
+      <c r="S121" s="30">
         <f>S111</f>
         <v>0</v>
       </c>
@@ -10757,6 +11203,9 @@
       <c r="B126" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="O126" s="28"/>
+      <c r="S126" s="28"/>
+      <c r="W126" s="28"/>
     </row>
     <row r="127" spans="2:44" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="23" t="s">
@@ -10766,7 +11215,7 @@
         <f t="shared" ref="N127:AD127" si="316">N7*N128</f>
         <v>1861.2232441399999</v>
       </c>
-      <c r="O127" s="23">
+      <c r="O127" s="46">
         <f t="shared" si="316"/>
         <v>1842.3709200000001</v>
       </c>
@@ -10782,7 +11231,7 @@
         <f t="shared" si="316"/>
         <v>2392.2621958</v>
       </c>
-      <c r="S127" s="23">
+      <c r="S127" s="46">
         <f t="shared" si="316"/>
         <v>2997.5600199999999</v>
       </c>
@@ -10798,13 +11247,13 @@
         <f t="shared" si="316"/>
         <v>8791.3812129899998</v>
       </c>
-      <c r="W127" s="23">
+      <c r="W127" s="46">
         <f t="shared" si="316"/>
-        <v>0</v>
+        <v>14806.044910000001</v>
       </c>
       <c r="X127" s="23">
         <f t="shared" si="316"/>
-        <v>0</v>
+        <v>15005.139299999999</v>
       </c>
       <c r="Y127" s="23">
         <f t="shared" si="316"/>
@@ -10866,7 +11315,7 @@
         <f t="shared" ref="N128:AD128" si="318">N60/1000</f>
         <v>50.590465999999999</v>
       </c>
-      <c r="O128" s="18">
+      <c r="O128" s="47">
         <f t="shared" si="318"/>
         <v>50.795999999999999</v>
       </c>
@@ -10882,7 +11331,7 @@
         <f t="shared" si="318"/>
         <v>52.347093999999998</v>
       </c>
-      <c r="S128" s="18">
+      <c r="S128" s="47">
         <f t="shared" si="318"/>
         <v>52.597999999999999</v>
       </c>
@@ -10898,13 +11347,13 @@
         <f t="shared" si="318"/>
         <v>52.905946999999998</v>
       </c>
-      <c r="W128" s="18">
+      <c r="W128" s="47">
         <f t="shared" si="318"/>
-        <v>0</v>
+        <v>53.093000000000004</v>
       </c>
       <c r="X128" s="18">
         <f t="shared" si="318"/>
-        <v>0</v>
+        <v>54.134999999999998</v>
       </c>
       <c r="Y128" s="18">
         <f t="shared" si="318"/>
@@ -10951,7 +11400,7 @@
         <v>52.905946999999998</v>
       </c>
     </row>
-    <row r="129" spans="2:52" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B129" s="12" t="s">
         <v>107</v>
       </c>
@@ -10959,7 +11408,7 @@
         <f>N127/SUM(K39:N39)</f>
         <v>0.52319439305766924</v>
       </c>
-      <c r="O129" s="12">
+      <c r="O129" s="40">
         <f t="shared" ref="O129:AD129" si="320">O127/SUM(L39:O39)</f>
         <v>0.48130044081588297</v>
       </c>
@@ -10975,7 +11424,7 @@
         <f t="shared" si="320"/>
         <v>0.46039580766263305</v>
       </c>
-      <c r="S129" s="12">
+      <c r="S129" s="40">
         <f t="shared" si="320"/>
         <v>0.49830612888473585</v>
       </c>
@@ -10991,25 +11440,25 @@
         <f t="shared" si="320"/>
         <v>1.2341410019692616</v>
       </c>
-      <c r="W129" s="12">
+      <c r="W129" s="40">
         <f t="shared" si="320"/>
-        <v>0</v>
+        <v>2.0032467639125513</v>
       </c>
       <c r="X129" s="12">
         <f t="shared" si="320"/>
-        <v>0</v>
+        <v>1.6216945702538474</v>
       </c>
       <c r="Y129" s="12">
         <f t="shared" si="320"/>
         <v>0</v>
       </c>
-      <c r="Z129" s="12" t="e">
+      <c r="Z129" s="12">
         <f t="shared" si="320"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA129" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="12">
         <f t="shared" si="320"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AB129" s="12" t="e">
         <f t="shared" si="320"/>
@@ -11044,7 +11493,7 @@
         <v>0.71811454221825777</v>
       </c>
     </row>
-    <row r="130" spans="2:52" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B130" s="12" t="s">
         <v>108</v>
       </c>
@@ -11052,7 +11501,7 @@
         <f t="shared" ref="N130:AD130" si="322">N127/SUM(K56:N56)</f>
         <v>16.638119556072031</v>
       </c>
-      <c r="O130" s="12">
+      <c r="O130" s="40">
         <f t="shared" si="322"/>
         <v>16.642766732007814</v>
       </c>
@@ -11068,7 +11517,7 @@
         <f t="shared" si="322"/>
         <v>8.3891044623601054</v>
       </c>
-      <c r="S130" s="12">
+      <c r="S130" s="40">
         <f t="shared" si="322"/>
         <v>6.7491028094618271</v>
       </c>
@@ -11084,25 +11533,25 @@
         <f t="shared" si="322"/>
         <v>13.736576072097101</v>
       </c>
-      <c r="W130" s="12">
+      <c r="W130" s="40">
         <f t="shared" si="322"/>
-        <v>0</v>
+        <v>24.170096020581909</v>
       </c>
       <c r="X130" s="12">
         <f t="shared" si="322"/>
-        <v>0</v>
+        <v>20.488244185379681</v>
       </c>
       <c r="Y130" s="12">
         <f t="shared" si="322"/>
         <v>0</v>
       </c>
-      <c r="Z130" s="12" t="e">
+      <c r="Z130" s="12">
         <f t="shared" si="322"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA130" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="12">
         <f t="shared" si="322"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AB130" s="12" t="e">
         <f t="shared" si="322"/>
@@ -11137,7 +11586,7 @@
         <v>7.9929562520976667</v>
       </c>
     </row>
-    <row r="131" spans="2:52" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B131" s="12" t="s">
         <v>109</v>
       </c>
@@ -11145,7 +11594,7 @@
         <f t="shared" ref="N131:AD131" si="324">N127/N97</f>
         <v>1.6975799336919624</v>
       </c>
-      <c r="O131" s="12">
+      <c r="O131" s="40">
         <f t="shared" si="324"/>
         <v>1.6263896299251941</v>
       </c>
@@ -11161,7 +11610,7 @@
         <f t="shared" si="324"/>
         <v>1.6779009149589652</v>
       </c>
-      <c r="S131" s="12">
+      <c r="S131" s="40">
         <f t="shared" si="324"/>
         <v>1.8444219091399658</v>
       </c>
@@ -11177,13 +11626,13 @@
         <f t="shared" si="324"/>
         <v>4.4577197771946642</v>
       </c>
-      <c r="W131" s="12" t="e">
+      <c r="W131" s="40">
         <f t="shared" si="324"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X131" s="12" t="e">
+        <v>6.8371176459994496</v>
+      </c>
+      <c r="X131" s="12">
         <f t="shared" si="324"/>
-        <v>#DIV/0!</v>
+        <v>4.8764310835553513</v>
       </c>
       <c r="Y131" s="12" t="e">
         <f t="shared" si="324"/>
@@ -11230,7 +11679,7 @@
         <v>2.5938311684236144</v>
       </c>
     </row>
-    <row r="132" spans="2:52" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="12" t="s">
         <v>110</v>
       </c>
@@ -11238,7 +11687,7 @@
         <f t="shared" ref="N132:AD132" si="326">N127/SUM(K116:N116)</f>
         <v>28.659777095562177</v>
       </c>
-      <c r="O132" s="12">
+      <c r="O132" s="40">
         <f t="shared" si="326"/>
         <v>-9.7410364025695948</v>
       </c>
@@ -11254,7 +11703,7 @@
         <f t="shared" si="326"/>
         <v>-4.9225223841163173</v>
       </c>
-      <c r="S132" s="12">
+      <c r="S132" s="40">
         <f t="shared" si="326"/>
         <v>-79.365617834732177</v>
       </c>
@@ -11270,13 +11719,13 @@
         <f t="shared" si="326"/>
         <v>14.026106497087524</v>
       </c>
-      <c r="W132" s="12">
+      <c r="W132" s="40">
         <f t="shared" si="326"/>
-        <v>0</v>
+        <v>45.705287023145821</v>
       </c>
       <c r="X132" s="12">
         <f t="shared" si="326"/>
-        <v>0</v>
+        <v>86.863447066178821</v>
       </c>
       <c r="Y132" s="12">
         <f t="shared" si="326"/>
@@ -11323,561 +11772,823 @@
         <v>8.1614264741132132</v>
       </c>
     </row>
-    <row r="137" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="2" t="s">
+    <row r="133" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O133" s="40"/>
+      <c r="S133" s="40"/>
+      <c r="W133" s="40"/>
+    </row>
+    <row r="134" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O134" s="40"/>
+      <c r="S134" s="40"/>
+      <c r="W134" s="40"/>
+    </row>
+    <row r="135" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N135" s="8" t="e">
+        <f>(N39-J39)/ABS(J39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O135" s="36">
+        <f t="shared" ref="O135:AD135" si="328">(O39-K39)/ABS(K39)</f>
+        <v>0.35484421121679244</v>
+      </c>
+      <c r="P135" s="8">
+        <f t="shared" si="328"/>
+        <v>0.4120324314168512</v>
+      </c>
+      <c r="Q135" s="8">
+        <f t="shared" si="328"/>
+        <v>0.51302460929520777</v>
+      </c>
+      <c r="R135" s="8">
+        <f t="shared" si="328"/>
+        <v>0.52991856761320344</v>
+      </c>
+      <c r="S135" s="36">
+        <f t="shared" si="328"/>
+        <v>0.79343100326319571</v>
+      </c>
+      <c r="T135" s="8">
+        <f t="shared" si="328"/>
+        <v>0.53801243412124833</v>
+      </c>
+      <c r="U135" s="8">
+        <f t="shared" si="328"/>
+        <v>-5.3260444562482911E-2</v>
+      </c>
+      <c r="V135" s="8">
+        <f t="shared" si="328"/>
+        <v>0.3359305638780522</v>
+      </c>
+      <c r="W135" s="36">
+        <f t="shared" si="328"/>
+        <v>0.14445098346228391</v>
+      </c>
+      <c r="X135" s="8">
+        <f t="shared" si="328"/>
+        <v>1.0324612701344005</v>
+      </c>
+      <c r="Y135" s="8">
+        <f t="shared" si="328"/>
+        <v>-1</v>
+      </c>
+      <c r="Z135" s="8">
+        <f t="shared" si="328"/>
+        <v>-1</v>
+      </c>
+      <c r="AA135" s="8">
+        <f t="shared" si="328"/>
+        <v>-1</v>
+      </c>
+      <c r="AB135" s="8">
+        <f t="shared" si="328"/>
+        <v>-1</v>
+      </c>
+      <c r="AC135" s="8" t="e">
+        <f t="shared" si="328"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD135" s="8" t="e">
+        <f t="shared" si="328"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="N136" s="8" t="e">
+        <f>(N56-J56)/ABS(J56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O136" s="36">
+        <f t="shared" ref="O136:AD136" si="329">(O56-K56)/ABS(K56)</f>
+        <v>-4.3757753467912594E-2</v>
+      </c>
+      <c r="P136" s="8">
+        <f t="shared" si="329"/>
+        <v>0.51521283515212757</v>
+      </c>
+      <c r="Q136" s="8">
+        <f t="shared" si="329"/>
+        <v>3.1769047102235919</v>
+      </c>
+      <c r="R136" s="8">
+        <f t="shared" si="329"/>
+        <v>2.5958837648741069</v>
+      </c>
+      <c r="S136" s="36">
+        <f t="shared" si="329"/>
+        <v>6.2499115461728971</v>
+      </c>
+      <c r="T136" s="8">
+        <f t="shared" si="329"/>
+        <v>3.2012544119049853</v>
+      </c>
+      <c r="U136" s="8">
+        <f t="shared" si="329"/>
+        <v>0.11528867640180898</v>
+      </c>
+      <c r="V136" s="8">
+        <f t="shared" si="329"/>
+        <v>0.37456505375579835</v>
+      </c>
+      <c r="W136" s="36">
+        <f t="shared" si="329"/>
+        <v>-0.14869100294985285</v>
+      </c>
+      <c r="X136" s="8">
+        <f t="shared" si="329"/>
+        <v>0.68004223265424357</v>
+      </c>
+      <c r="Y136" s="8">
+        <f t="shared" si="329"/>
+        <v>-1</v>
+      </c>
+      <c r="Z136" s="8">
+        <f t="shared" si="329"/>
+        <v>-1</v>
+      </c>
+      <c r="AA136" s="8">
+        <f t="shared" si="329"/>
+        <v>-1</v>
+      </c>
+      <c r="AB136" s="8">
+        <f t="shared" si="329"/>
+        <v>-1</v>
+      </c>
+      <c r="AC136" s="8" t="e">
+        <f t="shared" si="329"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD136" s="8" t="e">
+        <f t="shared" si="329"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N137" s="8" t="e">
+        <f>(N106-J106)/ABS(J106)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O137" s="36">
+        <f t="shared" ref="O137:AD137" si="330">(O106-K106)/ABS(K106)</f>
+        <v>-2.3373288931410068</v>
+      </c>
+      <c r="P137" s="8">
+        <f t="shared" si="330"/>
+        <v>-2.3328699344711881</v>
+      </c>
+      <c r="Q137" s="8">
+        <f t="shared" si="330"/>
+        <v>-31.46495089739248</v>
+      </c>
+      <c r="R137" s="8">
+        <f t="shared" si="330"/>
+        <v>-8.4833389793969989</v>
+      </c>
+      <c r="S137" s="36">
+        <f t="shared" si="330"/>
+        <v>3.0831997688704234</v>
+      </c>
+      <c r="T137" s="8">
+        <f t="shared" si="330"/>
+        <v>3.1525970947432298</v>
+      </c>
+      <c r="U137" s="8">
+        <f t="shared" si="330"/>
+        <v>2.432368862754688</v>
+      </c>
+      <c r="V137" s="8">
+        <f t="shared" si="330"/>
+        <v>2.2897302992079971</v>
+      </c>
+      <c r="W137" s="36">
+        <f t="shared" si="330"/>
+        <v>-0.11559531239165108</v>
+      </c>
+      <c r="X137" s="8">
+        <f t="shared" si="330"/>
+        <v>-1.7531687527392781</v>
+      </c>
+      <c r="Y137" s="8">
+        <f t="shared" si="330"/>
+        <v>-1</v>
+      </c>
+      <c r="Z137" s="8">
+        <f t="shared" si="330"/>
+        <v>-1</v>
+      </c>
+      <c r="AA137" s="8">
+        <f t="shared" si="330"/>
+        <v>-1</v>
+      </c>
+      <c r="AB137" s="8">
+        <f t="shared" si="330"/>
+        <v>1</v>
+      </c>
+      <c r="AC137" s="8" t="e">
+        <f t="shared" si="330"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD137" s="8" t="e">
+        <f t="shared" si="330"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O138" s="40"/>
+      <c r="S138" s="40"/>
+      <c r="W138" s="40"/>
+    </row>
+    <row r="139" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="S139" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="T139" s="25"/>
+      <c r="U139" s="25"/>
+    </row>
+    <row r="140" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="S140" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="T140" s="25"/>
+      <c r="U140" s="25"/>
+    </row>
+    <row r="141" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="S141" s="48"/>
+      <c r="T141" s="25"/>
+      <c r="U141" s="25"/>
+    </row>
+    <row r="143" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="138" spans="2:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="5" t="s">
+      <c r="O143" s="28"/>
+      <c r="S143" s="28"/>
+      <c r="W143" s="28"/>
+    </row>
+    <row r="144" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="139" spans="2:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="8" t="s">
+      <c r="O144" s="35"/>
+      <c r="S144" s="35"/>
+      <c r="W144" s="35"/>
+    </row>
+    <row r="145" spans="2:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K139" s="8">
+      <c r="K145" s="8">
         <f>K44/K47</f>
         <v>0.55090530718113173</v>
       </c>
-      <c r="L139" s="8">
-        <f t="shared" ref="L139:AD139" si="328">L44/L47</f>
+      <c r="L145" s="8">
+        <f t="shared" ref="L145:AD145" si="331">L44/L47</f>
         <v>0.53407272358958779</v>
       </c>
-      <c r="M139" s="8">
-        <f t="shared" si="328"/>
+      <c r="M145" s="8">
+        <f t="shared" si="331"/>
         <v>0.54653555048036084</v>
       </c>
-      <c r="N139" s="8">
-        <f t="shared" si="328"/>
+      <c r="N145" s="8">
+        <f t="shared" si="331"/>
         <v>0.55369726580851264</v>
       </c>
-      <c r="O139" s="8">
-        <f t="shared" si="328"/>
+      <c r="O145" s="36">
+        <f t="shared" si="331"/>
         <v>0.59758189540505091</v>
       </c>
-      <c r="P139" s="8">
-        <f t="shared" si="328"/>
+      <c r="P145" s="8">
+        <f t="shared" si="331"/>
         <v>0.5809626067048822</v>
       </c>
-      <c r="Q139" s="8">
-        <f t="shared" si="328"/>
+      <c r="Q145" s="8">
+        <f t="shared" si="331"/>
         <v>0.58570389593216421</v>
       </c>
-      <c r="R139" s="8">
-        <f t="shared" si="328"/>
+      <c r="R145" s="8">
+        <f t="shared" si="331"/>
         <v>0.57962351900827802</v>
       </c>
-      <c r="S139" s="8">
-        <f t="shared" si="328"/>
+      <c r="S145" s="36">
+        <f t="shared" si="331"/>
         <v>0.58270021662009852</v>
       </c>
-      <c r="T139" s="8">
-        <f t="shared" si="328"/>
+      <c r="T145" s="8">
+        <f t="shared" si="331"/>
         <v>0.57837041884816753</v>
       </c>
-      <c r="U139" s="8">
-        <f t="shared" si="328"/>
+      <c r="U145" s="8">
+        <f t="shared" si="331"/>
         <v>0.6090259826991522</v>
       </c>
-      <c r="V139" s="8">
-        <f t="shared" si="328"/>
+      <c r="V145" s="8">
+        <f t="shared" si="331"/>
         <v>0.58507944611945562</v>
       </c>
-      <c r="W139" s="8" t="e">
-        <f t="shared" si="328"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X139" s="8" t="e">
-        <f t="shared" si="328"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y139" s="8" t="e">
-        <f t="shared" si="328"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z139" s="8" t="e">
-        <f t="shared" si="328"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA139" s="8" t="e">
-        <f t="shared" si="328"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB139" s="8" t="e">
-        <f t="shared" si="328"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC139" s="8" t="e">
-        <f t="shared" si="328"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD139" s="8" t="e">
-        <f t="shared" si="328"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN139" s="8">
-        <f t="shared" ref="AN139:AZ139" si="329">AN44/AN47</f>
+      <c r="W145" s="36">
+        <f t="shared" si="331"/>
+        <v>0.61279604373527019</v>
+      </c>
+      <c r="X145" s="8">
+        <f t="shared" si="331"/>
+        <v>0.56427008472554929</v>
+      </c>
+      <c r="Y145" s="8" t="e">
+        <f t="shared" si="331"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z145" s="8" t="e">
+        <f t="shared" si="331"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA145" s="8" t="e">
+        <f t="shared" si="331"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB145" s="8" t="e">
+        <f t="shared" si="331"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC145" s="8" t="e">
+        <f t="shared" si="331"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD145" s="8" t="e">
+        <f t="shared" si="331"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN145" s="8">
+        <f t="shared" ref="AN145:AZ145" si="332">AN44/AN47</f>
         <v>0.45169964523248191</v>
       </c>
-      <c r="AO139" s="8">
-        <f t="shared" si="329"/>
+      <c r="AO145" s="8">
+        <f t="shared" si="332"/>
         <v>0.50272383079563099</v>
       </c>
-      <c r="AP139" s="8">
-        <f t="shared" si="329"/>
+      <c r="AP145" s="8">
+        <f t="shared" si="332"/>
         <v>0.54645377029696218</v>
       </c>
-      <c r="AQ139" s="8">
-        <f t="shared" si="329"/>
+      <c r="AQ145" s="8">
+        <f t="shared" si="332"/>
         <v>0.58574243708506701</v>
       </c>
-      <c r="AR139" s="8">
-        <f t="shared" si="329"/>
+      <c r="AR145" s="8">
+        <f t="shared" si="332"/>
         <v>0.58876731753118594</v>
       </c>
-      <c r="AS139" s="8" t="e">
-        <f t="shared" si="329"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT139" s="8" t="e">
-        <f t="shared" si="329"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU139" s="8" t="e">
-        <f t="shared" si="329"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AV139" s="8" t="e">
-        <f t="shared" si="329"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW139" s="8" t="e">
-        <f t="shared" si="329"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX139" s="8" t="e">
-        <f t="shared" si="329"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY139" s="8" t="e">
-        <f t="shared" si="329"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ139" s="8" t="e">
-        <f t="shared" si="329"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="140" spans="2:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="8" t="s">
+      <c r="AS145" s="8" t="e">
+        <f t="shared" si="332"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT145" s="8" t="e">
+        <f t="shared" si="332"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU145" s="8" t="e">
+        <f t="shared" si="332"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV145" s="8" t="e">
+        <f t="shared" si="332"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW145" s="8" t="e">
+        <f t="shared" si="332"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX145" s="8" t="e">
+        <f t="shared" si="332"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY145" s="8" t="e">
+        <f t="shared" si="332"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ145" s="8" t="e">
+        <f t="shared" si="332"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="2:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K140" s="8">
+      <c r="K146" s="8">
         <f>K45/K47</f>
         <v>0.20400325729624305</v>
       </c>
-      <c r="L140" s="8">
-        <f t="shared" ref="L140:AD140" si="330">L45/L47</f>
+      <c r="L146" s="8">
+        <f t="shared" ref="L146:AD146" si="333">L45/L47</f>
         <v>0.21006786184543705</v>
       </c>
-      <c r="M140" s="8">
-        <f t="shared" si="330"/>
+      <c r="M146" s="8">
+        <f t="shared" si="333"/>
         <v>0.20597950208565335</v>
       </c>
-      <c r="N140" s="8">
-        <f t="shared" si="330"/>
+      <c r="N146" s="8">
+        <f t="shared" si="333"/>
         <v>0.21446020858780424</v>
       </c>
-      <c r="O140" s="8">
-        <f t="shared" si="330"/>
+      <c r="O146" s="36">
+        <f t="shared" si="333"/>
         <v>0.19836530258414289</v>
       </c>
-      <c r="P140" s="8">
-        <f t="shared" si="330"/>
+      <c r="P146" s="8">
+        <f t="shared" si="333"/>
         <v>0.19486396791310981</v>
       </c>
-      <c r="Q140" s="8">
-        <f t="shared" si="330"/>
+      <c r="Q146" s="8">
+        <f t="shared" si="333"/>
         <v>0.1847633845187524</v>
       </c>
-      <c r="R140" s="8">
-        <f t="shared" si="330"/>
+      <c r="R146" s="8">
+        <f t="shared" si="333"/>
         <v>0.19803325936903821</v>
       </c>
-      <c r="S140" s="8">
-        <f t="shared" si="330"/>
+      <c r="S146" s="36">
+        <f t="shared" si="333"/>
         <v>0.23045709980221643</v>
       </c>
-      <c r="T140" s="8">
-        <f t="shared" si="330"/>
+      <c r="T146" s="8">
+        <f t="shared" si="333"/>
         <v>0.23269797120418848</v>
       </c>
-      <c r="U140" s="8">
-        <f t="shared" si="330"/>
+      <c r="U146" s="8">
+        <f t="shared" si="333"/>
         <v>0.19887332353842407</v>
       </c>
-      <c r="V140" s="8">
-        <f t="shared" si="330"/>
+      <c r="V146" s="8">
+        <f t="shared" si="333"/>
         <v>0.22012405047571085</v>
       </c>
-      <c r="W140" s="8" t="e">
-        <f t="shared" si="330"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X140" s="8" t="e">
-        <f t="shared" si="330"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y140" s="8" t="e">
-        <f t="shared" si="330"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z140" s="8" t="e">
-        <f t="shared" si="330"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA140" s="8" t="e">
-        <f t="shared" si="330"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB140" s="8" t="e">
-        <f t="shared" si="330"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC140" s="8" t="e">
-        <f t="shared" si="330"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD140" s="8" t="e">
-        <f t="shared" si="330"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN140" s="8">
-        <f t="shared" ref="AN140:AZ140" si="331">AN45/AN47</f>
+      <c r="W146" s="36">
+        <f t="shared" si="333"/>
+        <v>0.2054851226121944</v>
+      </c>
+      <c r="X146" s="8">
+        <f t="shared" si="333"/>
+        <v>0.24294558690850263</v>
+      </c>
+      <c r="Y146" s="8" t="e">
+        <f t="shared" si="333"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z146" s="8" t="e">
+        <f t="shared" si="333"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA146" s="8" t="e">
+        <f t="shared" si="333"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB146" s="8" t="e">
+        <f t="shared" si="333"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC146" s="8" t="e">
+        <f t="shared" si="333"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD146" s="8" t="e">
+        <f t="shared" si="333"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN146" s="8">
+        <f t="shared" ref="AN146:AZ146" si="334">AN45/AN47</f>
         <v>0.19371360996663223</v>
       </c>
-      <c r="AO140" s="8">
-        <f t="shared" si="331"/>
+      <c r="AO146" s="8">
+        <f t="shared" si="334"/>
         <v>0.19324898537302862</v>
       </c>
-      <c r="AP140" s="8">
-        <f t="shared" si="331"/>
+      <c r="AP146" s="8">
+        <f t="shared" si="334"/>
         <v>0.20868211918916879</v>
       </c>
-      <c r="AQ140" s="8">
-        <f t="shared" si="331"/>
+      <c r="AQ146" s="8">
+        <f t="shared" si="334"/>
         <v>0.19388857097372397</v>
       </c>
-      <c r="AR140" s="8">
-        <f t="shared" si="331"/>
+      <c r="AR146" s="8">
+        <f t="shared" si="334"/>
         <v>0.22040929733458525</v>
       </c>
-      <c r="AS140" s="8" t="e">
-        <f t="shared" si="331"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT140" s="8" t="e">
-        <f t="shared" si="331"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU140" s="8" t="e">
-        <f t="shared" si="331"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AV140" s="8" t="e">
-        <f t="shared" si="331"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW140" s="8" t="e">
-        <f t="shared" si="331"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX140" s="8" t="e">
-        <f t="shared" si="331"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY140" s="8" t="e">
-        <f t="shared" si="331"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ140" s="8" t="e">
-        <f t="shared" si="331"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="141" spans="2:52" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="9" t="s">
+      <c r="AS146" s="8" t="e">
+        <f t="shared" si="334"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT146" s="8" t="e">
+        <f t="shared" si="334"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU146" s="8" t="e">
+        <f t="shared" si="334"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV146" s="8" t="e">
+        <f t="shared" si="334"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW146" s="8" t="e">
+        <f t="shared" si="334"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX146" s="8" t="e">
+        <f t="shared" si="334"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY146" s="8" t="e">
+        <f t="shared" si="334"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ146" s="8" t="e">
+        <f t="shared" si="334"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="2:52" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K141" s="9">
+      <c r="K147" s="9">
         <f>K46/K47</f>
         <v>0.24509143552262513</v>
       </c>
-      <c r="L141" s="9">
-        <f t="shared" ref="L141:AD141" si="332">L46/L47</f>
+      <c r="L147" s="9">
+        <f t="shared" ref="L147:AD147" si="335">L46/L47</f>
         <v>0.25585941456497518</v>
       </c>
-      <c r="M141" s="9">
-        <f t="shared" si="332"/>
+      <c r="M147" s="9">
+        <f t="shared" si="335"/>
         <v>0.24748494743398577</v>
       </c>
-      <c r="N141" s="9">
-        <f t="shared" si="332"/>
+      <c r="N147" s="9">
+        <f t="shared" si="335"/>
         <v>0.23184252560368321</v>
       </c>
-      <c r="O141" s="9">
-        <f t="shared" si="332"/>
+      <c r="O147" s="37">
+        <f t="shared" si="335"/>
         <v>0.20405280201080625</v>
       </c>
-      <c r="P141" s="9">
-        <f t="shared" si="332"/>
+      <c r="P147" s="9">
+        <f t="shared" si="335"/>
         <v>0.22417342538200791</v>
       </c>
-      <c r="Q141" s="9">
-        <f t="shared" si="332"/>
+      <c r="Q147" s="9">
+        <f t="shared" si="335"/>
         <v>0.22953271954908347</v>
       </c>
-      <c r="R141" s="9">
-        <f t="shared" si="332"/>
+      <c r="R147" s="9">
+        <f t="shared" si="335"/>
         <v>0.2223432216226838</v>
       </c>
-      <c r="S141" s="9">
-        <f t="shared" si="332"/>
+      <c r="S147" s="37">
+        <f t="shared" si="335"/>
         <v>0.18684268357768502</v>
       </c>
-      <c r="T141" s="9">
-        <f t="shared" si="332"/>
+      <c r="T147" s="9">
+        <f t="shared" si="335"/>
         <v>0.18893160994764396</v>
       </c>
-      <c r="U141" s="9">
-        <f t="shared" si="332"/>
+      <c r="U147" s="9">
+        <f t="shared" si="335"/>
         <v>0.1921006937624237</v>
       </c>
-      <c r="V141" s="9">
-        <f t="shared" si="332"/>
+      <c r="V147" s="9">
+        <f t="shared" si="335"/>
         <v>0.19479650340483362</v>
       </c>
-      <c r="W141" s="9" t="e">
-        <f t="shared" si="332"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X141" s="9" t="e">
-        <f t="shared" si="332"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y141" s="9" t="e">
-        <f t="shared" si="332"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z141" s="9" t="e">
-        <f t="shared" si="332"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA141" s="9" t="e">
-        <f t="shared" si="332"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB141" s="9" t="e">
-        <f t="shared" si="332"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC141" s="9" t="e">
-        <f t="shared" si="332"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD141" s="9" t="e">
-        <f t="shared" si="332"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN141" s="9">
-        <f t="shared" ref="AN141:AZ141" si="333">AN46/AN47</f>
+      <c r="W147" s="37">
+        <f t="shared" si="335"/>
+        <v>0.1817188336525353</v>
+      </c>
+      <c r="X147" s="9">
+        <f t="shared" si="335"/>
+        <v>0.192784328365948</v>
+      </c>
+      <c r="Y147" s="9" t="e">
+        <f t="shared" si="335"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z147" s="9" t="e">
+        <f t="shared" si="335"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA147" s="9" t="e">
+        <f t="shared" si="335"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB147" s="9" t="e">
+        <f t="shared" si="335"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC147" s="9" t="e">
+        <f t="shared" si="335"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD147" s="9" t="e">
+        <f t="shared" si="335"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN147" s="9">
+        <f t="shared" ref="AN147:AZ147" si="336">AN46/AN47</f>
         <v>0.35458674480088576</v>
       </c>
-      <c r="AO141" s="9">
-        <f t="shared" si="333"/>
+      <c r="AO147" s="9">
+        <f t="shared" si="336"/>
         <v>0.30402718383134036</v>
       </c>
-      <c r="AP141" s="9">
-        <f t="shared" si="333"/>
+      <c r="AP147" s="9">
+        <f t="shared" si="336"/>
         <v>0.24486411051386903</v>
       </c>
-      <c r="AQ141" s="9">
-        <f t="shared" si="333"/>
+      <c r="AQ147" s="9">
+        <f t="shared" si="336"/>
         <v>0.22036899194120912</v>
       </c>
-      <c r="AR141" s="9">
-        <f t="shared" si="333"/>
+      <c r="AR147" s="9">
+        <f t="shared" si="336"/>
         <v>0.19082338513422881</v>
       </c>
-      <c r="AS141" s="9" t="e">
-        <f t="shared" si="333"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT141" s="9" t="e">
-        <f t="shared" si="333"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU141" s="9" t="e">
-        <f t="shared" si="333"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AV141" s="9" t="e">
-        <f t="shared" si="333"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW141" s="9" t="e">
-        <f t="shared" si="333"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX141" s="9" t="e">
-        <f t="shared" si="333"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY141" s="9" t="e">
-        <f t="shared" si="333"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ141" s="9" t="e">
-        <f t="shared" si="333"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="142" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B142" s="6" t="s">
+      <c r="AS147" s="9" t="e">
+        <f t="shared" si="336"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT147" s="9" t="e">
+        <f t="shared" si="336"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU147" s="9" t="e">
+        <f t="shared" si="336"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV147" s="9" t="e">
+        <f t="shared" si="336"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW147" s="9" t="e">
+        <f t="shared" si="336"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX147" s="9" t="e">
+        <f t="shared" si="336"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY147" s="9" t="e">
+        <f t="shared" si="336"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ147" s="9" t="e">
+        <f t="shared" si="336"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B148" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K142" s="8">
-        <f>SUM(K139:K141)</f>
+      <c r="K148" s="8">
+        <f>SUM(K145:K147)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L142" s="8">
-        <f t="shared" ref="L142:AD142" si="334">SUM(L139:L141)</f>
+      <c r="L148" s="8">
+        <f t="shared" ref="L148:AD148" si="337">SUM(L145:L147)</f>
         <v>1</v>
       </c>
-      <c r="M142" s="8">
-        <f t="shared" si="334"/>
+      <c r="M148" s="8">
+        <f t="shared" si="337"/>
         <v>1</v>
       </c>
-      <c r="N142" s="8">
-        <f t="shared" si="334"/>
+      <c r="N148" s="8">
+        <f t="shared" si="337"/>
         <v>1</v>
       </c>
-      <c r="O142" s="8">
-        <f t="shared" si="334"/>
+      <c r="O148" s="36">
+        <f t="shared" si="337"/>
         <v>1</v>
       </c>
-      <c r="P142" s="8">
-        <f t="shared" si="334"/>
+      <c r="P148" s="8">
+        <f t="shared" si="337"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="Q142" s="8">
-        <f t="shared" si="334"/>
+      <c r="Q148" s="8">
+        <f t="shared" si="337"/>
         <v>1</v>
       </c>
-      <c r="R142" s="8">
-        <f t="shared" si="334"/>
+      <c r="R148" s="8">
+        <f t="shared" si="337"/>
         <v>1</v>
       </c>
-      <c r="S142" s="8">
-        <f t="shared" si="334"/>
+      <c r="S148" s="36">
+        <f t="shared" si="337"/>
         <v>1</v>
       </c>
-      <c r="T142" s="8">
-        <f t="shared" si="334"/>
+      <c r="T148" s="8">
+        <f t="shared" si="337"/>
         <v>1</v>
       </c>
-      <c r="U142" s="8">
-        <f t="shared" si="334"/>
+      <c r="U148" s="8">
+        <f t="shared" si="337"/>
         <v>1</v>
       </c>
-      <c r="V142" s="8">
-        <f t="shared" si="334"/>
+      <c r="V148" s="8">
+        <f t="shared" si="337"/>
         <v>1</v>
       </c>
-      <c r="W142" s="8" t="e">
-        <f t="shared" si="334"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X142" s="8" t="e">
-        <f t="shared" si="334"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y142" s="8" t="e">
-        <f t="shared" si="334"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z142" s="8" t="e">
-        <f t="shared" si="334"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA142" s="8" t="e">
-        <f t="shared" si="334"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB142" s="8" t="e">
-        <f t="shared" si="334"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC142" s="8" t="e">
-        <f t="shared" si="334"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD142" s="8" t="e">
-        <f t="shared" si="334"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN142" s="8">
-        <f t="shared" ref="AN142" si="335">SUM(AN139:AN141)</f>
+      <c r="W148" s="36">
+        <f t="shared" si="337"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="X148" s="8">
+        <f t="shared" si="337"/>
+        <v>1</v>
+      </c>
+      <c r="Y148" s="8" t="e">
+        <f t="shared" si="337"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z148" s="8" t="e">
+        <f t="shared" si="337"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA148" s="8" t="e">
+        <f t="shared" si="337"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB148" s="8" t="e">
+        <f t="shared" si="337"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC148" s="8" t="e">
+        <f t="shared" si="337"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD148" s="8" t="e">
+        <f t="shared" si="337"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN148" s="8">
+        <f t="shared" ref="AN148" si="338">SUM(AN145:AN147)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="AO142" s="8">
-        <f t="shared" ref="AO142" si="336">SUM(AO139:AO141)</f>
+      <c r="AO148" s="8">
+        <f t="shared" ref="AO148" si="339">SUM(AO145:AO147)</f>
         <v>1</v>
       </c>
-      <c r="AP142" s="8">
-        <f t="shared" ref="AP142" si="337">SUM(AP139:AP141)</f>
+      <c r="AP148" s="8">
+        <f t="shared" ref="AP148" si="340">SUM(AP145:AP147)</f>
         <v>1</v>
       </c>
-      <c r="AQ142" s="8">
-        <f t="shared" ref="AQ142" si="338">SUM(AQ139:AQ141)</f>
+      <c r="AQ148" s="8">
+        <f t="shared" ref="AQ148" si="341">SUM(AQ145:AQ147)</f>
         <v>1</v>
       </c>
-      <c r="AR142" s="8">
-        <f t="shared" ref="AR142" si="339">SUM(AR139:AR141)</f>
+      <c r="AR148" s="8">
+        <f t="shared" ref="AR148" si="342">SUM(AR145:AR147)</f>
         <v>1</v>
       </c>
-      <c r="AS142" s="8" t="e">
-        <f t="shared" ref="AS142" si="340">SUM(AS139:AS141)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT142" s="8" t="e">
-        <f t="shared" ref="AT142" si="341">SUM(AT139:AT141)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU142" s="8" t="e">
-        <f t="shared" ref="AU142" si="342">SUM(AU139:AU141)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AV142" s="8" t="e">
-        <f t="shared" ref="AV142" si="343">SUM(AV139:AV141)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW142" s="8" t="e">
-        <f t="shared" ref="AW142" si="344">SUM(AW139:AW141)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX142" s="8" t="e">
-        <f t="shared" ref="AX142" si="345">SUM(AX139:AX141)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY142" s="8" t="e">
-        <f t="shared" ref="AY142" si="346">SUM(AY139:AY141)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ142" s="8" t="e">
-        <f t="shared" ref="AZ142" si="347">SUM(AZ139:AZ141)</f>
+      <c r="AS148" s="8" t="e">
+        <f t="shared" ref="AS148" si="343">SUM(AS145:AS147)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT148" s="8" t="e">
+        <f t="shared" ref="AT148" si="344">SUM(AT145:AT147)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU148" s="8" t="e">
+        <f t="shared" ref="AU148" si="345">SUM(AU145:AU147)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV148" s="8" t="e">
+        <f t="shared" ref="AV148" si="346">SUM(AV145:AV147)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW148" s="8" t="e">
+        <f t="shared" ref="AW148" si="347">SUM(AW145:AW147)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX148" s="8" t="e">
+        <f t="shared" ref="AX148" si="348">SUM(AX145:AX147)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY148" s="8" t="e">
+        <f t="shared" ref="AY148" si="349">SUM(AY145:AY147)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ148" s="8" t="e">
+        <f t="shared" ref="AZ148" si="350">SUM(AZ145:AZ147)</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/SMCI/SMCI.xlsx
+++ b/SMCI/SMCI.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/SMCI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1905" documentId="11_F25DC773A252ABDACC10487F99996F625BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FCC4DCA-B60E-47DD-96F3-11C027006138}"/>
+  <xr:revisionPtr revIDLastSave="2195" documentId="11_F25DC773A252ABDACC10487F99996F625BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC6548F6-6AA6-46F6-B88D-50707EB21840}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="1" r:id="rId3"/>
+    <sheet name="New Model" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="170">
   <si>
     <t>Ticker</t>
   </si>
@@ -596,12 +597,64 @@
   <si>
     <t>Revenue and earnings growth over 200%, yet it remained at 7-13 P/E</t>
   </si>
+  <si>
+    <t>Fiscal Period</t>
+  </si>
+  <si>
+    <t>Period Of Report</t>
+  </si>
+  <si>
+    <t>Server &amp; Storage Systems</t>
+  </si>
+  <si>
+    <t>Subsystems &amp; Accessories</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other income </t>
+  </si>
+  <si>
+    <t>Income before tax</t>
+  </si>
+  <si>
+    <t>Share of income from equity investee</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Income Statement, *in millions, USD</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Price/Share</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
@@ -750,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -800,6 +853,20 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,6 +882,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>644071</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F9E45F-BC08-EBF0-7E84-0616720599AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19884571" y="9071"/>
+          <a:ext cx="27215" cy="10940143"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -937,39 +1059,39 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>699.77</v>
-    <v>82.33</v>
-    <v>1.1609</v>
-    <v>2.0099999999999998</v>
-    <v>-5.1200000000000004E-3</v>
-    <v>2.9489999999999998E-3</v>
-    <v>-3.5</v>
+    <v>1229</v>
+    <v>226.59</v>
+    <v>1.2831999999999999</v>
+    <v>16.579999999999998</v>
+    <v>-1.8249999999999999E-4</v>
+    <v>2.3835000000000002E-2</v>
+    <v>-0.13</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>5126</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>699.77</v>
+    <v>980 Rock Avenue, SAN JOSE, CA, 95131 US</v>
+    <v>724.29</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45330.041665300778</v>
+    <v>45499.999866145314</v>
     <v>0</v>
-    <v>660</v>
-    <v>38236024388</v>
+    <v>697.55</v>
+    <v>41703375100</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>675</v>
-    <v>53.429099999999998</v>
-    <v>681.59</v>
-    <v>683.6</v>
-    <v>680.1</v>
-    <v>55933330</v>
+    <v>710.61</v>
+    <v>39.967300000000002</v>
+    <v>695.61</v>
+    <v>712.19</v>
+    <v>712.06</v>
+    <v>58556530</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>12332979</v>
-    <v>8921976</v>
+    <v>4382184</v>
+    <v>6819106</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1542,7 +1664,7 @@
       </c>
       <c r="B2" s="1" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>683.6</v>
+        <v>712.19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1551,7 +1673,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>55.933329999999998</v>
+        <v>58.556530000000002</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1563,7 +1685,7 @@
       </c>
       <c r="B4" s="1">
         <f>B2*B3</f>
-        <v>38236.024387999998</v>
+        <v>41703.375100700003</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1725,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AZ148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -12599,4 +12721,2806 @@
     <ignoredError sqref="J95 V53" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67142268-B714-40B5-B564-6DC7BD944DE6}">
+  <dimension ref="A1:CS50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="AV33" sqref="AV33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="26" max="27" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z1">
+        <f>AA1-1</f>
+        <v>2017</v>
+      </c>
+      <c r="AA1">
+        <f t="shared" ref="AA1:AD1" si="0">AB1-1</f>
+        <v>2018</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="AE1">
+        <f>AF1-1</f>
+        <v>2022</v>
+      </c>
+      <c r="AF1">
+        <v>2023</v>
+      </c>
+      <c r="AG1">
+        <f>AF1+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" ref="AH1:AR1" si="1">AG1+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="AM1">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="AN1">
+        <f t="shared" si="1"/>
+        <v>2031</v>
+      </c>
+      <c r="AO1">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="AP1">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="AQ1">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="AR1">
+        <f t="shared" si="1"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>42988</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>43338</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>43818</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>44074</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>44435</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>44802</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="3" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>DATE(YEAR(AA3)-1, MONTH(AA3),DAY(AA3))</f>
+        <v>42916</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" ref="AA3:AD3" si="2">DATE(YEAR(AB3)-1, MONTH(AB3),DAY(AB3))</f>
+        <v>43281</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" si="2"/>
+        <v>43646</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" si="2"/>
+        <v>44012</v>
+      </c>
+      <c r="AD3" s="3">
+        <f t="shared" si="2"/>
+        <v>44377</v>
+      </c>
+      <c r="AE3" s="3">
+        <f>DATE(YEAR(AF3)-1, MONTH(AF3),DAY(AF3))</f>
+        <v>44742</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:44" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>2663.58</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>2858.6439999999998</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>2620.7539999999999</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>2790.3049999999998</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>4463.8329999999996</v>
+      </c>
+      <c r="AF7" s="15">
+        <v>6569.8140000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:44" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA8" s="49">
+        <v>696.91200000000003</v>
+      </c>
+      <c r="AB8" s="49">
+        <v>641.71600000000001</v>
+      </c>
+      <c r="AC8" s="49">
+        <v>718.52700000000004</v>
+      </c>
+      <c r="AD8" s="49">
+        <v>767.11699999999996</v>
+      </c>
+      <c r="AE8" s="49">
+        <v>732.26599999999996</v>
+      </c>
+      <c r="AF8" s="49">
+        <v>553.66800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:44" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="23">
+        <f>SUM(R7:R8)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="23">
+        <f t="shared" ref="S9:AR9" si="3">SUM(S7:S8)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="23">
+        <f t="shared" si="3"/>
+        <v>3360.4920000000002</v>
+      </c>
+      <c r="AB9" s="23">
+        <f t="shared" si="3"/>
+        <v>3500.3599999999997</v>
+      </c>
+      <c r="AC9" s="23">
+        <f t="shared" si="3"/>
+        <v>3339.2809999999999</v>
+      </c>
+      <c r="AD9" s="23">
+        <f t="shared" si="3"/>
+        <v>3557.4219999999996</v>
+      </c>
+      <c r="AE9" s="23">
+        <f t="shared" si="3"/>
+        <v>5196.0989999999993</v>
+      </c>
+      <c r="AF9" s="23">
+        <f t="shared" si="3"/>
+        <v>7123.482</v>
+      </c>
+      <c r="AG9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:44" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="R12" s="52" t="e">
+        <f>R7/Q7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" s="52" t="e">
+        <f t="shared" ref="S12:AR12" si="4">S7/R7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB12" s="52">
+        <f t="shared" si="4"/>
+        <v>7.3233768086560236E-2</v>
+      </c>
+      <c r="AC12" s="52">
+        <f t="shared" si="4"/>
+        <v>-8.3217777379764657E-2</v>
+      </c>
+      <c r="AD12" s="52">
+        <f t="shared" si="4"/>
+        <v>6.4695503660396891E-2</v>
+      </c>
+      <c r="AE12" s="52">
+        <f t="shared" si="4"/>
+        <v>0.59976525863660068</v>
+      </c>
+      <c r="AF12" s="52">
+        <f t="shared" si="4"/>
+        <v>0.47178758703562629</v>
+      </c>
+      <c r="AG12" s="52">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="AH12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR12" s="52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:44" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="R13" s="53" t="e">
+        <f>R8/Q8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" s="53" t="e">
+        <f t="shared" ref="S13:AR13" si="5">S8/R8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" s="53">
+        <f t="shared" si="5"/>
+        <v>-7.9200817319833861E-2</v>
+      </c>
+      <c r="AC13" s="53">
+        <f t="shared" si="5"/>
+        <v>0.11969625192452749</v>
+      </c>
+      <c r="AD13" s="53">
+        <f t="shared" si="5"/>
+        <v>6.7624459484473043E-2</v>
+      </c>
+      <c r="AE13" s="53">
+        <f t="shared" si="5"/>
+        <v>-4.5431140230238642E-2</v>
+      </c>
+      <c r="AF13" s="53">
+        <f t="shared" si="5"/>
+        <v>-0.24389770930235732</v>
+      </c>
+      <c r="AG13" s="53">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AH13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR13" s="53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:44" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="52" t="e">
+        <f>R9/Q9-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" s="52" t="e">
+        <f t="shared" ref="S14:AR14" si="6">S9/R9-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" s="52">
+        <f t="shared" si="6"/>
+        <v>4.1621286406871238E-2</v>
+      </c>
+      <c r="AC14" s="52">
+        <f t="shared" si="6"/>
+        <v>-4.6017838165217206E-2</v>
+      </c>
+      <c r="AD14" s="52">
+        <f t="shared" si="6"/>
+        <v>6.5325739283396578E-2</v>
+      </c>
+      <c r="AE14" s="52">
+        <f t="shared" si="6"/>
+        <v>0.46063610108668573</v>
+      </c>
+      <c r="AF14" s="52">
+        <f t="shared" si="6"/>
+        <v>0.37092884488921429</v>
+      </c>
+      <c r="AG14" s="52">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="AH14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR14" s="52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="2:44" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>3360.4920000000002</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>3500.36</v>
+      </c>
+      <c r="AC16" s="15">
+        <v>3339.2809999999999</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>3557.422</v>
+      </c>
+      <c r="AE16" s="15">
+        <v>5196.0990000000002</v>
+      </c>
+      <c r="AF16" s="15">
+        <v>7123.482</v>
+      </c>
+      <c r="AG16" s="15">
+        <f>AF16*(1+AG47)</f>
+        <v>8548.1783999999989</v>
+      </c>
+      <c r="AH16" s="15">
+        <f t="shared" ref="AH16:AR16" si="7">AG16*(1+AH47)</f>
+        <v>10257.814079999998</v>
+      </c>
+      <c r="AI16" s="15">
+        <f t="shared" si="7"/>
+        <v>12309.376895999998</v>
+      </c>
+      <c r="AJ16" s="15">
+        <f t="shared" si="7"/>
+        <v>14771.252275199997</v>
+      </c>
+      <c r="AK16" s="15">
+        <f t="shared" si="7"/>
+        <v>17725.502730239994</v>
+      </c>
+      <c r="AL16" s="15">
+        <f t="shared" si="7"/>
+        <v>21270.603276287991</v>
+      </c>
+      <c r="AM16" s="15">
+        <f t="shared" si="7"/>
+        <v>25524.723931545588</v>
+      </c>
+      <c r="AN16" s="15">
+        <f t="shared" si="7"/>
+        <v>30629.668717854704</v>
+      </c>
+      <c r="AO16" s="15">
+        <f t="shared" si="7"/>
+        <v>36755.602461425646</v>
+      </c>
+      <c r="AP16" s="15">
+        <f t="shared" si="7"/>
+        <v>44106.722953710771</v>
+      </c>
+      <c r="AQ16" s="15">
+        <f t="shared" si="7"/>
+        <v>52928.067544452926</v>
+      </c>
+      <c r="AR16" s="15">
+        <f t="shared" si="7"/>
+        <v>63513.681053343505</v>
+      </c>
+    </row>
+    <row r="17" spans="2:97" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA17" s="49">
+        <v>2930.498</v>
+      </c>
+      <c r="AB17" s="49">
+        <v>3004.8380000000002</v>
+      </c>
+      <c r="AC17" s="49">
+        <v>2813.0709999999999</v>
+      </c>
+      <c r="AD17" s="49">
+        <v>3022.884</v>
+      </c>
+      <c r="AE17" s="49">
+        <v>4396.098</v>
+      </c>
+      <c r="AF17" s="49">
+        <v>5840.47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:97" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" s="23">
+        <f>R16-R17</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="23">
+        <f t="shared" ref="S18:AR18" si="8">S16-S17</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="23">
+        <f t="shared" si="8"/>
+        <v>429.99400000000014</v>
+      </c>
+      <c r="AB18" s="23">
+        <f t="shared" si="8"/>
+        <v>495.52199999999993</v>
+      </c>
+      <c r="AC18" s="23">
+        <f t="shared" si="8"/>
+        <v>526.21</v>
+      </c>
+      <c r="AD18" s="23">
+        <f t="shared" si="8"/>
+        <v>534.53800000000001</v>
+      </c>
+      <c r="AE18" s="23">
+        <f t="shared" si="8"/>
+        <v>800.0010000000002</v>
+      </c>
+      <c r="AF18" s="23">
+        <f t="shared" si="8"/>
+        <v>1283.0119999999997</v>
+      </c>
+      <c r="AG18" s="23">
+        <f>AG16*AG41</f>
+        <v>1282.2267599999998</v>
+      </c>
+      <c r="AH18" s="23">
+        <f t="shared" ref="AH18:AR18" si="9">AH16*AH41</f>
+        <v>1538.6721119999997</v>
+      </c>
+      <c r="AI18" s="23">
+        <f t="shared" si="9"/>
+        <v>1846.4065343999996</v>
+      </c>
+      <c r="AJ18" s="23">
+        <f t="shared" si="9"/>
+        <v>2215.6878412799992</v>
+      </c>
+      <c r="AK18" s="23">
+        <f t="shared" si="9"/>
+        <v>2658.8254095359989</v>
+      </c>
+      <c r="AL18" s="23">
+        <f t="shared" si="9"/>
+        <v>3190.5904914431985</v>
+      </c>
+      <c r="AM18" s="23">
+        <f t="shared" si="9"/>
+        <v>3828.7085897318379</v>
+      </c>
+      <c r="AN18" s="23">
+        <f t="shared" si="9"/>
+        <v>4594.4503076782057</v>
+      </c>
+      <c r="AO18" s="23">
+        <f t="shared" si="9"/>
+        <v>5513.3403692138463</v>
+      </c>
+      <c r="AP18" s="23">
+        <f t="shared" si="9"/>
+        <v>6616.0084430566158</v>
+      </c>
+      <c r="AQ18" s="23">
+        <f t="shared" si="9"/>
+        <v>7939.2101316679382</v>
+      </c>
+      <c r="AR18" s="23">
+        <f t="shared" si="9"/>
+        <v>9527.0521580015247</v>
+      </c>
+    </row>
+    <row r="19" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>165.10400000000001</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>179.90700000000001</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>221.47800000000001</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>224.369</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>272.27300000000002</v>
+      </c>
+      <c r="AF19" s="15">
+        <v>307.26</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:97" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA20" s="49">
+        <f>71.759+98.597</f>
+        <v>170.35599999999999</v>
+      </c>
+      <c r="AB20" s="49">
+        <f>77.154+141.228</f>
+        <v>218.38200000000001</v>
+      </c>
+      <c r="AC20" s="49">
+        <f>85.137+133.941</f>
+        <v>219.078</v>
+      </c>
+      <c r="AD20" s="49">
+        <f>85.683+100.539</f>
+        <v>186.22200000000001</v>
+      </c>
+      <c r="AE20" s="49">
+        <f>90.126+102.435</f>
+        <v>192.56100000000001</v>
+      </c>
+      <c r="AF20" s="49">
+        <f>115.025+99.585</f>
+        <v>214.61</v>
+      </c>
+      <c r="AG20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:97" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" s="50">
+        <f>SUM(R19:R20)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="50">
+        <f t="shared" ref="S21:AR21" si="10">SUM(S19:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="50">
+        <f t="shared" si="10"/>
+        <v>335.46000000000004</v>
+      </c>
+      <c r="AB21" s="50">
+        <f t="shared" si="10"/>
+        <v>398.28899999999999</v>
+      </c>
+      <c r="AC21" s="50">
+        <f t="shared" si="10"/>
+        <v>440.55600000000004</v>
+      </c>
+      <c r="AD21" s="50">
+        <f t="shared" si="10"/>
+        <v>410.59100000000001</v>
+      </c>
+      <c r="AE21" s="50">
+        <f t="shared" si="10"/>
+        <v>464.83400000000006</v>
+      </c>
+      <c r="AF21" s="50">
+        <f t="shared" si="10"/>
+        <v>521.87</v>
+      </c>
+      <c r="AG21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="R22" s="15">
+        <f>R18-R21</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="15">
+        <f t="shared" ref="S22:AR22" si="11">S18-S21</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="15">
+        <f t="shared" si="11"/>
+        <v>94.534000000000106</v>
+      </c>
+      <c r="AB22" s="15">
+        <f t="shared" si="11"/>
+        <v>97.232999999999947</v>
+      </c>
+      <c r="AC22" s="15">
+        <f t="shared" si="11"/>
+        <v>85.653999999999996</v>
+      </c>
+      <c r="AD22" s="15">
+        <f t="shared" si="11"/>
+        <v>123.947</v>
+      </c>
+      <c r="AE22" s="15">
+        <f t="shared" si="11"/>
+        <v>335.16700000000014</v>
+      </c>
+      <c r="AF22" s="15">
+        <f t="shared" si="11"/>
+        <v>761.14199999999971</v>
+      </c>
+      <c r="AG22" s="15">
+        <f t="shared" si="11"/>
+        <v>1282.2267599999998</v>
+      </c>
+      <c r="AH22" s="15">
+        <f t="shared" si="11"/>
+        <v>1538.6721119999997</v>
+      </c>
+      <c r="AI22" s="15">
+        <f t="shared" si="11"/>
+        <v>1846.4065343999996</v>
+      </c>
+      <c r="AJ22" s="15">
+        <f t="shared" si="11"/>
+        <v>2215.6878412799992</v>
+      </c>
+      <c r="AK22" s="15">
+        <f t="shared" si="11"/>
+        <v>2658.8254095359989</v>
+      </c>
+      <c r="AL22" s="15">
+        <f t="shared" si="11"/>
+        <v>3190.5904914431985</v>
+      </c>
+      <c r="AM22" s="15">
+        <f t="shared" si="11"/>
+        <v>3828.7085897318379</v>
+      </c>
+      <c r="AN22" s="15">
+        <f t="shared" si="11"/>
+        <v>4594.4503076782057</v>
+      </c>
+      <c r="AO22" s="15">
+        <f t="shared" si="11"/>
+        <v>5513.3403692138463</v>
+      </c>
+      <c r="AP22" s="15">
+        <f t="shared" si="11"/>
+        <v>6616.0084430566158</v>
+      </c>
+      <c r="AQ22" s="15">
+        <f t="shared" si="11"/>
+        <v>7939.2101316679382</v>
+      </c>
+      <c r="AR22" s="15">
+        <f t="shared" si="11"/>
+        <v>9527.0521580015247</v>
+      </c>
+    </row>
+    <row r="23" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA23" s="15">
+        <v>-0.77300000000000002</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>-1.02</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>1.41</v>
+      </c>
+      <c r="AD23" s="15">
+        <v>-2.8340000000000001</v>
+      </c>
+      <c r="AE23" s="15">
+        <v>8.0790000000000006</v>
+      </c>
+      <c r="AF23" s="15">
+        <v>3.6459999999999999</v>
+      </c>
+      <c r="AG23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:97" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA24" s="49">
+        <v>-5.726</v>
+      </c>
+      <c r="AB24" s="49">
+        <v>-6.69</v>
+      </c>
+      <c r="AC24" s="49">
+        <v>-2.2360000000000002</v>
+      </c>
+      <c r="AD24" s="49">
+        <v>-2.4849999999999999</v>
+      </c>
+      <c r="AE24" s="49">
+        <v>-6.4130000000000003</v>
+      </c>
+      <c r="AF24" s="49">
+        <v>-10.491</v>
+      </c>
+      <c r="AG24" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="49">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="49">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="49">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="49">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="49">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="49">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="49">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="49">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="49">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="49">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="R25" s="15">
+        <f>R22+SUM(R23:R24)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="15">
+        <f t="shared" ref="S25:AR25" si="12">S22+SUM(S23:S24)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="15">
+        <f t="shared" si="12"/>
+        <v>88.03500000000011</v>
+      </c>
+      <c r="AB25" s="15">
+        <f t="shared" si="12"/>
+        <v>89.522999999999939</v>
+      </c>
+      <c r="AC25" s="15">
+        <f t="shared" si="12"/>
+        <v>84.828000000000003</v>
+      </c>
+      <c r="AD25" s="15">
+        <f t="shared" si="12"/>
+        <v>118.628</v>
+      </c>
+      <c r="AE25" s="15">
+        <f t="shared" si="12"/>
+        <v>336.83300000000014</v>
+      </c>
+      <c r="AF25" s="15">
+        <f t="shared" si="12"/>
+        <v>754.29699999999968</v>
+      </c>
+      <c r="AG25" s="15">
+        <f t="shared" si="12"/>
+        <v>1282.2267599999998</v>
+      </c>
+      <c r="AH25" s="15">
+        <f t="shared" si="12"/>
+        <v>1538.6721119999997</v>
+      </c>
+      <c r="AI25" s="15">
+        <f t="shared" si="12"/>
+        <v>1846.4065343999996</v>
+      </c>
+      <c r="AJ25" s="15">
+        <f t="shared" si="12"/>
+        <v>2215.6878412799992</v>
+      </c>
+      <c r="AK25" s="15">
+        <f t="shared" si="12"/>
+        <v>2658.8254095359989</v>
+      </c>
+      <c r="AL25" s="15">
+        <f t="shared" si="12"/>
+        <v>3190.5904914431985</v>
+      </c>
+      <c r="AM25" s="15">
+        <f t="shared" si="12"/>
+        <v>3828.7085897318379</v>
+      </c>
+      <c r="AN25" s="15">
+        <f t="shared" si="12"/>
+        <v>4594.4503076782057</v>
+      </c>
+      <c r="AO25" s="15">
+        <f t="shared" si="12"/>
+        <v>5513.3403692138463</v>
+      </c>
+      <c r="AP25" s="15">
+        <f t="shared" si="12"/>
+        <v>6616.0084430566158</v>
+      </c>
+      <c r="AQ25" s="15">
+        <f t="shared" si="12"/>
+        <v>7939.2101316679382</v>
+      </c>
+      <c r="AR25" s="15">
+        <f t="shared" si="12"/>
+        <v>9527.0521580015247</v>
+      </c>
+    </row>
+    <row r="26" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA26" s="15">
+        <v>-38.442999999999998</v>
+      </c>
+      <c r="AB26" s="15">
+        <v>-14.884</v>
+      </c>
+      <c r="AC26" s="15">
+        <v>-2.9220000000000002</v>
+      </c>
+      <c r="AD26" s="15">
+        <v>-6.9359999999999999</v>
+      </c>
+      <c r="AE26" s="15">
+        <v>-52.875999999999998</v>
+      </c>
+      <c r="AF26" s="15">
+        <v>-110.666</v>
+      </c>
+      <c r="AG26" s="15">
+        <f>AG25*AG44</f>
+        <v>-192.33401399999997</v>
+      </c>
+      <c r="AH26" s="15">
+        <f t="shared" ref="AH26:AR26" si="13">AH25*AH44</f>
+        <v>-230.80081679999995</v>
+      </c>
+      <c r="AI26" s="15">
+        <f t="shared" si="13"/>
+        <v>-276.96098015999991</v>
+      </c>
+      <c r="AJ26" s="15">
+        <f t="shared" si="13"/>
+        <v>-332.35317619199986</v>
+      </c>
+      <c r="AK26" s="15">
+        <f t="shared" si="13"/>
+        <v>-398.82381143039981</v>
+      </c>
+      <c r="AL26" s="15">
+        <f t="shared" si="13"/>
+        <v>-478.58857371647974</v>
+      </c>
+      <c r="AM26" s="15">
+        <f t="shared" si="13"/>
+        <v>-574.30628845977571</v>
+      </c>
+      <c r="AN26" s="15">
+        <f t="shared" si="13"/>
+        <v>-689.16754615173079</v>
+      </c>
+      <c r="AO26" s="15">
+        <f t="shared" si="13"/>
+        <v>-827.00105538207697</v>
+      </c>
+      <c r="AP26" s="15">
+        <f t="shared" si="13"/>
+        <v>-992.40126645849227</v>
+      </c>
+      <c r="AQ26" s="15">
+        <f t="shared" si="13"/>
+        <v>-1190.8815197501906</v>
+      </c>
+      <c r="AR26" s="15">
+        <f t="shared" si="13"/>
+        <v>-1429.0578237002287</v>
+      </c>
+    </row>
+    <row r="27" spans="2:97" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA27" s="49">
+        <v>-3.6070000000000002</v>
+      </c>
+      <c r="AB27" s="49">
+        <v>-2.7210000000000001</v>
+      </c>
+      <c r="AC27" s="49">
+        <v>2.4020000000000001</v>
+      </c>
+      <c r="AD27" s="49">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AE27" s="49">
+        <v>1.206</v>
+      </c>
+      <c r="AF27" s="49">
+        <v>-3.633</v>
+      </c>
+    </row>
+    <row r="28" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="R28" s="15">
+        <f>SUM(R25:R27)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <f t="shared" ref="S28:AR28" si="14">SUM(S25:S27)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="15">
+        <f t="shared" si="14"/>
+        <v>45.985000000000113</v>
+      </c>
+      <c r="AB28" s="15">
+        <f t="shared" si="14"/>
+        <v>71.917999999999935</v>
+      </c>
+      <c r="AC28" s="15">
+        <f t="shared" si="14"/>
+        <v>84.308000000000007</v>
+      </c>
+      <c r="AD28" s="15">
+        <f t="shared" si="14"/>
+        <v>111.86500000000001</v>
+      </c>
+      <c r="AE28" s="15">
+        <f t="shared" si="14"/>
+        <v>285.16300000000018</v>
+      </c>
+      <c r="AF28" s="15">
+        <f t="shared" si="14"/>
+        <v>639.99799999999959</v>
+      </c>
+      <c r="AG28" s="15">
+        <f t="shared" si="14"/>
+        <v>1089.8927459999998</v>
+      </c>
+      <c r="AH28" s="15">
+        <f t="shared" si="14"/>
+        <v>1307.8712951999998</v>
+      </c>
+      <c r="AI28" s="15">
+        <f t="shared" si="14"/>
+        <v>1569.4455542399996</v>
+      </c>
+      <c r="AJ28" s="15">
+        <f t="shared" si="14"/>
+        <v>1883.3346650879994</v>
+      </c>
+      <c r="AK28" s="15">
+        <f t="shared" si="14"/>
+        <v>2260.001598105599</v>
+      </c>
+      <c r="AL28" s="15">
+        <f t="shared" si="14"/>
+        <v>2712.0019177267186</v>
+      </c>
+      <c r="AM28" s="15">
+        <f t="shared" si="14"/>
+        <v>3254.4023012720622</v>
+      </c>
+      <c r="AN28" s="15">
+        <f t="shared" si="14"/>
+        <v>3905.282761526475</v>
+      </c>
+      <c r="AO28" s="15">
+        <f t="shared" si="14"/>
+        <v>4686.3393138317697</v>
+      </c>
+      <c r="AP28" s="15">
+        <f t="shared" si="14"/>
+        <v>5623.6071765981233</v>
+      </c>
+      <c r="AQ28" s="15">
+        <f t="shared" si="14"/>
+        <v>6748.3286119177474</v>
+      </c>
+      <c r="AR28" s="15">
+        <f t="shared" si="14"/>
+        <v>8097.9943343012965</v>
+      </c>
+      <c r="AS28" s="15">
+        <f>AR28*(1+$AV$32)</f>
+        <v>8178.97427764431</v>
+      </c>
+      <c r="AT28" s="15">
+        <f t="shared" ref="AT28:CS28" si="15">AS28*(1+$AV$32)</f>
+        <v>8260.7640204207528</v>
+      </c>
+      <c r="AU28" s="15">
+        <f t="shared" si="15"/>
+        <v>8343.37166062496</v>
+      </c>
+      <c r="AV28" s="15">
+        <f t="shared" si="15"/>
+        <v>8426.8053772312105</v>
+      </c>
+      <c r="AW28" s="15">
+        <f t="shared" si="15"/>
+        <v>8511.0734310035223</v>
+      </c>
+      <c r="AX28" s="15">
+        <f t="shared" si="15"/>
+        <v>8596.184165313558</v>
+      </c>
+      <c r="AY28" s="15">
+        <f t="shared" si="15"/>
+        <v>8682.1460069666937</v>
+      </c>
+      <c r="AZ28" s="15">
+        <f t="shared" si="15"/>
+        <v>8768.9674670363602</v>
+      </c>
+      <c r="BA28" s="15">
+        <f t="shared" si="15"/>
+        <v>8856.6571417067244</v>
+      </c>
+      <c r="BB28" s="15">
+        <f t="shared" si="15"/>
+        <v>8945.2237131237925</v>
+      </c>
+      <c r="BC28" s="15">
+        <f t="shared" si="15"/>
+        <v>9034.6759502550303</v>
+      </c>
+      <c r="BD28" s="15">
+        <f t="shared" si="15"/>
+        <v>9125.0227097575807</v>
+      </c>
+      <c r="BE28" s="15">
+        <f t="shared" si="15"/>
+        <v>9216.2729368551572</v>
+      </c>
+      <c r="BF28" s="15">
+        <f t="shared" si="15"/>
+        <v>9308.4356662237096</v>
+      </c>
+      <c r="BG28" s="15">
+        <f t="shared" si="15"/>
+        <v>9401.5200228859467</v>
+      </c>
+      <c r="BH28" s="15">
+        <f t="shared" si="15"/>
+        <v>9495.5352231148063</v>
+      </c>
+      <c r="BI28" s="15">
+        <f t="shared" si="15"/>
+        <v>9590.4905753459552</v>
+      </c>
+      <c r="BJ28" s="15">
+        <f t="shared" si="15"/>
+        <v>9686.3954810994146</v>
+      </c>
+      <c r="BK28" s="15">
+        <f t="shared" si="15"/>
+        <v>9783.2594359104096</v>
+      </c>
+      <c r="BL28" s="15">
+        <f t="shared" si="15"/>
+        <v>9881.092030269514</v>
+      </c>
+      <c r="BM28" s="15">
+        <f t="shared" si="15"/>
+        <v>9979.9029505722101</v>
+      </c>
+      <c r="BN28" s="15">
+        <f t="shared" si="15"/>
+        <v>10079.701980077933</v>
+      </c>
+      <c r="BO28" s="15">
+        <f t="shared" si="15"/>
+        <v>10180.498999878711</v>
+      </c>
+      <c r="BP28" s="15">
+        <f t="shared" si="15"/>
+        <v>10282.303989877499</v>
+      </c>
+      <c r="BQ28" s="15">
+        <f t="shared" si="15"/>
+        <v>10385.127029776273</v>
+      </c>
+      <c r="BR28" s="15">
+        <f t="shared" si="15"/>
+        <v>10488.978300074035</v>
+      </c>
+      <c r="BS28" s="15">
+        <f t="shared" si="15"/>
+        <v>10593.868083074776</v>
+      </c>
+      <c r="BT28" s="15">
+        <f t="shared" si="15"/>
+        <v>10699.806763905524</v>
+      </c>
+      <c r="BU28" s="15">
+        <f t="shared" si="15"/>
+        <v>10806.804831544579</v>
+      </c>
+      <c r="BV28" s="15">
+        <f t="shared" si="15"/>
+        <v>10914.872879860026</v>
+      </c>
+      <c r="BW28" s="15">
+        <f t="shared" si="15"/>
+        <v>11024.021608658626</v>
+      </c>
+      <c r="BX28" s="15">
+        <f t="shared" si="15"/>
+        <v>11134.261824745212</v>
+      </c>
+      <c r="BY28" s="15">
+        <f t="shared" si="15"/>
+        <v>11245.604442992664</v>
+      </c>
+      <c r="BZ28" s="15">
+        <f t="shared" si="15"/>
+        <v>11358.06048742259</v>
+      </c>
+      <c r="CA28" s="15">
+        <f t="shared" si="15"/>
+        <v>11471.641092296815</v>
+      </c>
+      <c r="CB28" s="15">
+        <f t="shared" si="15"/>
+        <v>11586.357503219784</v>
+      </c>
+      <c r="CC28" s="15">
+        <f t="shared" si="15"/>
+        <v>11702.221078251981</v>
+      </c>
+      <c r="CD28" s="15">
+        <f t="shared" si="15"/>
+        <v>11819.243289034501</v>
+      </c>
+      <c r="CE28" s="15">
+        <f t="shared" si="15"/>
+        <v>11937.435721924845</v>
+      </c>
+      <c r="CF28" s="15">
+        <f t="shared" si="15"/>
+        <v>12056.810079144094</v>
+      </c>
+      <c r="CG28" s="15">
+        <f t="shared" si="15"/>
+        <v>12177.378179935535</v>
+      </c>
+      <c r="CH28" s="15">
+        <f t="shared" si="15"/>
+        <v>12299.151961734889</v>
+      </c>
+      <c r="CI28" s="15">
+        <f t="shared" si="15"/>
+        <v>12422.143481352239</v>
+      </c>
+      <c r="CJ28" s="15">
+        <f t="shared" si="15"/>
+        <v>12546.364916165761</v>
+      </c>
+      <c r="CK28" s="15">
+        <f t="shared" si="15"/>
+        <v>12671.82856532742</v>
+      </c>
+      <c r="CL28" s="15">
+        <f t="shared" si="15"/>
+        <v>12798.546850980694</v>
+      </c>
+      <c r="CM28" s="15">
+        <f t="shared" si="15"/>
+        <v>12926.532319490501</v>
+      </c>
+      <c r="CN28" s="15">
+        <f t="shared" si="15"/>
+        <v>13055.797642685406</v>
+      </c>
+      <c r="CO28" s="15">
+        <f t="shared" si="15"/>
+        <v>13186.355619112261</v>
+      </c>
+      <c r="CP28" s="15">
+        <f t="shared" si="15"/>
+        <v>13318.219175303384</v>
+      </c>
+      <c r="CQ28" s="15">
+        <f t="shared" si="15"/>
+        <v>13451.401367056418</v>
+      </c>
+      <c r="CR28" s="15">
+        <f t="shared" si="15"/>
+        <v>13585.915380726983</v>
+      </c>
+      <c r="CS28" s="15">
+        <f t="shared" si="15"/>
+        <v>13721.774534534254</v>
+      </c>
+    </row>
+    <row r="30" spans="2:97" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="R30" s="18" t="e">
+        <f>R28/R31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="18" t="e">
+        <f t="shared" ref="S30:AR30" si="16">S28/S31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA30" s="18">
+        <f t="shared" si="16"/>
+        <v>0.93190799473097807</v>
+      </c>
+      <c r="AB30" s="18">
+        <f t="shared" si="16"/>
+        <v>1.4407516477352391</v>
+      </c>
+      <c r="AC30" s="18">
+        <f t="shared" si="16"/>
+        <v>1.6535195245846981</v>
+      </c>
+      <c r="AD30" s="18">
+        <f t="shared" si="16"/>
+        <v>2.1859306301905228</v>
+      </c>
+      <c r="AE30" s="18">
+        <f t="shared" si="16"/>
+        <v>5.539512024554182</v>
+      </c>
+      <c r="AF30" s="18">
+        <f t="shared" si="16"/>
+        <v>12.092546055739247</v>
+      </c>
+      <c r="AG30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR30" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU30" s="58"/>
+      <c r="AV30" s="58"/>
+      <c r="AW30" s="58"/>
+      <c r="AX30" s="58"/>
+      <c r="AY30" s="58"/>
+    </row>
+    <row r="31" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="15">
+        <v>49.344999999999999</v>
+      </c>
+      <c r="AB31" s="15">
+        <v>49.917000000000002</v>
+      </c>
+      <c r="AC31" s="15">
+        <v>50.987000000000002</v>
+      </c>
+      <c r="AD31" s="15">
+        <v>51.174999999999997</v>
+      </c>
+      <c r="AE31" s="15">
+        <v>51.478000000000002</v>
+      </c>
+      <c r="AF31" s="15">
+        <v>52.924999999999997</v>
+      </c>
+      <c r="AU31" s="55"/>
+      <c r="AV31" s="55"/>
+      <c r="AW31" s="55"/>
+      <c r="AX31" s="55"/>
+      <c r="AY31" s="55"/>
+    </row>
+    <row r="32" spans="2:97" x14ac:dyDescent="0.35">
+      <c r="AU32" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV32" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+    </row>
+    <row r="33" spans="1:48" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV33" s="60">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU34" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV34" s="61">
+        <f>NPV(AV33,AG28:CS28)</f>
+        <v>48706.663520172238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU35" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV35" s="61">
+        <f>AV34/AF31</f>
+        <v>920.29595692342446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU36" s="51"/>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU37" s="51"/>
+    </row>
+    <row r="40" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="R41" s="52" t="e">
+        <f>R18/R16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="52" t="e">
+        <f t="shared" ref="S41:AE41" si="17">S18/S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="52" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" s="52" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V41" s="52" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W41" s="52" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" s="52" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y41" s="52" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z41" s="52" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA41" s="52">
+        <f t="shared" si="17"/>
+        <v>0.12795566839617536</v>
+      </c>
+      <c r="AB41" s="52">
+        <f t="shared" si="17"/>
+        <v>0.14156315350421098</v>
+      </c>
+      <c r="AC41" s="52">
+        <f t="shared" si="17"/>
+        <v>0.15758182674653617</v>
+      </c>
+      <c r="AD41" s="52">
+        <f t="shared" si="17"/>
+        <v>0.15025993542514776</v>
+      </c>
+      <c r="AE41" s="52">
+        <f t="shared" si="17"/>
+        <v>0.15396184714725417</v>
+      </c>
+      <c r="AF41" s="52">
+        <f>AF18/AF16</f>
+        <v>0.18011023260815423</v>
+      </c>
+      <c r="AG41" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="AH41" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="AI41" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="AJ41" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="AK41" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="AL41" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="AM41" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="AN41" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="AO41" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="AP41" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="AQ41" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="AR41" s="52">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="R42" s="52" t="e">
+        <f>R22/R16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S42" s="52" t="e">
+        <f t="shared" ref="S42:AE42" si="18">S22/S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T42" s="52" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U42" s="52" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V42" s="52" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W42" s="52" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X42" s="52" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y42" s="52" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z42" s="52" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA42" s="52">
+        <f t="shared" si="18"/>
+        <v>2.8130999865495915E-2</v>
+      </c>
+      <c r="AB42" s="52">
+        <f t="shared" si="18"/>
+        <v>2.7777999977145192E-2</v>
+      </c>
+      <c r="AC42" s="52">
+        <f t="shared" si="18"/>
+        <v>2.5650431934299629E-2</v>
+      </c>
+      <c r="AD42" s="52">
+        <f t="shared" si="18"/>
+        <v>3.4841803980522973E-2</v>
+      </c>
+      <c r="AE42" s="52">
+        <f t="shared" si="18"/>
+        <v>6.4503582399026677E-2</v>
+      </c>
+      <c r="AF42" s="52">
+        <f>AF22/AF16</f>
+        <v>0.10684971198074196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="R43" s="52" t="e">
+        <f>R28/R16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S43" s="52" t="e">
+        <f t="shared" ref="S43:AE43" si="19">S28/S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" s="52" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U43" s="52" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V43" s="52" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W43" s="52" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X43" s="52" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y43" s="52" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z43" s="52" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA43" s="52">
+        <f t="shared" si="19"/>
+        <v>1.3684008174993456E-2</v>
+      </c>
+      <c r="AB43" s="52">
+        <f t="shared" si="19"/>
+        <v>2.0545886708795646E-2</v>
+      </c>
+      <c r="AC43" s="52">
+        <f t="shared" si="19"/>
+        <v>2.5247351151340667E-2</v>
+      </c>
+      <c r="AD43" s="52">
+        <f t="shared" si="19"/>
+        <v>3.1445524315079854E-2</v>
+      </c>
+      <c r="AE43" s="52">
+        <f t="shared" si="19"/>
+        <v>5.4880209172304101E-2</v>
+      </c>
+      <c r="AF43" s="52">
+        <f>AF28/AF16</f>
+        <v>8.984342207925837E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="R44" s="52" t="e">
+        <f>R26/R25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S44" s="52" t="e">
+        <f t="shared" ref="S44:AE44" si="20">S26/S25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44" s="52" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U44" s="52" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V44" s="52" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W44" s="52" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X44" s="52" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y44" s="52" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z44" s="52" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA44" s="52">
+        <f t="shared" si="20"/>
+        <v>-0.43667859374112511</v>
+      </c>
+      <c r="AB44" s="52">
+        <f t="shared" si="20"/>
+        <v>-0.16625895021391163</v>
+      </c>
+      <c r="AC44" s="52">
+        <f t="shared" si="20"/>
+        <v>-3.4446173433300323E-2</v>
+      </c>
+      <c r="AD44" s="52">
+        <f t="shared" si="20"/>
+        <v>-5.8468489732609499E-2</v>
+      </c>
+      <c r="AE44" s="52">
+        <f t="shared" si="20"/>
+        <v>-0.15697986836206659</v>
+      </c>
+      <c r="AF44" s="52">
+        <f>AF26/AF25</f>
+        <v>-0.14671409272474906</v>
+      </c>
+      <c r="AG44" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AH44" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AI44" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AJ44" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AK44" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AL44" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AM44" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AN44" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AO44" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AP44" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AQ44" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AR44" s="52">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="R47" s="52" t="e">
+        <f>R16/Q16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S47" s="52" t="e">
+        <f t="shared" ref="S47:AE47" si="21">S16/R16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T47" s="52" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U47" s="52" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V47" s="52" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W47" s="52" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X47" s="52" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y47" s="52" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z47" s="52" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA47" s="52" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB47" s="52">
+        <f t="shared" si="21"/>
+        <v>4.1621286406871461E-2</v>
+      </c>
+      <c r="AC47" s="52">
+        <f t="shared" si="21"/>
+        <v>-4.6017838165217317E-2</v>
+      </c>
+      <c r="AD47" s="52">
+        <f t="shared" si="21"/>
+        <v>6.5325739283396578E-2</v>
+      </c>
+      <c r="AE47" s="52">
+        <f t="shared" si="21"/>
+        <v>0.46063610108668573</v>
+      </c>
+      <c r="AF47" s="52">
+        <f>AF16/AE16-1</f>
+        <v>0.37092884488921385</v>
+      </c>
+      <c r="AG47" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AH47" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AI47" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AJ47" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AK47" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AL47" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AM47" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AN47" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AO47" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AP47" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AQ47" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AR47" s="52">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="R48" s="52" t="e">
+        <f>R28/Q28-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S48" s="52" t="e">
+        <f t="shared" ref="S48:AE48" si="22">S28/R28-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T48" s="52" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U48" s="52" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V48" s="52" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W48" s="52" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X48" s="52" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y48" s="52" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z48" s="52" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA48" s="52" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB48" s="52">
+        <f t="shared" si="22"/>
+        <v>0.56394476459714604</v>
+      </c>
+      <c r="AC48" s="52">
+        <f t="shared" si="22"/>
+        <v>0.17227954058789297</v>
+      </c>
+      <c r="AD48" s="52">
+        <f t="shared" si="22"/>
+        <v>0.32686103335389283</v>
+      </c>
+      <c r="AE48" s="52">
+        <f t="shared" si="22"/>
+        <v>1.5491708756089944</v>
+      </c>
+      <c r="AF48" s="52">
+        <f>AF28/AE28-1</f>
+        <v>1.2443234220428288</v>
+      </c>
+      <c r="AG48" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AH48" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AI48" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AJ48" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AK48" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AL48" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AM48" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AN48" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AO48" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AP48" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AQ48" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AR48" s="52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="R49" s="52" t="e">
+        <f>R19/Q19-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S49" s="52" t="e">
+        <f t="shared" ref="S49:AE49" si="23">S19/R19-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T49" s="52" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U49" s="52" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V49" s="52" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W49" s="52" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X49" s="52" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y49" s="52" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z49" s="52" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA49" s="52" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB49" s="52">
+        <f t="shared" si="23"/>
+        <v>8.9658639403042972E-2</v>
+      </c>
+      <c r="AC49" s="52">
+        <f t="shared" si="23"/>
+        <v>0.23106938584935555</v>
+      </c>
+      <c r="AD49" s="52">
+        <f t="shared" si="23"/>
+        <v>1.3053215217764258E-2</v>
+      </c>
+      <c r="AE49" s="52">
+        <f t="shared" si="23"/>
+        <v>0.21350543078589301</v>
+      </c>
+      <c r="AF49" s="52">
+        <f>AF19/AE19-1</f>
+        <v>0.12849970434086355</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="R50" s="52" t="e">
+        <f>R20/Q20-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S50" s="52" t="e">
+        <f t="shared" ref="S50:AE50" si="24">S20/R20-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T50" s="52" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U50" s="52" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V50" s="52" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W50" s="52" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X50" s="52" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y50" s="52" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z50" s="52" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA50" s="52" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB50" s="52">
+        <f t="shared" si="24"/>
+        <v>0.28191551809152604</v>
+      </c>
+      <c r="AC50" s="52">
+        <f t="shared" si="24"/>
+        <v>3.1870758579004566E-3</v>
+      </c>
+      <c r="AD50" s="52">
+        <f t="shared" si="24"/>
+        <v>-0.14997398186947108</v>
+      </c>
+      <c r="AE50" s="52">
+        <f t="shared" si="24"/>
+        <v>3.4040016754196545E-2</v>
+      </c>
+      <c r="AF50" s="52">
+        <f>AF20/AE20-1</f>
+        <v>0.11450397536365098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SMCI/SMCI.xlsx
+++ b/SMCI/SMCI.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/SMCI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2195" documentId="11_F25DC773A252ABDACC10487F99996F625BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC6548F6-6AA6-46F6-B88D-50707EB21840}"/>
+  <xr:revisionPtr revIDLastSave="2397" documentId="11_F25DC773A252ABDACC10487F99996F625BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A820492-13BE-4AC8-AE27-975E07F1C436}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3470" yWindow="1290" windowWidth="29050" windowHeight="19020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="1" r:id="rId3"/>
     <sheet name="New Model" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="172">
   <si>
     <t>Ticker</t>
   </si>
@@ -647,6 +648,12 @@
   </si>
   <si>
     <t>Tax</t>
+  </si>
+  <si>
+    <t>OpEx/Revenue</t>
+  </si>
+  <si>
+    <t>Current Price</t>
   </si>
 </sst>
 </file>
@@ -803,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -859,14 +866,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,7 +900,7 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>9072</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -937,6 +941,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1061,11 +1069,11 @@
     <v>4</v>
     <v>1229</v>
     <v>226.59</v>
-    <v>1.2831999999999999</v>
-    <v>16.579999999999998</v>
-    <v>-1.8249999999999999E-4</v>
-    <v>2.3835000000000002E-2</v>
-    <v>-0.13</v>
+    <v>1.2932999999999999</v>
+    <v>35.340000000000003</v>
+    <v>1.1858E-2</v>
+    <v>5.3038000000000002E-2</v>
+    <v>8.32</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>5126</v>
@@ -1073,25 +1081,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Avenue, SAN JOSE, CA, 95131 US</v>
-    <v>724.29</v>
+    <v>720.56</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45499.999866145314</v>
+    <v>45504.864368055467</v>
     <v>0</v>
-    <v>697.55</v>
-    <v>41703375100</v>
+    <v>691.81</v>
+    <v>41086189274</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>710.61</v>
-    <v>39.967300000000002</v>
-    <v>695.61</v>
-    <v>712.19</v>
-    <v>712.06</v>
+    <v>710</v>
+    <v>37.392600000000002</v>
+    <v>666.31</v>
+    <v>701.65</v>
+    <v>709.97</v>
     <v>58556530</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>4382184</v>
-    <v>6819106</v>
+    <v>4847413</v>
+    <v>6202245</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1256,9 +1264,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -1664,7 +1672,7 @@
       </c>
       <c r="B2" s="1" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>712.19</v>
+        <v>701.65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1685,7 +1693,7 @@
       </c>
       <c r="B4" s="1">
         <f>B2*B3</f>
-        <v>41703.375100700003</v>
+        <v>41086.1892745</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -12725,13 +12733,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67142268-B714-40B5-B564-6DC7BD944DE6}">
-  <dimension ref="A1:CS50"/>
+  <dimension ref="B1:CS64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AB24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AV33" sqref="AV33"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12740,10 +12748,10 @@
     <col min="26" max="27" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="29" max="32" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:97" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>153</v>
       </c>
@@ -12822,8 +12830,220 @@
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
-    </row>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS1">
+        <f t="shared" ref="AS1" si="2">AR1+1</f>
+        <v>2036</v>
+      </c>
+      <c r="AT1">
+        <f t="shared" ref="AT1" si="3">AS1+1</f>
+        <v>2037</v>
+      </c>
+      <c r="AU1">
+        <f t="shared" ref="AU1" si="4">AT1+1</f>
+        <v>2038</v>
+      </c>
+      <c r="AV1">
+        <f t="shared" ref="AV1" si="5">AU1+1</f>
+        <v>2039</v>
+      </c>
+      <c r="AW1">
+        <f t="shared" ref="AW1" si="6">AV1+1</f>
+        <v>2040</v>
+      </c>
+      <c r="AX1">
+        <f t="shared" ref="AX1" si="7">AW1+1</f>
+        <v>2041</v>
+      </c>
+      <c r="AY1">
+        <f t="shared" ref="AY1" si="8">AX1+1</f>
+        <v>2042</v>
+      </c>
+      <c r="AZ1">
+        <f t="shared" ref="AZ1" si="9">AY1+1</f>
+        <v>2043</v>
+      </c>
+      <c r="BA1">
+        <f t="shared" ref="BA1" si="10">AZ1+1</f>
+        <v>2044</v>
+      </c>
+      <c r="BB1">
+        <f t="shared" ref="BB1" si="11">BA1+1</f>
+        <v>2045</v>
+      </c>
+      <c r="BC1">
+        <f t="shared" ref="BC1" si="12">BB1+1</f>
+        <v>2046</v>
+      </c>
+      <c r="BD1">
+        <f t="shared" ref="BD1" si="13">BC1+1</f>
+        <v>2047</v>
+      </c>
+      <c r="BE1">
+        <f t="shared" ref="BE1" si="14">BD1+1</f>
+        <v>2048</v>
+      </c>
+      <c r="BF1">
+        <f t="shared" ref="BF1" si="15">BE1+1</f>
+        <v>2049</v>
+      </c>
+      <c r="BG1">
+        <f t="shared" ref="BG1" si="16">BF1+1</f>
+        <v>2050</v>
+      </c>
+      <c r="BH1">
+        <f t="shared" ref="BH1" si="17">BG1+1</f>
+        <v>2051</v>
+      </c>
+      <c r="BI1">
+        <f t="shared" ref="BI1" si="18">BH1+1</f>
+        <v>2052</v>
+      </c>
+      <c r="BJ1">
+        <f t="shared" ref="BJ1" si="19">BI1+1</f>
+        <v>2053</v>
+      </c>
+      <c r="BK1">
+        <f t="shared" ref="BK1" si="20">BJ1+1</f>
+        <v>2054</v>
+      </c>
+      <c r="BL1">
+        <f t="shared" ref="BL1" si="21">BK1+1</f>
+        <v>2055</v>
+      </c>
+      <c r="BM1">
+        <f t="shared" ref="BM1" si="22">BL1+1</f>
+        <v>2056</v>
+      </c>
+      <c r="BN1">
+        <f t="shared" ref="BN1" si="23">BM1+1</f>
+        <v>2057</v>
+      </c>
+      <c r="BO1">
+        <f t="shared" ref="BO1" si="24">BN1+1</f>
+        <v>2058</v>
+      </c>
+      <c r="BP1">
+        <f t="shared" ref="BP1" si="25">BO1+1</f>
+        <v>2059</v>
+      </c>
+      <c r="BQ1">
+        <f t="shared" ref="BQ1" si="26">BP1+1</f>
+        <v>2060</v>
+      </c>
+      <c r="BR1">
+        <f t="shared" ref="BR1" si="27">BQ1+1</f>
+        <v>2061</v>
+      </c>
+      <c r="BS1">
+        <f t="shared" ref="BS1" si="28">BR1+1</f>
+        <v>2062</v>
+      </c>
+      <c r="BT1">
+        <f t="shared" ref="BT1" si="29">BS1+1</f>
+        <v>2063</v>
+      </c>
+      <c r="BU1">
+        <f t="shared" ref="BU1" si="30">BT1+1</f>
+        <v>2064</v>
+      </c>
+      <c r="BV1">
+        <f t="shared" ref="BV1" si="31">BU1+1</f>
+        <v>2065</v>
+      </c>
+      <c r="BW1">
+        <f t="shared" ref="BW1" si="32">BV1+1</f>
+        <v>2066</v>
+      </c>
+      <c r="BX1">
+        <f t="shared" ref="BX1" si="33">BW1+1</f>
+        <v>2067</v>
+      </c>
+      <c r="BY1">
+        <f t="shared" ref="BY1" si="34">BX1+1</f>
+        <v>2068</v>
+      </c>
+      <c r="BZ1">
+        <f t="shared" ref="BZ1" si="35">BY1+1</f>
+        <v>2069</v>
+      </c>
+      <c r="CA1">
+        <f t="shared" ref="CA1" si="36">BZ1+1</f>
+        <v>2070</v>
+      </c>
+      <c r="CB1">
+        <f t="shared" ref="CB1" si="37">CA1+1</f>
+        <v>2071</v>
+      </c>
+      <c r="CC1">
+        <f t="shared" ref="CC1" si="38">CB1+1</f>
+        <v>2072</v>
+      </c>
+      <c r="CD1">
+        <f t="shared" ref="CD1" si="39">CC1+1</f>
+        <v>2073</v>
+      </c>
+      <c r="CE1">
+        <f t="shared" ref="CE1" si="40">CD1+1</f>
+        <v>2074</v>
+      </c>
+      <c r="CF1">
+        <f t="shared" ref="CF1" si="41">CE1+1</f>
+        <v>2075</v>
+      </c>
+      <c r="CG1">
+        <f t="shared" ref="CG1" si="42">CF1+1</f>
+        <v>2076</v>
+      </c>
+      <c r="CH1">
+        <f t="shared" ref="CH1" si="43">CG1+1</f>
+        <v>2077</v>
+      </c>
+      <c r="CI1">
+        <f t="shared" ref="CI1" si="44">CH1+1</f>
+        <v>2078</v>
+      </c>
+      <c r="CJ1">
+        <f t="shared" ref="CJ1" si="45">CI1+1</f>
+        <v>2079</v>
+      </c>
+      <c r="CK1">
+        <f t="shared" ref="CK1" si="46">CJ1+1</f>
+        <v>2080</v>
+      </c>
+      <c r="CL1">
+        <f t="shared" ref="CL1" si="47">CK1+1</f>
+        <v>2081</v>
+      </c>
+      <c r="CM1">
+        <f t="shared" ref="CM1" si="48">CL1+1</f>
+        <v>2082</v>
+      </c>
+      <c r="CN1">
+        <f t="shared" ref="CN1" si="49">CM1+1</f>
+        <v>2083</v>
+      </c>
+      <c r="CO1">
+        <f t="shared" ref="CO1" si="50">CN1+1</f>
+        <v>2084</v>
+      </c>
+      <c r="CP1">
+        <f t="shared" ref="CP1" si="51">CO1+1</f>
+        <v>2085</v>
+      </c>
+      <c r="CQ1">
+        <f t="shared" ref="CQ1" si="52">CP1+1</f>
+        <v>2086</v>
+      </c>
+      <c r="CR1">
+        <f t="shared" ref="CR1" si="53">CQ1+1</f>
+        <v>2087</v>
+      </c>
+      <c r="CS1">
+        <f t="shared" ref="CS1" si="54">CR1+1</f>
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="2" spans="2:97" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -12849,7 +13069,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:97" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>154</v>
       </c>
@@ -12858,19 +13078,19 @@
         <v>42916</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AD3" si="2">DATE(YEAR(AB3)-1, MONTH(AB3),DAY(AB3))</f>
+        <f t="shared" ref="AA3:AD3" si="55">DATE(YEAR(AB3)-1, MONTH(AB3),DAY(AB3))</f>
         <v>43281</v>
       </c>
       <c r="AB3" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="55"/>
         <v>43646</v>
       </c>
       <c r="AC3" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="55"/>
         <v>44012</v>
       </c>
       <c r="AD3" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="55"/>
         <v>44377</v>
       </c>
       <c r="AE3" s="3">
@@ -12881,7 +13101,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="7" spans="2:44" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>155</v>
       </c>
@@ -12904,7 +13124,7 @@
         <v>6569.8140000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:44" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:97" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="49" t="s">
         <v>156</v>
       </c>
@@ -12927,7 +13147,7 @@
         <v>553.66800000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:44" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:97" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
         <v>30</v>
       </c>
@@ -12936,116 +13156,116 @@
         <v>0</v>
       </c>
       <c r="S9" s="23">
-        <f t="shared" ref="S9:AR9" si="3">SUM(S7:S8)</f>
+        <f t="shared" ref="S9:AR9" si="56">SUM(S7:S8)</f>
         <v>0</v>
       </c>
       <c r="T9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="U9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="W9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="X9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Y9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Z9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AA9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>3360.4920000000002</v>
       </c>
       <c r="AB9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>3500.3599999999997</v>
       </c>
       <c r="AC9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>3339.2809999999999</v>
       </c>
       <c r="AD9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>3557.4219999999996</v>
       </c>
       <c r="AE9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>5196.0989999999993</v>
       </c>
       <c r="AF9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>7123.482</v>
       </c>
       <c r="AG9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AH9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AI9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AJ9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AK9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AL9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AM9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AN9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AO9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AP9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AQ9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AR9" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:97" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:44" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:97" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="52" t="s">
         <v>155</v>
       </c>
@@ -13054,111 +13274,111 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S12" s="52" t="e">
-        <f t="shared" ref="S12:AR12" si="4">S7/R7-1</f>
+        <f t="shared" ref="S12:AR12" si="57">S7/R7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB12" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>7.3233768086560236E-2</v>
       </c>
       <c r="AC12" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>-8.3217777379764657E-2</v>
       </c>
       <c r="AD12" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>6.4695503660396891E-2</v>
       </c>
       <c r="AE12" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>0.59976525863660068</v>
       </c>
       <c r="AF12" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>0.47178758703562629</v>
       </c>
       <c r="AG12" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>-1</v>
       </c>
       <c r="AH12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ12" s="52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR12" s="52" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:44" s="53" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:97" s="53" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
         <v>156</v>
       </c>
@@ -13167,111 +13387,111 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S13" s="53" t="e">
-        <f t="shared" ref="S13:AR13" si="5">S8/R8-1</f>
+        <f t="shared" ref="S13:AR13" si="58">S8/R8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB13" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>-7.9200817319833861E-2</v>
       </c>
       <c r="AC13" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>0.11969625192452749</v>
       </c>
       <c r="AD13" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>6.7624459484473043E-2</v>
       </c>
       <c r="AE13" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>-4.5431140230238642E-2</v>
       </c>
       <c r="AF13" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>-0.24389770930235732</v>
       </c>
       <c r="AG13" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>-1</v>
       </c>
       <c r="AH13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ13" s="53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR13" s="53" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:44" s="52" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:97" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="54" t="s">
         <v>30</v>
       </c>
@@ -13280,116 +13500,116 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S14" s="52" t="e">
-        <f t="shared" ref="S14:AR14" si="6">S9/R9-1</f>
+        <f t="shared" ref="S14:AR14" si="59">S9/R9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB14" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>4.1621286406871238E-2</v>
       </c>
       <c r="AC14" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>-4.6017838165217206E-2</v>
       </c>
       <c r="AD14" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>6.5325739283396578E-2</v>
       </c>
       <c r="AE14" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>0.46063610108668573</v>
       </c>
       <c r="AF14" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>0.37092884488921429</v>
       </c>
       <c r="AG14" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="AH14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" s="52" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="2:44" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>72</v>
       </c>
@@ -13412,52 +13632,264 @@
         <v>7123.482</v>
       </c>
       <c r="AG16" s="15">
-        <f>AF16*(1+AG47)</f>
+        <f>AF16*(1+AG34)</f>
         <v>8548.1783999999989</v>
       </c>
       <c r="AH16" s="15">
-        <f t="shared" ref="AH16:AR16" si="7">AG16*(1+AH47)</f>
+        <f t="shared" ref="AH16:AM16" si="60">AG16*(1+AH34)</f>
         <v>10257.814079999998</v>
       </c>
       <c r="AI16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="60"/>
         <v>12309.376895999998</v>
       </c>
       <c r="AJ16" s="15">
-        <f t="shared" si="7"/>
-        <v>14771.252275199997</v>
+        <f t="shared" si="60"/>
+        <v>13540.314585599999</v>
       </c>
       <c r="AK16" s="15">
-        <f t="shared" si="7"/>
-        <v>17725.502730239994</v>
+        <f t="shared" si="60"/>
+        <v>14894.34604416</v>
       </c>
       <c r="AL16" s="15">
-        <f t="shared" si="7"/>
-        <v>21270.603276287991</v>
+        <f t="shared" si="60"/>
+        <v>16383.780648576001</v>
       </c>
       <c r="AM16" s="15">
-        <f t="shared" si="7"/>
-        <v>25524.723931545588</v>
+        <f t="shared" si="60"/>
+        <v>18022.158713433604</v>
       </c>
       <c r="AN16" s="15">
-        <f t="shared" si="7"/>
-        <v>30629.668717854704</v>
+        <f>AM16*(1+$AV$49)</f>
+        <v>18202.38030056794</v>
       </c>
       <c r="AO16" s="15">
-        <f t="shared" si="7"/>
-        <v>36755.602461425646</v>
+        <f t="shared" ref="AO16:CS16" si="61">AN16*(1+$AV$49)</f>
+        <v>18384.404103573619</v>
       </c>
       <c r="AP16" s="15">
-        <f t="shared" si="7"/>
-        <v>44106.722953710771</v>
+        <f t="shared" si="61"/>
+        <v>18568.248144609355</v>
       </c>
       <c r="AQ16" s="15">
-        <f t="shared" si="7"/>
-        <v>52928.067544452926</v>
+        <f t="shared" si="61"/>
+        <v>18753.930626055448</v>
       </c>
       <c r="AR16" s="15">
-        <f t="shared" si="7"/>
-        <v>63513.681053343505</v>
+        <f t="shared" si="61"/>
+        <v>18941.469932316002</v>
+      </c>
+      <c r="AS16" s="15">
+        <f t="shared" si="61"/>
+        <v>19130.884631639161</v>
+      </c>
+      <c r="AT16" s="15">
+        <f t="shared" si="61"/>
+        <v>19322.193477955552</v>
+      </c>
+      <c r="AU16" s="15">
+        <f t="shared" si="61"/>
+        <v>19515.415412735107</v>
+      </c>
+      <c r="AV16" s="15">
+        <f t="shared" si="61"/>
+        <v>19710.569566862458</v>
+      </c>
+      <c r="AW16" s="15">
+        <f t="shared" si="61"/>
+        <v>19907.675262531084</v>
+      </c>
+      <c r="AX16" s="15">
+        <f t="shared" si="61"/>
+        <v>20106.752015156395</v>
+      </c>
+      <c r="AY16" s="15">
+        <f t="shared" si="61"/>
+        <v>20307.819535307957</v>
+      </c>
+      <c r="AZ16" s="15">
+        <f t="shared" si="61"/>
+        <v>20510.897730661036</v>
+      </c>
+      <c r="BA16" s="15">
+        <f t="shared" si="61"/>
+        <v>20716.006707967645</v>
+      </c>
+      <c r="BB16" s="15">
+        <f t="shared" si="61"/>
+        <v>20923.166775047321</v>
+      </c>
+      <c r="BC16" s="15">
+        <f t="shared" si="61"/>
+        <v>21132.398442797796</v>
+      </c>
+      <c r="BD16" s="15">
+        <f t="shared" si="61"/>
+        <v>21343.722427225774</v>
+      </c>
+      <c r="BE16" s="15">
+        <f t="shared" si="61"/>
+        <v>21557.15965149803</v>
+      </c>
+      <c r="BF16" s="15">
+        <f t="shared" si="61"/>
+        <v>21772.731248013009</v>
+      </c>
+      <c r="BG16" s="15">
+        <f t="shared" si="61"/>
+        <v>21990.458560493138</v>
+      </c>
+      <c r="BH16" s="15">
+        <f t="shared" si="61"/>
+        <v>22210.363146098069</v>
+      </c>
+      <c r="BI16" s="15">
+        <f t="shared" si="61"/>
+        <v>22432.46677755905</v>
+      </c>
+      <c r="BJ16" s="15">
+        <f t="shared" si="61"/>
+        <v>22656.791445334642</v>
+      </c>
+      <c r="BK16" s="15">
+        <f t="shared" si="61"/>
+        <v>22883.359359787988</v>
+      </c>
+      <c r="BL16" s="15">
+        <f t="shared" si="61"/>
+        <v>23112.192953385867</v>
+      </c>
+      <c r="BM16" s="15">
+        <f t="shared" si="61"/>
+        <v>23343.314882919727</v>
+      </c>
+      <c r="BN16" s="15">
+        <f t="shared" si="61"/>
+        <v>23576.748031748924</v>
+      </c>
+      <c r="BO16" s="15">
+        <f t="shared" si="61"/>
+        <v>23812.515512066413</v>
+      </c>
+      <c r="BP16" s="15">
+        <f t="shared" si="61"/>
+        <v>24050.640667187079</v>
+      </c>
+      <c r="BQ16" s="15">
+        <f t="shared" si="61"/>
+        <v>24291.147073858949</v>
+      </c>
+      <c r="BR16" s="15">
+        <f t="shared" si="61"/>
+        <v>24534.058544597538</v>
+      </c>
+      <c r="BS16" s="15">
+        <f t="shared" si="61"/>
+        <v>24779.399130043512</v>
+      </c>
+      <c r="BT16" s="15">
+        <f t="shared" si="61"/>
+        <v>25027.193121343946</v>
+      </c>
+      <c r="BU16" s="15">
+        <f t="shared" si="61"/>
+        <v>25277.465052557385</v>
+      </c>
+      <c r="BV16" s="15">
+        <f t="shared" si="61"/>
+        <v>25530.23970308296</v>
+      </c>
+      <c r="BW16" s="15">
+        <f t="shared" si="61"/>
+        <v>25785.542100113791</v>
+      </c>
+      <c r="BX16" s="15">
+        <f t="shared" si="61"/>
+        <v>26043.39752111493</v>
+      </c>
+      <c r="BY16" s="15">
+        <f t="shared" si="61"/>
+        <v>26303.831496326078</v>
+      </c>
+      <c r="BZ16" s="15">
+        <f t="shared" si="61"/>
+        <v>26566.86981128934</v>
+      </c>
+      <c r="CA16" s="15">
+        <f t="shared" si="61"/>
+        <v>26832.538509402235</v>
+      </c>
+      <c r="CB16" s="15">
+        <f t="shared" si="61"/>
+        <v>27100.863894496259</v>
+      </c>
+      <c r="CC16" s="15">
+        <f t="shared" si="61"/>
+        <v>27371.872533441223</v>
+      </c>
+      <c r="CD16" s="15">
+        <f t="shared" si="61"/>
+        <v>27645.591258775636</v>
+      </c>
+      <c r="CE16" s="15">
+        <f t="shared" si="61"/>
+        <v>27922.047171363392</v>
+      </c>
+      <c r="CF16" s="15">
+        <f t="shared" si="61"/>
+        <v>28201.267643077026</v>
+      </c>
+      <c r="CG16" s="15">
+        <f t="shared" si="61"/>
+        <v>28483.280319507798</v>
+      </c>
+      <c r="CH16" s="15">
+        <f t="shared" si="61"/>
+        <v>28768.113122702875</v>
+      </c>
+      <c r="CI16" s="15">
+        <f t="shared" si="61"/>
+        <v>29055.794253929904</v>
+      </c>
+      <c r="CJ16" s="15">
+        <f t="shared" si="61"/>
+        <v>29346.352196469205</v>
+      </c>
+      <c r="CK16" s="15">
+        <f t="shared" si="61"/>
+        <v>29639.815718433896</v>
+      </c>
+      <c r="CL16" s="15">
+        <f t="shared" si="61"/>
+        <v>29936.213875618236</v>
+      </c>
+      <c r="CM16" s="15">
+        <f t="shared" si="61"/>
+        <v>30235.576014374419</v>
+      </c>
+      <c r="CN16" s="15">
+        <f t="shared" si="61"/>
+        <v>30537.931774518165</v>
+      </c>
+      <c r="CO16" s="15">
+        <f t="shared" si="61"/>
+        <v>30843.311092263346</v>
+      </c>
+      <c r="CP16" s="15">
+        <f t="shared" si="61"/>
+        <v>31151.744203185979</v>
+      </c>
+      <c r="CQ16" s="15">
+        <f t="shared" si="61"/>
+        <v>31463.261645217841</v>
+      </c>
+      <c r="CR16" s="15">
+        <f t="shared" si="61"/>
+        <v>31777.894261670019</v>
+      </c>
+      <c r="CS16" s="15">
+        <f t="shared" si="61"/>
+        <v>32095.673204286719</v>
       </c>
     </row>
     <row r="17" spans="2:97" s="49" customFormat="1" x14ac:dyDescent="0.35">
@@ -13492,108 +13924,88 @@
         <v>0</v>
       </c>
       <c r="S18" s="23">
-        <f t="shared" ref="S18:AR18" si="8">S16-S17</f>
+        <f t="shared" ref="S18:AF18" si="62">S16-S17</f>
         <v>0</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="V18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="X18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Y18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Z18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AA18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>429.99400000000014</v>
       </c>
       <c r="AB18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>495.52199999999993</v>
       </c>
       <c r="AC18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>526.21</v>
       </c>
       <c r="AD18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>534.53800000000001</v>
       </c>
       <c r="AE18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>800.0010000000002</v>
       </c>
       <c r="AF18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="62"/>
         <v>1283.0119999999997</v>
       </c>
       <c r="AG18" s="23">
-        <f>AG16*AG41</f>
+        <f>AG16*AG38</f>
         <v>1282.2267599999998</v>
       </c>
       <c r="AH18" s="23">
-        <f t="shared" ref="AH18:AR18" si="9">AH16*AH41</f>
+        <f>AH16*AH38</f>
         <v>1538.6721119999997</v>
       </c>
       <c r="AI18" s="23">
-        <f t="shared" si="9"/>
+        <f>AI16*AI38</f>
         <v>1846.4065343999996</v>
       </c>
       <c r="AJ18" s="23">
-        <f t="shared" si="9"/>
-        <v>2215.6878412799992</v>
+        <f>AJ16*AJ38</f>
+        <v>2031.0471878399999</v>
       </c>
       <c r="AK18" s="23">
-        <f t="shared" si="9"/>
-        <v>2658.8254095359989</v>
+        <f>AK16*AK38</f>
+        <v>2234.1519066239998</v>
       </c>
       <c r="AL18" s="23">
-        <f t="shared" si="9"/>
-        <v>3190.5904914431985</v>
+        <f>AL16*AL38</f>
+        <v>2457.5670972864</v>
       </c>
       <c r="AM18" s="23">
-        <f t="shared" si="9"/>
-        <v>3828.7085897318379</v>
-      </c>
-      <c r="AN18" s="23">
-        <f t="shared" si="9"/>
-        <v>4594.4503076782057</v>
-      </c>
-      <c r="AO18" s="23">
-        <f t="shared" si="9"/>
-        <v>5513.3403692138463</v>
-      </c>
-      <c r="AP18" s="23">
-        <f t="shared" si="9"/>
-        <v>6616.0084430566158</v>
-      </c>
-      <c r="AQ18" s="23">
-        <f t="shared" si="9"/>
-        <v>7939.2101316679382</v>
-      </c>
-      <c r="AR18" s="23">
-        <f t="shared" si="9"/>
-        <v>9527.0521580015247</v>
+        <f>AM16*AM38</f>
+        <v>2703.3238070150405</v>
       </c>
     </row>
     <row r="19" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -13619,7 +14031,8 @@
         <v>307.26</v>
       </c>
       <c r="AG19" s="15">
-        <v>0</v>
+        <f>AG16*AG44</f>
+        <v>427.40891999999997</v>
       </c>
       <c r="AH19" s="15">
         <v>0</v>
@@ -13637,21 +14050,6 @@
         <v>0</v>
       </c>
       <c r="AM19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="15">
         <v>0</v>
       </c>
     </row>
@@ -13684,7 +14082,8 @@
         <v>214.61</v>
       </c>
       <c r="AG20" s="49">
-        <v>0</v>
+        <f>AG16*AG45</f>
+        <v>427.40891999999997</v>
       </c>
       <c r="AH20" s="49">
         <v>0</v>
@@ -13702,21 +14101,6 @@
         <v>0</v>
       </c>
       <c r="AM20" s="49">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="49">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="49">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="49">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="49">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="49">
         <v>0</v>
       </c>
     </row>
@@ -13729,107 +14113,87 @@
         <v>0</v>
       </c>
       <c r="S21" s="50">
-        <f t="shared" ref="S21:AR21" si="10">SUM(S19:S20)</f>
+        <f t="shared" ref="S21:AR21" si="63">SUM(S19:S20)</f>
         <v>0</v>
       </c>
       <c r="T21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="U21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="V21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="X21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Y21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Z21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AA21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>335.46000000000004</v>
       </c>
       <c r="AB21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>398.28899999999999</v>
       </c>
       <c r="AC21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>440.55600000000004</v>
       </c>
       <c r="AD21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>410.59100000000001</v>
       </c>
       <c r="AE21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>464.83400000000006</v>
       </c>
       <c r="AF21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>521.87</v>
       </c>
       <c r="AG21" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="63"/>
+        <v>854.81783999999993</v>
       </c>
       <c r="AH21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AI21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AJ21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AK21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AL21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AM21" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN21" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO21" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP21" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR21" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
@@ -13842,108 +14206,88 @@
         <v>0</v>
       </c>
       <c r="S22" s="15">
-        <f t="shared" ref="S22:AR22" si="11">S18-S21</f>
+        <f t="shared" ref="S22:AR22" si="64">S18-S21</f>
         <v>0</v>
       </c>
       <c r="T22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="U22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="V22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="W22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="X22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Y22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Z22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AA22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>94.534000000000106</v>
       </c>
       <c r="AB22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>97.232999999999947</v>
       </c>
       <c r="AC22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>85.653999999999996</v>
       </c>
       <c r="AD22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>123.947</v>
       </c>
       <c r="AE22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>335.16700000000014</v>
       </c>
       <c r="AF22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>761.14199999999971</v>
       </c>
       <c r="AG22" s="15">
-        <f t="shared" si="11"/>
-        <v>1282.2267599999998</v>
+        <f t="shared" si="64"/>
+        <v>427.40891999999985</v>
       </c>
       <c r="AH22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>1538.6721119999997</v>
       </c>
       <c r="AI22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="64"/>
         <v>1846.4065343999996</v>
       </c>
       <c r="AJ22" s="15">
-        <f t="shared" si="11"/>
-        <v>2215.6878412799992</v>
+        <f t="shared" si="64"/>
+        <v>2031.0471878399999</v>
       </c>
       <c r="AK22" s="15">
-        <f t="shared" si="11"/>
-        <v>2658.8254095359989</v>
+        <f t="shared" si="64"/>
+        <v>2234.1519066239998</v>
       </c>
       <c r="AL22" s="15">
-        <f t="shared" si="11"/>
-        <v>3190.5904914431985</v>
+        <f t="shared" si="64"/>
+        <v>2457.5670972864</v>
       </c>
       <c r="AM22" s="15">
-        <f t="shared" si="11"/>
-        <v>3828.7085897318379</v>
-      </c>
-      <c r="AN22" s="15">
-        <f t="shared" si="11"/>
-        <v>4594.4503076782057</v>
-      </c>
-      <c r="AO22" s="15">
-        <f t="shared" si="11"/>
-        <v>5513.3403692138463</v>
-      </c>
-      <c r="AP22" s="15">
-        <f t="shared" si="11"/>
-        <v>6616.0084430566158</v>
-      </c>
-      <c r="AQ22" s="15">
-        <f t="shared" si="11"/>
-        <v>7939.2101316679382</v>
-      </c>
-      <c r="AR22" s="15">
-        <f t="shared" si="11"/>
-        <v>9527.0521580015247</v>
+        <f t="shared" si="64"/>
+        <v>2703.3238070150405</v>
       </c>
     </row>
     <row r="23" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -13989,21 +14333,6 @@
       <c r="AM23" s="15">
         <v>0</v>
       </c>
-      <c r="AN23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="15">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="2:97" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="49" t="s">
@@ -14048,21 +14377,6 @@
       <c r="AM24" s="49">
         <v>0</v>
       </c>
-      <c r="AN24" s="49">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="49">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="49">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="49">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="49">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -14073,108 +14387,88 @@
         <v>0</v>
       </c>
       <c r="S25" s="15">
-        <f t="shared" ref="S25:AR25" si="12">S22+SUM(S23:S24)</f>
+        <f t="shared" ref="S25:AR25" si="65">S22+SUM(S23:S24)</f>
         <v>0</v>
       </c>
       <c r="T25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="U25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="V25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="W25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="X25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Y25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Z25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AA25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>88.03500000000011</v>
       </c>
       <c r="AB25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>89.522999999999939</v>
       </c>
       <c r="AC25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>84.828000000000003</v>
       </c>
       <c r="AD25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>118.628</v>
       </c>
       <c r="AE25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>336.83300000000014</v>
       </c>
       <c r="AF25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>754.29699999999968</v>
       </c>
       <c r="AG25" s="15">
-        <f t="shared" si="12"/>
-        <v>1282.2267599999998</v>
+        <f t="shared" si="65"/>
+        <v>427.40891999999985</v>
       </c>
       <c r="AH25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>1538.6721119999997</v>
       </c>
       <c r="AI25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="65"/>
         <v>1846.4065343999996</v>
       </c>
       <c r="AJ25" s="15">
-        <f t="shared" si="12"/>
-        <v>2215.6878412799992</v>
+        <f t="shared" si="65"/>
+        <v>2031.0471878399999</v>
       </c>
       <c r="AK25" s="15">
-        <f t="shared" si="12"/>
-        <v>2658.8254095359989</v>
+        <f t="shared" si="65"/>
+        <v>2234.1519066239998</v>
       </c>
       <c r="AL25" s="15">
-        <f t="shared" si="12"/>
-        <v>3190.5904914431985</v>
+        <f t="shared" si="65"/>
+        <v>2457.5670972864</v>
       </c>
       <c r="AM25" s="15">
-        <f t="shared" si="12"/>
-        <v>3828.7085897318379</v>
-      </c>
-      <c r="AN25" s="15">
-        <f t="shared" si="12"/>
-        <v>4594.4503076782057</v>
-      </c>
-      <c r="AO25" s="15">
-        <f t="shared" si="12"/>
-        <v>5513.3403692138463</v>
-      </c>
-      <c r="AP25" s="15">
-        <f t="shared" si="12"/>
-        <v>6616.0084430566158</v>
-      </c>
-      <c r="AQ25" s="15">
-        <f t="shared" si="12"/>
-        <v>7939.2101316679382</v>
-      </c>
-      <c r="AR25" s="15">
-        <f t="shared" si="12"/>
-        <v>9527.0521580015247</v>
+        <f t="shared" si="65"/>
+        <v>2703.3238070150405</v>
       </c>
     </row>
     <row r="26" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -14200,52 +14494,32 @@
         <v>-110.666</v>
       </c>
       <c r="AG26" s="15">
-        <f>AG25*AG44</f>
-        <v>-192.33401399999997</v>
+        <f>AG25*AG41</f>
+        <v>-64.111337999999975</v>
       </c>
       <c r="AH26" s="15">
-        <f t="shared" ref="AH26:AR26" si="13">AH25*AH44</f>
+        <f>AH25*AH41</f>
         <v>-230.80081679999995</v>
       </c>
       <c r="AI26" s="15">
-        <f t="shared" si="13"/>
+        <f>AI25*AI41</f>
         <v>-276.96098015999991</v>
       </c>
       <c r="AJ26" s="15">
-        <f t="shared" si="13"/>
-        <v>-332.35317619199986</v>
+        <f>AJ25*AJ41</f>
+        <v>-304.65707817599997</v>
       </c>
       <c r="AK26" s="15">
-        <f t="shared" si="13"/>
-        <v>-398.82381143039981</v>
+        <f>AK25*AK41</f>
+        <v>-335.12278599359996</v>
       </c>
       <c r="AL26" s="15">
-        <f t="shared" si="13"/>
-        <v>-478.58857371647974</v>
+        <f>AL25*AL41</f>
+        <v>-368.63506459295996</v>
       </c>
       <c r="AM26" s="15">
-        <f t="shared" si="13"/>
-        <v>-574.30628845977571</v>
-      </c>
-      <c r="AN26" s="15">
-        <f t="shared" si="13"/>
-        <v>-689.16754615173079</v>
-      </c>
-      <c r="AO26" s="15">
-        <f t="shared" si="13"/>
-        <v>-827.00105538207697</v>
-      </c>
-      <c r="AP26" s="15">
-        <f t="shared" si="13"/>
-        <v>-992.40126645849227</v>
-      </c>
-      <c r="AQ26" s="15">
-        <f t="shared" si="13"/>
-        <v>-1190.8815197501906</v>
-      </c>
-      <c r="AR26" s="15">
-        <f t="shared" si="13"/>
-        <v>-1429.0578237002287</v>
+        <f>AM25*AM41</f>
+        <v>-405.49857105225607</v>
       </c>
     </row>
     <row r="27" spans="2:97" s="49" customFormat="1" x14ac:dyDescent="0.35">
@@ -14270,6 +14544,27 @@
       <c r="AF27" s="49">
         <v>-3.633</v>
       </c>
+      <c r="AG27" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="49">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="49">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="49">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="49">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="49">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="49">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -14280,320 +14575,320 @@
         <v>0</v>
       </c>
       <c r="S28" s="15">
-        <f t="shared" ref="S28:AR28" si="14">SUM(S25:S27)</f>
+        <f t="shared" ref="S28:AR28" si="66">SUM(S25:S27)</f>
         <v>0</v>
       </c>
       <c r="T28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="U28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="V28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="W28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="X28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Y28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Z28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AA28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>45.985000000000113</v>
       </c>
       <c r="AB28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>71.917999999999935</v>
       </c>
       <c r="AC28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>84.308000000000007</v>
       </c>
       <c r="AD28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>111.86500000000001</v>
       </c>
       <c r="AE28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>285.16300000000018</v>
       </c>
       <c r="AF28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>639.99799999999959</v>
       </c>
       <c r="AG28" s="15">
-        <f t="shared" si="14"/>
-        <v>1089.8927459999998</v>
+        <f t="shared" si="66"/>
+        <v>363.29758199999986</v>
       </c>
       <c r="AH28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>1307.8712951999998</v>
       </c>
       <c r="AI28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="66"/>
         <v>1569.4455542399996</v>
       </c>
       <c r="AJ28" s="15">
-        <f t="shared" si="14"/>
-        <v>1883.3346650879994</v>
+        <f t="shared" si="66"/>
+        <v>1726.390109664</v>
       </c>
       <c r="AK28" s="15">
-        <f t="shared" si="14"/>
-        <v>2260.001598105599</v>
+        <f t="shared" si="66"/>
+        <v>1899.0291206303998</v>
       </c>
       <c r="AL28" s="15">
-        <f t="shared" si="14"/>
-        <v>2712.0019177267186</v>
+        <f t="shared" si="66"/>
+        <v>2088.9320326934399</v>
       </c>
       <c r="AM28" s="15">
-        <f t="shared" si="14"/>
-        <v>3254.4023012720622</v>
+        <f t="shared" si="66"/>
+        <v>2297.8252359627845</v>
       </c>
       <c r="AN28" s="15">
-        <f t="shared" si="14"/>
-        <v>3905.282761526475</v>
+        <f>AM28*(1+$AV$59)</f>
+        <v>2320.8034883224122</v>
       </c>
       <c r="AO28" s="15">
-        <f t="shared" si="14"/>
-        <v>4686.3393138317697</v>
+        <f t="shared" ref="AO28:CS28" si="67">AN28*(1+$AV$59)</f>
+        <v>2344.0115232056364</v>
       </c>
       <c r="AP28" s="15">
-        <f t="shared" si="14"/>
-        <v>5623.6071765981233</v>
+        <f t="shared" si="67"/>
+        <v>2367.451638437693</v>
       </c>
       <c r="AQ28" s="15">
-        <f t="shared" si="14"/>
-        <v>6748.3286119177474</v>
+        <f t="shared" si="67"/>
+        <v>2391.12615482207</v>
       </c>
       <c r="AR28" s="15">
-        <f t="shared" si="14"/>
-        <v>8097.9943343012965</v>
+        <f t="shared" si="67"/>
+        <v>2415.0374163702909</v>
       </c>
       <c r="AS28" s="15">
-        <f>AR28*(1+$AV$32)</f>
-        <v>8178.97427764431</v>
+        <f t="shared" si="67"/>
+        <v>2439.1877905339938</v>
       </c>
       <c r="AT28" s="15">
-        <f t="shared" ref="AT28:CS28" si="15">AS28*(1+$AV$32)</f>
-        <v>8260.7640204207528</v>
+        <f t="shared" si="67"/>
+        <v>2463.579668439334</v>
       </c>
       <c r="AU28" s="15">
-        <f t="shared" si="15"/>
-        <v>8343.37166062496</v>
+        <f t="shared" si="67"/>
+        <v>2488.2154651237274</v>
       </c>
       <c r="AV28" s="15">
-        <f t="shared" si="15"/>
-        <v>8426.8053772312105</v>
+        <f t="shared" si="67"/>
+        <v>2513.0976197749646</v>
       </c>
       <c r="AW28" s="15">
-        <f t="shared" si="15"/>
-        <v>8511.0734310035223</v>
+        <f t="shared" si="67"/>
+        <v>2538.2285959727142</v>
       </c>
       <c r="AX28" s="15">
-        <f t="shared" si="15"/>
-        <v>8596.184165313558</v>
+        <f t="shared" si="67"/>
+        <v>2563.6108819324413</v>
       </c>
       <c r="AY28" s="15">
-        <f t="shared" si="15"/>
-        <v>8682.1460069666937</v>
+        <f t="shared" si="67"/>
+        <v>2589.2469907517657</v>
       </c>
       <c r="AZ28" s="15">
-        <f t="shared" si="15"/>
-        <v>8768.9674670363602</v>
+        <f t="shared" si="67"/>
+        <v>2615.1394606592835</v>
       </c>
       <c r="BA28" s="15">
-        <f t="shared" si="15"/>
-        <v>8856.6571417067244</v>
+        <f t="shared" si="67"/>
+        <v>2641.2908552658764</v>
       </c>
       <c r="BB28" s="15">
-        <f t="shared" si="15"/>
-        <v>8945.2237131237925</v>
+        <f t="shared" si="67"/>
+        <v>2667.7037638185352</v>
       </c>
       <c r="BC28" s="15">
-        <f t="shared" si="15"/>
-        <v>9034.6759502550303</v>
+        <f t="shared" si="67"/>
+        <v>2694.3808014567207</v>
       </c>
       <c r="BD28" s="15">
-        <f t="shared" si="15"/>
-        <v>9125.0227097575807</v>
+        <f t="shared" si="67"/>
+        <v>2721.3246094712881</v>
       </c>
       <c r="BE28" s="15">
-        <f t="shared" si="15"/>
-        <v>9216.2729368551572</v>
+        <f t="shared" si="67"/>
+        <v>2748.5378555660009</v>
       </c>
       <c r="BF28" s="15">
-        <f t="shared" si="15"/>
-        <v>9308.4356662237096</v>
+        <f t="shared" si="67"/>
+        <v>2776.0232341216611</v>
       </c>
       <c r="BG28" s="15">
-        <f t="shared" si="15"/>
-        <v>9401.5200228859467</v>
+        <f t="shared" si="67"/>
+        <v>2803.7834664628776</v>
       </c>
       <c r="BH28" s="15">
-        <f t="shared" si="15"/>
-        <v>9495.5352231148063</v>
+        <f t="shared" si="67"/>
+        <v>2831.8213011275066</v>
       </c>
       <c r="BI28" s="15">
-        <f t="shared" si="15"/>
-        <v>9590.4905753459552</v>
+        <f t="shared" si="67"/>
+        <v>2860.1395141387816</v>
       </c>
       <c r="BJ28" s="15">
-        <f t="shared" si="15"/>
-        <v>9686.3954810994146</v>
+        <f t="shared" si="67"/>
+        <v>2888.7409092801695</v>
       </c>
       <c r="BK28" s="15">
-        <f t="shared" si="15"/>
-        <v>9783.2594359104096</v>
+        <f t="shared" si="67"/>
+        <v>2917.6283183729711</v>
       </c>
       <c r="BL28" s="15">
-        <f t="shared" si="15"/>
-        <v>9881.092030269514</v>
+        <f t="shared" si="67"/>
+        <v>2946.8046015567006</v>
       </c>
       <c r="BM28" s="15">
-        <f t="shared" si="15"/>
-        <v>9979.9029505722101</v>
+        <f t="shared" si="67"/>
+        <v>2976.2726475722675</v>
       </c>
       <c r="BN28" s="15">
-        <f t="shared" si="15"/>
-        <v>10079.701980077933</v>
+        <f t="shared" si="67"/>
+        <v>3006.03537404799</v>
       </c>
       <c r="BO28" s="15">
-        <f t="shared" si="15"/>
-        <v>10180.498999878711</v>
+        <f t="shared" si="67"/>
+        <v>3036.09572778847</v>
       </c>
       <c r="BP28" s="15">
-        <f t="shared" si="15"/>
-        <v>10282.303989877499</v>
+        <f t="shared" si="67"/>
+        <v>3066.4566850663546</v>
       </c>
       <c r="BQ28" s="15">
-        <f t="shared" si="15"/>
-        <v>10385.127029776273</v>
+        <f t="shared" si="67"/>
+        <v>3097.1212519170181</v>
       </c>
       <c r="BR28" s="15">
-        <f t="shared" si="15"/>
-        <v>10488.978300074035</v>
+        <f t="shared" si="67"/>
+        <v>3128.0924644361885</v>
       </c>
       <c r="BS28" s="15">
-        <f t="shared" si="15"/>
-        <v>10593.868083074776</v>
+        <f t="shared" si="67"/>
+        <v>3159.3733890805506</v>
       </c>
       <c r="BT28" s="15">
-        <f t="shared" si="15"/>
-        <v>10699.806763905524</v>
+        <f t="shared" si="67"/>
+        <v>3190.9671229713563</v>
       </c>
       <c r="BU28" s="15">
-        <f t="shared" si="15"/>
-        <v>10806.804831544579</v>
+        <f t="shared" si="67"/>
+        <v>3222.87679420107</v>
       </c>
       <c r="BV28" s="15">
-        <f t="shared" si="15"/>
-        <v>10914.872879860026</v>
+        <f t="shared" si="67"/>
+        <v>3255.1055621430805</v>
       </c>
       <c r="BW28" s="15">
-        <f t="shared" si="15"/>
-        <v>11024.021608658626</v>
+        <f t="shared" si="67"/>
+        <v>3287.6566177645113</v>
       </c>
       <c r="BX28" s="15">
-        <f t="shared" si="15"/>
-        <v>11134.261824745212</v>
+        <f t="shared" si="67"/>
+        <v>3320.5331839421565</v>
       </c>
       <c r="BY28" s="15">
-        <f t="shared" si="15"/>
-        <v>11245.604442992664</v>
+        <f t="shared" si="67"/>
+        <v>3353.7385157815779</v>
       </c>
       <c r="BZ28" s="15">
-        <f t="shared" si="15"/>
-        <v>11358.06048742259</v>
+        <f t="shared" si="67"/>
+        <v>3387.2759009393935</v>
       </c>
       <c r="CA28" s="15">
-        <f t="shared" si="15"/>
-        <v>11471.641092296815</v>
+        <f t="shared" si="67"/>
+        <v>3421.1486599487876</v>
       </c>
       <c r="CB28" s="15">
-        <f t="shared" si="15"/>
-        <v>11586.357503219784</v>
+        <f t="shared" si="67"/>
+        <v>3455.3601465482757</v>
       </c>
       <c r="CC28" s="15">
-        <f t="shared" si="15"/>
-        <v>11702.221078251981</v>
+        <f t="shared" si="67"/>
+        <v>3489.9137480137583</v>
       </c>
       <c r="CD28" s="15">
-        <f t="shared" si="15"/>
-        <v>11819.243289034501</v>
+        <f t="shared" si="67"/>
+        <v>3524.8128854938959</v>
       </c>
       <c r="CE28" s="15">
-        <f t="shared" si="15"/>
-        <v>11937.435721924845</v>
+        <f t="shared" si="67"/>
+        <v>3560.0610143488348</v>
       </c>
       <c r="CF28" s="15">
-        <f t="shared" si="15"/>
-        <v>12056.810079144094</v>
+        <f t="shared" si="67"/>
+        <v>3595.661624492323</v>
       </c>
       <c r="CG28" s="15">
-        <f t="shared" si="15"/>
-        <v>12177.378179935535</v>
+        <f t="shared" si="67"/>
+        <v>3631.6182407372462</v>
       </c>
       <c r="CH28" s="15">
-        <f t="shared" si="15"/>
-        <v>12299.151961734889</v>
+        <f t="shared" si="67"/>
+        <v>3667.9344231446189</v>
       </c>
       <c r="CI28" s="15">
-        <f t="shared" si="15"/>
-        <v>12422.143481352239</v>
+        <f t="shared" si="67"/>
+        <v>3704.613767376065</v>
       </c>
       <c r="CJ28" s="15">
-        <f t="shared" si="15"/>
-        <v>12546.364916165761</v>
+        <f t="shared" si="67"/>
+        <v>3741.6599050498257</v>
       </c>
       <c r="CK28" s="15">
-        <f t="shared" si="15"/>
-        <v>12671.82856532742</v>
+        <f t="shared" si="67"/>
+        <v>3779.0765041003242</v>
       </c>
       <c r="CL28" s="15">
-        <f t="shared" si="15"/>
-        <v>12798.546850980694</v>
+        <f t="shared" si="67"/>
+        <v>3816.8672691413276</v>
       </c>
       <c r="CM28" s="15">
-        <f t="shared" si="15"/>
-        <v>12926.532319490501</v>
+        <f t="shared" si="67"/>
+        <v>3855.0359418327407</v>
       </c>
       <c r="CN28" s="15">
-        <f t="shared" si="15"/>
-        <v>13055.797642685406</v>
+        <f t="shared" si="67"/>
+        <v>3893.5863012510681</v>
       </c>
       <c r="CO28" s="15">
-        <f t="shared" si="15"/>
-        <v>13186.355619112261</v>
+        <f t="shared" si="67"/>
+        <v>3932.5221642635788</v>
       </c>
       <c r="CP28" s="15">
-        <f t="shared" si="15"/>
-        <v>13318.219175303384</v>
+        <f t="shared" si="67"/>
+        <v>3971.8473859062146</v>
       </c>
       <c r="CQ28" s="15">
-        <f t="shared" si="15"/>
-        <v>13451.401367056418</v>
+        <f t="shared" si="67"/>
+        <v>4011.5658597652769</v>
       </c>
       <c r="CR28" s="15">
-        <f t="shared" si="15"/>
-        <v>13585.915380726983</v>
+        <f t="shared" si="67"/>
+        <v>4051.6815183629296</v>
       </c>
       <c r="CS28" s="15">
-        <f t="shared" si="15"/>
-        <v>13721.774534534254</v>
+        <f t="shared" si="67"/>
+        <v>4092.1983335465588</v>
       </c>
     </row>
     <row r="30" spans="2:97" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -14605,114 +14900,89 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="18" t="e">
-        <f t="shared" ref="S30:AR30" si="16">S28/S31</f>
+        <f t="shared" ref="S30:AR30" si="68">S28/S31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA30" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>0.93190799473097807</v>
       </c>
       <c r="AB30" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>1.4407516477352391</v>
       </c>
       <c r="AC30" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>1.6535195245846981</v>
       </c>
       <c r="AD30" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>2.1859306301905228</v>
       </c>
       <c r="AE30" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>5.539512024554182</v>
       </c>
       <c r="AF30" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>12.092546055739247</v>
       </c>
       <c r="AG30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL30" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM30" s="18" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN30" s="18" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO30" s="18" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP30" s="18" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ30" s="18" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR30" s="18" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU30" s="58"/>
-      <c r="AV30" s="58"/>
-      <c r="AW30" s="58"/>
-      <c r="AX30" s="58"/>
-      <c r="AY30" s="58"/>
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="31" spans="2:97" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -14736,791 +15006,826 @@
       <c r="AF31" s="15">
         <v>52.924999999999997</v>
       </c>
-      <c r="AU31" s="55"/>
-      <c r="AV31" s="55"/>
-      <c r="AW31" s="55"/>
-      <c r="AX31" s="55"/>
-      <c r="AY31" s="55"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="57"/>
+      <c r="AX31" s="57"/>
+      <c r="AY31" s="57"/>
     </row>
     <row r="32" spans="2:97" x14ac:dyDescent="0.35">
-      <c r="AU32" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="AV32" s="57">
-        <v>0.01</v>
-      </c>
-      <c r="AW32" s="15"/>
-      <c r="AX32" s="15"/>
-      <c r="AY32" s="15"/>
-    </row>
-    <row r="33" spans="1:48" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
+      <c r="AU32" s="58"/>
+      <c r="AV32" s="59"/>
+      <c r="AW32" s="58"/>
+      <c r="AX32" s="58"/>
+      <c r="AY32" s="58"/>
+    </row>
+    <row r="33" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="AV33" s="60">
+      <c r="AU33" s="51"/>
+      <c r="AV33" s="56"/>
+    </row>
+    <row r="34" spans="2:51" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="R34" s="52" t="e">
+        <f>R16/Q16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" s="52" t="e">
+        <f t="shared" ref="S34:AE34" si="69">S16/R16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="52" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" s="52" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" s="52" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W34" s="52" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X34" s="52" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y34" s="52" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z34" s="52" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA34" s="52" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB34" s="52">
+        <f t="shared" si="69"/>
+        <v>4.1621286406871461E-2</v>
+      </c>
+      <c r="AC34" s="52">
+        <f t="shared" si="69"/>
+        <v>-4.6017838165217317E-2</v>
+      </c>
+      <c r="AD34" s="52">
+        <f t="shared" si="69"/>
+        <v>6.5325739283396578E-2</v>
+      </c>
+      <c r="AE34" s="52">
+        <f t="shared" si="69"/>
+        <v>0.46063610108668573</v>
+      </c>
+      <c r="AF34" s="52">
+        <f>AF16/AE16-1</f>
+        <v>0.37092884488921385</v>
+      </c>
+      <c r="AG34" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AH34" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AI34" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AJ34" s="52">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU34" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV34" s="61">
-        <f>NPV(AV33,AG28:CS28)</f>
-        <v>48706.663520172238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
+      <c r="AK34" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="AL34" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="AM34" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="AU34" s="59"/>
+      <c r="AV34" s="59"/>
+      <c r="AW34" s="59"/>
+      <c r="AX34" s="59"/>
+      <c r="AY34" s="59"/>
+    </row>
+    <row r="35" spans="2:51" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="AU35" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV35" s="61">
-        <f>AV34/AF31</f>
-        <v>920.29595692342446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU36" s="51"/>
-    </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>157</v>
-      </c>
-      <c r="AU37" s="51"/>
-    </row>
-    <row r="40" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="5" t="s">
+      <c r="R35" s="52" t="e">
+        <f>R28/Q28-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35" s="52" t="e">
+        <f t="shared" ref="S35:AE35" si="70">S28/R28-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="52" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" s="52" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V35" s="52" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" s="52" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X35" s="52" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y35" s="52" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z35" s="52" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA35" s="52" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB35" s="52">
+        <f t="shared" si="70"/>
+        <v>0.56394476459714604</v>
+      </c>
+      <c r="AC35" s="52">
+        <f t="shared" si="70"/>
+        <v>0.17227954058789297</v>
+      </c>
+      <c r="AD35" s="52">
+        <f t="shared" si="70"/>
+        <v>0.32686103335389283</v>
+      </c>
+      <c r="AE35" s="52">
+        <f t="shared" si="70"/>
+        <v>1.5491708756089944</v>
+      </c>
+      <c r="AF35" s="52">
+        <f>AF28/AE28-1</f>
+        <v>1.2443234220428288</v>
+      </c>
+      <c r="AG35" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AH35" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AI35" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AJ35" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AK35" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AL35" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AM35" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="AU35" s="59"/>
+      <c r="AV35" s="59"/>
+      <c r="AW35" s="59"/>
+      <c r="AX35" s="59"/>
+      <c r="AY35" s="59"/>
+    </row>
+    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="52" t="s">
+    <row r="38" spans="2:51" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="R41" s="52" t="e">
+      <c r="R38" s="52" t="e">
         <f>R18/R16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S41" s="52" t="e">
-        <f t="shared" ref="S41:AE41" si="17">S18/S16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T41" s="52" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U41" s="52" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V41" s="52" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W41" s="52" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X41" s="52" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y41" s="52" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z41" s="52" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA41" s="52">
-        <f t="shared" si="17"/>
+      <c r="S38" s="52" t="e">
+        <f t="shared" ref="S38:AE38" si="71">S18/S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="52" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U38" s="52" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V38" s="52" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38" s="52" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X38" s="52" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y38" s="52" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z38" s="52" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA38" s="52">
+        <f t="shared" si="71"/>
         <v>0.12795566839617536</v>
       </c>
-      <c r="AB41" s="52">
-        <f t="shared" si="17"/>
+      <c r="AB38" s="52">
+        <f t="shared" si="71"/>
         <v>0.14156315350421098</v>
       </c>
-      <c r="AC41" s="52">
-        <f t="shared" si="17"/>
+      <c r="AC38" s="52">
+        <f t="shared" si="71"/>
         <v>0.15758182674653617</v>
       </c>
-      <c r="AD41" s="52">
-        <f t="shared" si="17"/>
+      <c r="AD38" s="52">
+        <f t="shared" si="71"/>
         <v>0.15025993542514776</v>
       </c>
-      <c r="AE41" s="52">
-        <f t="shared" si="17"/>
+      <c r="AE38" s="52">
+        <f t="shared" si="71"/>
         <v>0.15396184714725417</v>
       </c>
-      <c r="AF41" s="52">
+      <c r="AF38" s="52">
         <f>AF18/AF16</f>
         <v>0.18011023260815423</v>
       </c>
-      <c r="AG41" s="52">
+      <c r="AG38" s="52">
         <v>0.15</v>
       </c>
-      <c r="AH41" s="52">
+      <c r="AH38" s="52">
         <v>0.15</v>
       </c>
-      <c r="AI41" s="52">
+      <c r="AI38" s="52">
         <v>0.15</v>
       </c>
-      <c r="AJ41" s="52">
+      <c r="AJ38" s="52">
         <v>0.15</v>
       </c>
-      <c r="AK41" s="52">
+      <c r="AK38" s="52">
         <v>0.15</v>
       </c>
-      <c r="AL41" s="52">
+      <c r="AL38" s="52">
         <v>0.15</v>
       </c>
-      <c r="AM41" s="52">
+      <c r="AM38" s="52">
         <v>0.15</v>
       </c>
-      <c r="AN41" s="52">
-        <v>0.15</v>
-      </c>
-      <c r="AO41" s="52">
-        <v>0.15</v>
-      </c>
-      <c r="AP41" s="52">
-        <v>0.15</v>
-      </c>
-      <c r="AQ41" s="52">
-        <v>0.15</v>
-      </c>
-      <c r="AR41" s="52">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="52" t="s">
+    </row>
+    <row r="39" spans="2:51" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="R42" s="52" t="e">
+      <c r="R39" s="52" t="e">
         <f>R22/R16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S42" s="52" t="e">
-        <f t="shared" ref="S42:AE42" si="18">S22/S16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T42" s="52" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U42" s="52" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V42" s="52" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W42" s="52" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X42" s="52" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y42" s="52" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z42" s="52" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA42" s="52">
-        <f t="shared" si="18"/>
+      <c r="S39" s="52" t="e">
+        <f t="shared" ref="S39:AE39" si="72">S22/S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" s="52" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U39" s="52" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V39" s="52" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W39" s="52" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X39" s="52" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y39" s="52" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z39" s="52" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA39" s="52">
+        <f t="shared" si="72"/>
         <v>2.8130999865495915E-2</v>
       </c>
-      <c r="AB42" s="52">
-        <f t="shared" si="18"/>
+      <c r="AB39" s="52">
+        <f t="shared" si="72"/>
         <v>2.7777999977145192E-2</v>
       </c>
-      <c r="AC42" s="52">
-        <f t="shared" si="18"/>
+      <c r="AC39" s="52">
+        <f t="shared" si="72"/>
         <v>2.5650431934299629E-2</v>
       </c>
-      <c r="AD42" s="52">
-        <f t="shared" si="18"/>
+      <c r="AD39" s="52">
+        <f t="shared" si="72"/>
         <v>3.4841803980522973E-2</v>
       </c>
-      <c r="AE42" s="52">
-        <f t="shared" si="18"/>
+      <c r="AE39" s="52">
+        <f t="shared" si="72"/>
         <v>6.4503582399026677E-2</v>
       </c>
-      <c r="AF42" s="52">
+      <c r="AF39" s="52">
         <f>AF22/AF16</f>
         <v>0.10684971198074196</v>
       </c>
     </row>
-    <row r="43" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="52" t="s">
+    <row r="40" spans="2:51" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="R43" s="52" t="e">
+      <c r="R40" s="52" t="e">
         <f>R28/R16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S43" s="52" t="e">
-        <f t="shared" ref="S43:AE43" si="19">S28/S16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T43" s="52" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U43" s="52" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V43" s="52" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W43" s="52" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X43" s="52" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y43" s="52" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z43" s="52" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA43" s="52">
-        <f t="shared" si="19"/>
+      <c r="S40" s="52" t="e">
+        <f t="shared" ref="S40:AE40" si="73">S28/S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" s="52" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U40" s="52" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V40" s="52" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W40" s="52" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X40" s="52" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y40" s="52" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z40" s="52" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA40" s="52">
+        <f t="shared" si="73"/>
         <v>1.3684008174993456E-2</v>
       </c>
-      <c r="AB43" s="52">
-        <f t="shared" si="19"/>
+      <c r="AB40" s="52">
+        <f t="shared" si="73"/>
         <v>2.0545886708795646E-2</v>
       </c>
-      <c r="AC43" s="52">
-        <f t="shared" si="19"/>
+      <c r="AC40" s="52">
+        <f t="shared" si="73"/>
         <v>2.5247351151340667E-2</v>
       </c>
-      <c r="AD43" s="52">
-        <f t="shared" si="19"/>
+      <c r="AD40" s="52">
+        <f t="shared" si="73"/>
         <v>3.1445524315079854E-2</v>
       </c>
-      <c r="AE43" s="52">
-        <f t="shared" si="19"/>
+      <c r="AE40" s="52">
+        <f t="shared" si="73"/>
         <v>5.4880209172304101E-2</v>
       </c>
-      <c r="AF43" s="52">
+      <c r="AF40" s="52">
         <f>AF28/AF16</f>
         <v>8.984342207925837E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="52" t="s">
+    <row r="41" spans="2:51" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="R44" s="52" t="e">
+      <c r="R41" s="52" t="e">
         <f>R26/R25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S44" s="52" t="e">
-        <f t="shared" ref="S44:AE44" si="20">S26/S25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T44" s="52" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U44" s="52" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V44" s="52" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W44" s="52" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X44" s="52" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y44" s="52" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z44" s="52" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA44" s="52">
-        <f t="shared" si="20"/>
+      <c r="S41" s="52" t="e">
+        <f t="shared" ref="S41:AE41" si="74">S26/S25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="52" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" s="52" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V41" s="52" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W41" s="52" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" s="52" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y41" s="52" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z41" s="52" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA41" s="52">
+        <f t="shared" si="74"/>
         <v>-0.43667859374112511</v>
       </c>
-      <c r="AB44" s="52">
-        <f t="shared" si="20"/>
+      <c r="AB41" s="52">
+        <f t="shared" si="74"/>
         <v>-0.16625895021391163</v>
       </c>
-      <c r="AC44" s="52">
-        <f t="shared" si="20"/>
+      <c r="AC41" s="52">
+        <f t="shared" si="74"/>
         <v>-3.4446173433300323E-2</v>
       </c>
-      <c r="AD44" s="52">
-        <f t="shared" si="20"/>
+      <c r="AD41" s="52">
+        <f t="shared" si="74"/>
         <v>-5.8468489732609499E-2</v>
       </c>
-      <c r="AE44" s="52">
-        <f t="shared" si="20"/>
+      <c r="AE41" s="52">
+        <f t="shared" si="74"/>
         <v>-0.15697986836206659</v>
       </c>
-      <c r="AF44" s="52">
+      <c r="AF41" s="52">
         <f>AF26/AF25</f>
         <v>-0.14671409272474906</v>
       </c>
+      <c r="AG41" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AH41" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AI41" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AJ41" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AK41" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AL41" s="52">
+        <v>-0.15</v>
+      </c>
+      <c r="AM41" s="52">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="2:51" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="R44" s="52" t="e">
+        <f>R19/R16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S44" s="52" t="e">
+        <f t="shared" ref="S44:AE44" si="75">S19/S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44" s="52" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U44" s="52" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V44" s="52" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W44" s="52" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X44" s="52" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y44" s="52" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z44" s="52" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA44" s="52">
+        <f t="shared" si="75"/>
+        <v>4.91309010704385E-2</v>
+      </c>
+      <c r="AB44" s="52">
+        <f t="shared" si="75"/>
+        <v>5.1396713480899109E-2</v>
+      </c>
+      <c r="AC44" s="52">
+        <f t="shared" si="75"/>
+        <v>6.6325056202218388E-2</v>
+      </c>
+      <c r="AD44" s="52">
+        <f t="shared" si="75"/>
+        <v>6.3070673088545581E-2</v>
+      </c>
+      <c r="AE44" s="52">
+        <f t="shared" si="75"/>
+        <v>5.2399502011027894E-2</v>
+      </c>
+      <c r="AF44" s="52">
+        <f>AF19/AF16</f>
+        <v>4.3133400210739636E-2</v>
+      </c>
       <c r="AG44" s="52">
-        <v>-0.15</v>
+        <v>0.05</v>
       </c>
       <c r="AH44" s="52">
-        <v>-0.15</v>
+        <v>0.05</v>
       </c>
       <c r="AI44" s="52">
-        <v>-0.15</v>
+        <v>0.05</v>
       </c>
       <c r="AJ44" s="52">
-        <v>-0.15</v>
+        <v>0.05</v>
       </c>
       <c r="AK44" s="52">
-        <v>-0.15</v>
+        <v>0.05</v>
       </c>
       <c r="AL44" s="52">
-        <v>-0.15</v>
+        <v>0.05</v>
       </c>
       <c r="AM44" s="52">
-        <v>-0.15</v>
-      </c>
-      <c r="AN44" s="52">
-        <v>-0.15</v>
-      </c>
-      <c r="AO44" s="52">
-        <v>-0.15</v>
-      </c>
-      <c r="AP44" s="52">
-        <v>-0.15</v>
-      </c>
-      <c r="AQ44" s="52">
-        <v>-0.15</v>
-      </c>
-      <c r="AR44" s="52">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="52" t="s">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="2:51" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="R45" s="52" t="e">
+        <f>R20/R16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S45" s="52" t="e">
+        <f t="shared" ref="S45:AE45" si="76">S20/S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="52" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U45" s="52" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V45" s="52" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W45" s="52" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X45" s="52" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y45" s="52" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z45" s="52" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA45" s="52">
+        <f t="shared" si="76"/>
+        <v>5.0693767460240936E-2</v>
+      </c>
+      <c r="AB45" s="52">
+        <f t="shared" si="76"/>
+        <v>6.2388440046166678E-2</v>
+      </c>
+      <c r="AC45" s="52">
+        <f t="shared" si="76"/>
+        <v>6.5606338610018147E-2</v>
+      </c>
+      <c r="AD45" s="52">
+        <f t="shared" si="76"/>
+        <v>5.2347458356079207E-2</v>
+      </c>
+      <c r="AE45" s="52">
+        <f t="shared" si="76"/>
+        <v>3.7058762737199581E-2</v>
+      </c>
+      <c r="AF45" s="52">
+        <f>AF20/AF16</f>
+        <v>3.0127120416672634E-2</v>
+      </c>
+      <c r="AG45" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="AH45" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="AI45" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="AJ45" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="AK45" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="AL45" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="AM45" s="52">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="AU47" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R47" s="52" t="e">
-        <f>R16/Q16-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S47" s="52" t="e">
-        <f t="shared" ref="S47:AE47" si="21">S16/R16-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T47" s="52" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U47" s="52" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V47" s="52" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W47" s="52" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X47" s="52" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y47" s="52" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z47" s="52" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA47" s="52" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB47" s="52">
-        <f t="shared" si="21"/>
-        <v>4.1621286406871461E-2</v>
-      </c>
-      <c r="AC47" s="52">
-        <f t="shared" si="21"/>
-        <v>-4.6017838165217317E-2</v>
-      </c>
-      <c r="AD47" s="52">
-        <f t="shared" si="21"/>
-        <v>6.5325739283396578E-2</v>
-      </c>
-      <c r="AE47" s="52">
-        <f t="shared" si="21"/>
-        <v>0.46063610108668573</v>
-      </c>
-      <c r="AF47" s="52">
-        <f>AF16/AE16-1</f>
-        <v>0.37092884488921385</v>
-      </c>
-      <c r="AG47" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="AH47" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="AI47" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="AJ47" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="AK47" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="AL47" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="AM47" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="AN47" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="AO47" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="AP47" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="AQ47" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="AR47" s="52">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="52" t="s">
+    </row>
+    <row r="48" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="AU48" s="51" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV48" s="51"/>
+      <c r="AW48" s="51"/>
+      <c r="AX48" s="51"/>
+      <c r="AY48" s="51"/>
+    </row>
+    <row r="49" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU49" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV49" s="52">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU50" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV50" s="52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV51" s="55">
+        <f>NPV(AV50,AN16:CS16)</f>
+        <v>200817.30757371327</v>
+      </c>
+    </row>
+    <row r="52" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU52" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV52" s="55">
+        <f>AV51/$AF$31</f>
+        <v>3794.3752021485743</v>
+      </c>
+    </row>
+    <row r="53" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU53" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV53" s="1" cm="1">
+        <f t="array" ref="AV53">_FV(AU48,"Price")</f>
+        <v>701.65</v>
+      </c>
+    </row>
+    <row r="54" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU54" s="5"/>
+    </row>
+    <row r="57" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU57" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="R48" s="52" t="e">
-        <f>R28/Q28-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S48" s="52" t="e">
-        <f t="shared" ref="S48:AE48" si="22">S28/R28-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T48" s="52" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U48" s="52" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V48" s="52" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W48" s="52" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X48" s="52" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y48" s="52" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z48" s="52" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA48" s="52" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB48" s="52">
-        <f t="shared" si="22"/>
-        <v>0.56394476459714604</v>
-      </c>
-      <c r="AC48" s="52">
-        <f t="shared" si="22"/>
-        <v>0.17227954058789297</v>
-      </c>
-      <c r="AD48" s="52">
-        <f t="shared" si="22"/>
-        <v>0.32686103335389283</v>
-      </c>
-      <c r="AE48" s="52">
-        <f t="shared" si="22"/>
-        <v>1.5491708756089944</v>
-      </c>
-      <c r="AF48" s="52">
-        <f>AF28/AE28-1</f>
-        <v>1.2443234220428288</v>
-      </c>
-      <c r="AG48" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="AH48" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="AI48" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="AJ48" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="AK48" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="AL48" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="AM48" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="AN48" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="AO48" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="AP48" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="AQ48" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="AR48" s="52">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:32" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="R49" s="52" t="e">
-        <f>R19/Q19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S49" s="52" t="e">
-        <f t="shared" ref="S49:AE49" si="23">S19/R19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T49" s="52" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U49" s="52" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V49" s="52" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W49" s="52" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X49" s="52" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y49" s="52" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z49" s="52" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA49" s="52" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB49" s="52">
-        <f t="shared" si="23"/>
-        <v>8.9658639403042972E-2</v>
-      </c>
-      <c r="AC49" s="52">
-        <f t="shared" si="23"/>
-        <v>0.23106938584935555</v>
-      </c>
-      <c r="AD49" s="52">
-        <f t="shared" si="23"/>
-        <v>1.3053215217764258E-2</v>
-      </c>
-      <c r="AE49" s="52">
-        <f t="shared" si="23"/>
-        <v>0.21350543078589301</v>
-      </c>
-      <c r="AF49" s="52">
-        <f>AF19/AE19-1</f>
-        <v>0.12849970434086355</v>
-      </c>
-    </row>
-    <row r="50" spans="2:32" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="R50" s="52" t="e">
-        <f>R20/Q20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S50" s="52" t="e">
-        <f t="shared" ref="S50:AE50" si="24">S20/R20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T50" s="52" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U50" s="52" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V50" s="52" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W50" s="52" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X50" s="52" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y50" s="52" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z50" s="52" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA50" s="52" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB50" s="52">
-        <f t="shared" si="24"/>
-        <v>0.28191551809152604</v>
-      </c>
-      <c r="AC50" s="52">
-        <f t="shared" si="24"/>
-        <v>3.1870758579004566E-3</v>
-      </c>
-      <c r="AD50" s="52">
-        <f t="shared" si="24"/>
-        <v>-0.14997398186947108</v>
-      </c>
-      <c r="AE50" s="52">
-        <f t="shared" si="24"/>
-        <v>3.4040016754196545E-2</v>
-      </c>
-      <c r="AF50" s="52">
-        <f>AF20/AE20-1</f>
-        <v>0.11450397536365098</v>
-      </c>
+    </row>
+    <row r="58" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU58" s="51" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV58" s="51"/>
+      <c r="AW58" s="51"/>
+      <c r="AX58" s="51"/>
+      <c r="AY58" s="51"/>
+    </row>
+    <row r="59" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU59" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV59" s="52">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU60" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV60" s="52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU61" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV61" s="55">
+        <f>NPV(AV60,AN28:CS28)</f>
+        <v>25604.206715648448</v>
+      </c>
+    </row>
+    <row r="62" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU62" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV62" s="55">
+        <f>AV61/$AF$31</f>
+        <v>483.7828382739433</v>
+      </c>
+    </row>
+    <row r="63" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU63" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV63" s="1" cm="1">
+        <f t="array" ref="AV63">_FV(AU58,"Price")</f>
+        <v>701.65</v>
+      </c>
+    </row>
+    <row r="64" spans="47:51" x14ac:dyDescent="0.35">
+      <c r="AU64" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192A6712-9CE2-48AA-99A8-F93387F4F980}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SMCI/SMCI.xlsx
+++ b/SMCI/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/SMCI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3374" documentId="11_F25DC773A252ABDACC10487F99996F625BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8D4225B-7F2B-4404-A236-A3D8F31B622E}"/>
+  <xr:revisionPtr revIDLastSave="3418" documentId="11_F25DC773A252ABDACC10487F99996F625BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{574B7AF4-8214-4D6A-AAE1-55ECD53C3265}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2990" windowWidth="34080" windowHeight="19020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1240" windowWidth="34080" windowHeight="19020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="233">
   <si>
     <t>Ticker</t>
   </si>
@@ -814,6 +814,30 @@
   </si>
   <si>
     <t>DELL - P/FCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidance </t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY20</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1165,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -1267,11 +1287,9 @@
     <v>4</v>
     <v>1229</v>
     <v>226.59</v>
-    <v>1.3542000000000001</v>
-    <v>-1.18</v>
-    <v>-6.1919999999999998E-4</v>
-    <v>-2.3140000000000001E-3</v>
-    <v>-0.315</v>
+    <v>1.254</v>
+    <v>-104.15</v>
+    <v>-0.19018000000000002</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>5126</v>
@@ -1279,25 +1297,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Avenue, SAN JOSE, CA, 95131 US</v>
-    <v>514.95780000000002</v>
+    <v>487.47</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45513.866389258597</v>
+    <v>45532.999988495314</v>
     <v>0</v>
-    <v>492.04</v>
-    <v>29791220202</v>
+    <v>395.18009999999998</v>
+    <v>25969235489</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>510.38499999999999</v>
-    <v>25.642700000000001</v>
-    <v>509.94</v>
-    <v>508.76</v>
-    <v>508.44499999999999</v>
+    <v>485.94</v>
+    <v>22.301200000000001</v>
+    <v>547.64</v>
+    <v>443.49</v>
     <v>58556530</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>5872096</v>
-    <v>6902778</v>
+    <v>10548</v>
+    <v>7678968</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1328,9 +1345,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1351,7 +1366,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1368,7 +1382,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1379,16 +1393,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1454,19 +1465,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1511,9 +1516,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1521,9 +1523,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -1902,7 +1901,7 @@
       </c>
       <c r="B2" s="1" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>508.76</v>
+        <v>443.49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1923,7 +1922,7 @@
       </c>
       <c r="B4" s="1">
         <f>B2*B3</f>
-        <v>29791.220202799999</v>
+        <v>25969.2354897</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1951,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B65D296-4349-466C-8B01-63C7ADC6A8A0}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2314,32 +2313,92 @@
       <c r="B48" s="8"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C52" s="15"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C53" s="15"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C54" s="15"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C55" s="15"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C56" s="15"/>
+    <row r="53" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="L53" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54" s="15">
+        <v>6200</v>
+      </c>
+      <c r="P54" s="15">
+        <v>9500</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="15">
+        <v>4300</v>
+      </c>
+      <c r="O55" s="15">
+        <v>7000</v>
+      </c>
+      <c r="P55" s="15">
+        <v>10500</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="N56" s="15" cm="1">
+        <f t="array" ref="N56">_xldudf_WISE("SMCI","Revenue",2022,,1000000)</f>
+        <v>5196.0990000000002</v>
+      </c>
+      <c r="O56" s="15" cm="1">
+        <f t="array" ref="O56">_xldudf_WISE("SMCI","Revenue",2023,,1000000)</f>
+        <v>7123.482</v>
+      </c>
+      <c r="P56" s="15" cm="1">
+        <f t="array" ref="P56">_xldudf_WISE("SMCI","Revenue",2024,,1000000)</f>
+        <v>14942.853999999999</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2353,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEF9C72-9CDB-43CD-A43D-21F2A1F2D890}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3468,7 +3527,7 @@
   <dimension ref="B1:AZ148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="Y68" sqref="Y68"/>
@@ -20727,7 +20786,7 @@
       </c>
       <c r="BP82" s="1" cm="1">
         <f t="array" ref="BP82">_FV(BO77,"Price")</f>
-        <v>508.76</v>
+        <v>443.49</v>
       </c>
     </row>
     <row r="83" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -21135,7 +21194,7 @@
       </c>
       <c r="BP92" s="1" cm="1">
         <f t="array" ref="BP92">_FV(BO87,"Price")</f>
-        <v>508.76</v>
+        <v>443.49</v>
       </c>
     </row>
     <row r="93" spans="2:71" x14ac:dyDescent="0.35">
